--- a/Transcription rules.xlsx
+++ b/Transcription rules.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="660">
   <si>
     <t>[iː]</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>и́</t>
+  </si>
+  <si>
+    <t>у́</t>
   </si>
   <si>
     <t>о́</t>
@@ -9014,9 +9017,6 @@
     <t>ɛə|ɛər</t>
   </si>
   <si>
-    <t>ɔ|ɔː|оː</t>
-  </si>
-  <si>
     <t>ʃ</t>
   </si>
   <si>
@@ -9038,9 +9038,6 @@
     <t>ɪə</t>
   </si>
   <si>
-    <t>iː|ɪ</t>
-  </si>
-  <si>
     <t>aɪ</t>
   </si>
   <si>
@@ -9071,9 +9068,6 @@
     <t>aɪə|aɪər</t>
   </si>
   <si>
-    <t>ɪə|ɪər,</t>
-  </si>
-  <si>
     <t>ɪgh</t>
   </si>
   <si>
@@ -9092,21 +9086,6 @@
     <t>ŋ</t>
   </si>
   <si>
-    <t> ou, əu</t>
-  </si>
-  <si>
-    <t>ɔ, ɔː,</t>
-  </si>
-  <si>
-    <t>ə|o|ʌ</t>
-  </si>
-  <si>
-    <t>ou|əu|ɔː</t>
-  </si>
-  <si>
-    <t>ɔː, ə, ɔəː</t>
-  </si>
-  <si>
     <t>ɔɪ</t>
   </si>
   <si>
@@ -9128,12 +9107,6 @@
     <t>əː</t>
   </si>
   <si>
-    <t>ou|əu;</t>
-  </si>
-  <si>
-    <t>в ряде диалектов o</t>
-  </si>
-  <si>
     <t>au</t>
   </si>
   <si>
@@ -9201,6 +9174,69 @@
   </si>
   <si>
     <t>о́л</t>
+  </si>
+  <si>
+    <t>иа</t>
+  </si>
+  <si>
+    <t>ɔ</t>
+  </si>
+  <si>
+    <t>ɔː|оː</t>
+  </si>
+  <si>
+    <t>ю</t>
+  </si>
+  <si>
+    <t>ью</t>
+  </si>
+  <si>
+    <t>ьюр</t>
+  </si>
+  <si>
+    <t>юр</t>
+  </si>
+  <si>
+    <t>айа</t>
+  </si>
+  <si>
+    <t>ɪə|ɪər</t>
+  </si>
+  <si>
+    <t>ɪɔ|ɪə</t>
+  </si>
+  <si>
+    <t>ёр</t>
+  </si>
+  <si>
+    <t>ӭр</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>мб</t>
+  </si>
+  <si>
+    <t>ou|əu</t>
+  </si>
+  <si>
+    <t>ɔ|ə|o|ʌ</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>ɔɪd</t>
+  </si>
+  <si>
+    <t>оид</t>
+  </si>
+  <si>
+    <t>ou|əu|o</t>
   </si>
 </sst>
 </file>
@@ -9438,7 +9474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9572,6 +9608,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9854,19 +9896,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K242"/>
+  <dimension ref="B1:K250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="44"/>
     <col min="8" max="8" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
@@ -9877,80 +9919,80 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="31"/>
       <c r="H3" s="32"/>
       <c r="I3" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="72" x14ac:dyDescent="0.25">
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
@@ -9958,41 +10000,41 @@
       <c r="G6" s="31"/>
       <c r="H6" s="32"/>
       <c r="I6" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>11</v>
@@ -10005,10 +10047,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -10018,7 +10060,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="36"/>
       <c r="K9" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -10027,7 +10069,7 @@
       <c r="I10" s="39"/>
       <c r="J10" s="36"/>
       <c r="K10" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -10036,7 +10078,7 @@
       <c r="I11" s="39"/>
       <c r="J11" s="36"/>
       <c r="K11" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10045,15 +10087,15 @@
       <c r="I12" s="40"/>
       <c r="J12" s="37"/>
       <c r="K12" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>1</v>
@@ -10063,54 +10105,54 @@
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="45" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>113</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
@@ -10120,37 +10162,37 @@
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="1" t="s">
@@ -10161,53 +10203,53 @@
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B18" s="45" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
       <c r="I19" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>1</v>
@@ -10217,16 +10259,16 @@
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
@@ -10235,7 +10277,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="36"/>
       <c r="K21" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -10244,95 +10286,95 @@
       <c r="I22" s="40"/>
       <c r="J22" s="37"/>
       <c r="K22" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="34"/>
     </row>
     <row r="25" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="45" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="45" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>15</v>
@@ -10345,2994 +10387,3433 @@
     </row>
     <row r="27" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="45" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G28" s="32"/>
       <c r="H28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="45" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D29" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>173</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="44" t="s">
-        <v>114</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="45" t="s">
-        <v>183</v>
+        <v>630</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G34" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I34" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="23" t="s">
+      <c r="C35" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="J35" s="23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="K35" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="D35" s="45" t="s">
+    </row>
+    <row r="36" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G36" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="24" t="s">
+      <c r="J36" s="23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="23"/>
       <c r="K36" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>586</v>
+        <v>368</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="G37" s="31"/>
       <c r="H37" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="J37" s="23"/>
       <c r="K37" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>194</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G38" s="32"/>
       <c r="H38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="31"/>
+        <v>95</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>195</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>367</v>
+        <v>588</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I40" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D41" s="45" t="s">
         <v>68</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>586</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I42" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41" s="24" t="s">
+      <c r="J42" s="23" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>542</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="K42" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I42" s="22" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K42" s="24" t="s">
+      <c r="J43" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="45" t="s">
+      <c r="K43" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D43" s="45" t="s">
+    </row>
+    <row r="44" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="30" t="s">
+      <c r="G44" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="17" t="s">
+      <c r="I44" s="38" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="21" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+    <row r="45" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="45" t="s">
+    </row>
+    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G46" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I46" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="45" t="s">
+      <c r="J47" s="23"/>
+      <c r="K47" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="45" t="s">
+    </row>
+    <row r="48" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="45" t="s">
         <v>589</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D48" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" s="30" t="s">
+      <c r="G48" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="J47" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="45" t="s">
+      <c r="C50" s="45" t="s">
         <v>590</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D50" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="E50" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="41" t="s">
+      <c r="I50" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J50" s="35"/>
+      <c r="K50" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="31"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="42"/>
-    </row>
-    <row r="51" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="45" t="s">
+      <c r="J51" s="37"/>
+      <c r="K51" s="42"/>
+    </row>
+    <row r="52" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="45" t="s">
         <v>591</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D52" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E52" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="1" t="s">
+      <c r="G52" s="31"/>
+      <c r="H52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I52" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="K51" s="24" t="s">
+      <c r="J52" s="23" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="G52" s="31"/>
-      <c r="H52" s="30" t="s">
+      <c r="K52" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="G53" s="31"/>
+      <c r="H53" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="J52" s="35" t="s">
+      <c r="I53" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="J53" s="35" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="18" t="s">
+      <c r="K53" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="B54" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>576</v>
-      </c>
+    <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="31"/>
-      <c r="H54" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="19" t="s">
+      <c r="H54" s="32"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="17" t="s">
+    </row>
+    <row r="55" spans="2:11" ht="57" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="35"/>
+      <c r="K55" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" s="36"/>
+      <c r="K56" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="21" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="J55" s="36"/>
-      <c r="K55" s="25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="28"/>
-    </row>
-    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="45" t="s">
+      <c r="J57" s="37"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>589</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D58" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G57" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="G58" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I58" s="22" t="s">
         <v>1</v>
-      </c>
-      <c r="J57" s="23"/>
-      <c r="K57" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>235</v>
       </c>
       <c r="J58" s="23"/>
       <c r="K58" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="45" t="s">
+        <v>234</v>
+      </c>
       <c r="C59" s="45" t="s">
-        <v>213</v>
+        <v>591</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>1</v>
       </c>
       <c r="G59" s="31"/>
       <c r="H59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="J59" s="23"/>
       <c r="K59" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="45" t="s">
+        <v>234</v>
+      </c>
       <c r="C60" s="45" t="s">
-        <v>567</v>
+        <v>214</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>7</v>
       </c>
       <c r="G60" s="31"/>
       <c r="H60" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="J60" s="23"/>
       <c r="K60" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="22" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="J61" s="23"/>
       <c r="K61" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="45" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>242</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="G62" s="32"/>
       <c r="H62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>243</v>
+        <v>42</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="J62" s="23"/>
       <c r="K62" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="22" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="45" t="s">
-        <v>578</v>
-      </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>245</v>
       </c>
       <c r="J63" s="23"/>
       <c r="K63" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="27" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="J64" s="23"/>
       <c r="K64" s="24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>589</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="32"/>
       <c r="H65" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J65" s="23"/>
       <c r="K65" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>592</v>
+        <v>589</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>113</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J66" s="23"/>
       <c r="K66" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>252</v>
+        <v>592</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J67" s="23"/>
       <c r="K67" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I68" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="23"/>
+      <c r="K68" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="31"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J68" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>258</v>
-      </c>
+      <c r="G70" s="31"/>
       <c r="H70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J70" s="23"/>
+      <c r="J70" s="23" t="s">
+        <v>256</v>
+      </c>
       <c r="K70" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="C71" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="G71" s="32"/>
       <c r="H71" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
+      <c r="K71" s="24" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>260</v>
+        <v>593</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>259</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J72" s="23"/>
       <c r="K72" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="32"/>
+      <c r="H73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="45" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>589</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="J73" s="23"/>
-      <c r="K73" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="G74" s="31"/>
+        <v>592</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I74" s="27" t="s">
-        <v>265</v>
+        <v>42</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="J74" s="23"/>
       <c r="K74" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="45" t="s">
+        <v>263</v>
+      </c>
       <c r="C75" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G75" s="31"/>
+        <v>589</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>263</v>
+      </c>
       <c r="H75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="22" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="J75" s="23"/>
       <c r="K75" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="45" t="s">
+        <v>263</v>
+      </c>
       <c r="C76" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="G76" s="32"/>
+        <v>591</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="31"/>
       <c r="H76" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J76" s="23"/>
       <c r="K76" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="45" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>595</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>270</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="31"/>
       <c r="H77" s="1" t="s">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="J77" s="23"/>
       <c r="K77" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="45" t="s">
+        <v>263</v>
+      </c>
       <c r="C78" s="45" t="s">
-        <v>582</v>
+        <v>571</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>7</v>
       </c>
       <c r="G78" s="32"/>
       <c r="H78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>173</v>
+        <v>26</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>269</v>
       </c>
       <c r="J78" s="23"/>
       <c r="K78" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>274</v>
+        <v>594</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="J79" s="23"/>
       <c r="K79" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J80" s="23"/>
+      <c r="K80" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="45" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="45" t="s">
-        <v>640</v>
-      </c>
-      <c r="C80" s="45" t="s">
+      <c r="C81" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="23"/>
+      <c r="K81" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J82" s="35"/>
+      <c r="K82" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="31"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="C84" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="G80" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="J80" s="35"/>
-      <c r="K80" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="31"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="G82" s="32"/>
-      <c r="H82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" s="23"/>
-      <c r="K82" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-    </row>
-    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="45" t="s">
-        <v>599</v>
+      <c r="D84" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="G84" s="32"/>
       <c r="H84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="23"/>
+      <c r="K84" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I84" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-    </row>
-    <row r="85" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="45" t="s">
+      <c r="I85" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="C85" s="45" t="s">
-        <v>600</v>
-      </c>
-      <c r="G85" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="J85" s="23"/>
-      <c r="K85" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="45" t="s">
-        <v>599</v>
       </c>
       <c r="G86" s="32"/>
       <c r="H86" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I86" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+    </row>
+    <row r="87" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="J87" s="23"/>
+      <c r="K87" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="J86" s="23"/>
-      <c r="K86" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="G87" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J87" s="23"/>
-      <c r="K87" s="24" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="88" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="45" t="s">
+        <v>287</v>
+      </c>
       <c r="C88" s="45" t="s">
-        <v>567</v>
+        <v>598</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>286</v>
       </c>
       <c r="G88" s="32"/>
       <c r="H88" s="1" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="J88" s="23"/>
-      <c r="K88" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K88" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="45" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>104</v>
+        <v>589</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>113</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J89" s="23"/>
       <c r="K89" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="45" t="s">
+        <v>293</v>
+      </c>
       <c r="C90" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="G90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I90" s="27" t="s">
-        <v>296</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="31"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="22"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-    </row>
-    <row r="91" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="G91" s="30" t="s">
-        <v>297</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" s="32"/>
       <c r="H91" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="J91" s="23"/>
       <c r="K91" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J92" s="23"/>
+      <c r="K92" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="45" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="45" t="s">
+      <c r="C94" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J94" s="23"/>
+      <c r="K94" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="45" t="s">
         <v>588</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="1" t="s">
+      <c r="D95" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="31"/>
+      <c r="H95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="I95" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J92" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="K92" s="24" t="s">
+      <c r="J95" s="23" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I93" s="22" t="s">
+      <c r="K95" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="D96" s="45" t="s">
         <v>112</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K93" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G94" s="32"/>
-      <c r="H94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I94" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-    </row>
-    <row r="95" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="J95" s="23"/>
-      <c r="K95" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="45" t="s">
-        <v>588</v>
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-    </row>
-    <row r="97" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="45" t="s">
+        <v>652</v>
+      </c>
       <c r="C97" s="45" t="s">
-        <v>601</v>
+        <v>386</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="G97" s="32"/>
       <c r="H97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>198</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J97" s="23"/>
       <c r="K97" s="23"/>
     </row>
     <row r="98" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>104</v>
+        <v>298</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J98" s="23" t="s">
-        <v>307</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="J98" s="23"/>
       <c r="K98" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="45" t="s">
+        <v>303</v>
+      </c>
       <c r="C99" s="45" t="s">
-        <v>306</v>
+        <v>588</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="G99" s="31"/>
       <c r="H99" s="1" t="s">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="J99" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="K99" s="24" t="s">
-        <v>312</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
     </row>
     <row r="100" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="45" t="s">
+        <v>303</v>
+      </c>
       <c r="C100" s="45" t="s">
-        <v>576</v>
+        <v>600</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="G100" s="32"/>
       <c r="H100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I100" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J100" s="23"/>
-      <c r="K100" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="J100" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K100" s="23"/>
+    </row>
+    <row r="101" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G102" s="31"/>
+      <c r="H102" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K102" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="C101" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="H101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I101" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="J101" s="35"/>
-      <c r="K101" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G102" s="31"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="45" t="s">
+        <v>307</v>
+      </c>
       <c r="C103" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>577</v>
       </c>
       <c r="G103" s="32"/>
       <c r="H103" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J103" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J103" s="23"/>
+      <c r="K103" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J104" s="35"/>
+      <c r="K104" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="31"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="K103" s="24" t="s">
+    </row>
+    <row r="106" spans="2:11" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G106" s="32"/>
+      <c r="H106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J106" s="23" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="45" t="s">
+      <c r="K106" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C104" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H104" s="1" t="s">
+    </row>
+    <row r="107" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I107" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J104" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="K104" s="24" t="s">
+      <c r="J107" s="23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="105" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="G105" s="32"/>
-      <c r="H105" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J105" s="23" t="s">
+      <c r="K107" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="45" t="s">
-        <v>602</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="J106" s="23"/>
-      <c r="K106" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="J107" s="23"/>
-      <c r="K107" s="24" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="32"/>
+      <c r="H108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" s="48"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="24"/>
+    </row>
+    <row r="110" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" s="23"/>
+      <c r="K110" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="J111" s="23"/>
+      <c r="K111" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C108" s="45" t="s">
+    </row>
+    <row r="112" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="J112" s="23"/>
+      <c r="K112" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="J113" s="23"/>
+      <c r="K113" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="32"/>
+      <c r="H114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="K114" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" s="48"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="J108" s="23"/>
-      <c r="K108" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>602</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="J109" s="23"/>
-      <c r="K109" s="24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="45" t="s">
+      <c r="D116" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J117" s="35"/>
+      <c r="K117" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="D120" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" s="23"/>
+      <c r="K120" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="D121" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="J121" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="K121" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C122" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J110" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="K110" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="45" t="s">
-        <v>603</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C112" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="G112" s="31"/>
-      <c r="H112" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="I112" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="J112" s="35"/>
-      <c r="K112" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="G115" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J115" s="23"/>
-      <c r="K115" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="J116" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="K116" s="24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="G117" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="D122" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="22" t="s">
+      <c r="I122" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-    </row>
-    <row r="118" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G118" s="31"/>
-      <c r="H118" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I118" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-    </row>
-    <row r="119" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="45" t="s">
-        <v>602</v>
-      </c>
-      <c r="G119" s="31"/>
-      <c r="H119" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="J119" s="23"/>
-      <c r="K119" s="24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="G120" s="32"/>
-      <c r="H120" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I120" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-    </row>
-    <row r="121" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="G121" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I121" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-    </row>
-    <row r="122" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
     </row>
-    <row r="123" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="45" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>602</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>359</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D123" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="31"/>
       <c r="H123" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I123" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+    </row>
+    <row r="124" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D124" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G124" s="31"/>
+      <c r="H124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I123" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="J123" s="23"/>
-      <c r="K123" s="24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I124" s="22" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="J124" s="23"/>
       <c r="K124" s="24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="45" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>607</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G125" s="32"/>
       <c r="H125" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I125" s="22" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
     </row>
-    <row r="126" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="45" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>588</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>366</v>
+        <v>604</v>
+      </c>
+      <c r="D126" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>650</v>
+      </c>
+      <c r="G126" s="30" t="s">
+        <v>358</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="I126" s="22" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
     </row>
     <row r="127" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="45" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="G127" s="30" t="s">
-        <v>367</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="32"/>
       <c r="H127" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I127" s="22" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
     </row>
-    <row r="128" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="45" t="s">
+        <v>360</v>
+      </c>
       <c r="C128" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G128" s="32"/>
+        <v>601</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G128" s="30" t="s">
+        <v>360</v>
+      </c>
       <c r="H128" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J128" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="J128" s="23"/>
+      <c r="K128" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="32"/>
+      <c r="H129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" s="23"/>
+      <c r="K129" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+    </row>
+    <row r="131" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+    </row>
+    <row r="132" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="K128" s="24" t="s">
+      <c r="C132" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I132" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+    </row>
+    <row r="133" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D133" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G133" s="32"/>
+      <c r="H133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J133" s="23" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="129" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B129" s="45" t="s">
+      <c r="K133" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="G129" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="H129" s="30" t="s">
+    </row>
+    <row r="134" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="17"/>
+    </row>
+    <row r="135" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B135" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G135" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I129" s="38" t="s">
+      <c r="I135" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="J135" s="35"/>
+      <c r="K135" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="31"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G137" s="32"/>
+      <c r="H137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I137" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="K137" s="23"/>
+    </row>
+    <row r="138" spans="2:11" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="J129" s="35"/>
-      <c r="K129" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G130" s="31"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G131" s="32"/>
-      <c r="H131" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I131" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="J131" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="K131" s="23"/>
-    </row>
-    <row r="132" spans="2:11" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="B132" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="C132" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="G132" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H132" s="30" t="s">
+      <c r="D138" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G138" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="H138" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I132" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
-    </row>
-    <row r="133" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="26" t="s">
+      <c r="I138" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
-    </row>
-    <row r="134" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="45" t="s">
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+    </row>
+    <row r="139" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C134" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="H134" s="1" t="s">
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
+    </row>
+    <row r="140" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D140" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I134" s="22" t="s">
+      <c r="I140" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-    </row>
-    <row r="135" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G135" s="32"/>
-      <c r="H135" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I135" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="J135" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="K135" s="23"/>
-    </row>
-    <row r="136" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="45" t="s">
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+    </row>
+    <row r="141" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G141" s="32"/>
+      <c r="H141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J141" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C136" s="45" t="s">
+      <c r="K141" s="23"/>
+    </row>
+    <row r="142" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C142" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="D142" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I142" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="J142" s="23"/>
+      <c r="K142" s="27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C143" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="D143" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I143" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J143" s="23"/>
+      <c r="K143" s="23"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C144" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I136" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="J136" s="23"/>
-      <c r="K136" s="27" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>609</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I137" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-    </row>
-    <row r="138" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="C138" s="45" t="s">
-        <v>610</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H138" s="1" t="s">
+      <c r="D144" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I138" s="22" t="s">
+      <c r="I144" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
-    </row>
-    <row r="139" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="45" t="s">
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+    </row>
+    <row r="145" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="45" t="s">
-        <v>611</v>
-      </c>
-      <c r="G139" s="30" t="s">
+      <c r="C145" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="D145" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G145" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I139" s="27" t="s">
+      <c r="H145" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C140" s="45" t="s">
-        <v>612</v>
-      </c>
-      <c r="G140" s="31"/>
-      <c r="H140" s="13" t="s">
+      <c r="I145" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="I140" s="33" t="s">
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="D146" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="31"/>
+      <c r="H146" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I146" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J146" s="35"/>
+      <c r="K146" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="D147" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G147" s="31"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="49"/>
+    </row>
+    <row r="148" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="32"/>
+      <c r="H148" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="J140" s="35"/>
-      <c r="K140" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="45" t="s">
-        <v>613</v>
-      </c>
-      <c r="G141" s="32"/>
-      <c r="H141" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="I141" s="34"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="42"/>
-    </row>
-    <row r="142" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B142" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="C142" s="45" t="s">
-        <v>614</v>
-      </c>
-      <c r="G142" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="H142" s="30" t="s">
+      <c r="I148" s="34"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="42"/>
+    </row>
+    <row r="149" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B149" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="I142" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="J142" s="35"/>
-      <c r="K142" s="17" t="s">
+      <c r="C149" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="D149" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="H149" s="30" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="26" t="s">
+      <c r="I149" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="J149" s="35"/>
+      <c r="K149" s="17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="45" t="s">
+    <row r="150" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C150" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="D150" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="C144" s="45" t="s">
-        <v>615</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H144" s="1" t="s">
+    </row>
+    <row r="151" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="I144" s="22" t="s">
+      <c r="C151" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="D151" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J144" s="23"/>
-      <c r="K144" s="24" t="s">
+      <c r="G151" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="145" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="45" t="s">
-        <v>641</v>
-      </c>
-      <c r="C145" s="45" t="s">
-        <v>589</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I145" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J145" s="23"/>
-      <c r="K145" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B146" s="45" t="s">
-        <v>642</v>
-      </c>
-      <c r="C146" s="45" t="s">
-        <v>616</v>
-      </c>
-      <c r="G146" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="H146" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I146" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="J146" s="35"/>
-      <c r="K146" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="C148" s="45" t="s">
-        <v>617</v>
-      </c>
-      <c r="G148" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I148" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J148" s="23"/>
-      <c r="K148" s="24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="G149" s="32"/>
-      <c r="H149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I149" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" s="23"/>
-      <c r="K149" s="24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="45" t="s">
-        <v>643</v>
-      </c>
-      <c r="C150" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="G150" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I150" s="22" t="s">
+      <c r="I151" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="J150" s="23"/>
-      <c r="K150" s="24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="45" t="s">
-        <v>620</v>
-      </c>
-      <c r="G151" s="32"/>
-      <c r="H151" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I151" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="J151" s="23"/>
       <c r="K151" s="24" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="45" t="s">
-        <v>17</v>
+        <v>632</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="G152" s="30" t="s">
-        <v>17</v>
+        <v>589</v>
+      </c>
+      <c r="D152" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J152" s="23"/>
       <c r="K152" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B153" s="45" t="s">
+        <v>633</v>
+      </c>
       <c r="C153" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="G153" s="32"/>
-      <c r="H153" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I153" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-    </row>
-    <row r="154" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="D153" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="H153" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="J153" s="35"/>
+      <c r="K153" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="45" t="s">
-        <v>417</v>
+        <v>656</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>619</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I154" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J154" s="23"/>
-      <c r="K154" s="24" t="s">
-        <v>418</v>
+        <v>657</v>
+      </c>
+      <c r="D154" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="21" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="45" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>618</v>
+        <v>27</v>
+      </c>
+      <c r="D155" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="G155" s="30" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="I155" s="22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J155" s="23"/>
       <c r="K155" s="24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="45" t="s">
+        <v>408</v>
+      </c>
       <c r="C156" s="45" t="s">
-        <v>623</v>
+        <v>596</v>
+      </c>
+      <c r="D156" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="G156" s="31"/>
-      <c r="H156" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="I156" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J156" s="35"/>
-      <c r="K156" s="41" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H156" s="1"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="24"/>
+    </row>
+    <row r="157" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="45" t="s">
+        <v>408</v>
+      </c>
       <c r="C157" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="G157" s="31"/>
-      <c r="H157" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="I157" s="40"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="42"/>
-    </row>
-    <row r="158" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="D157" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="32"/>
+      <c r="H157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" s="23"/>
+      <c r="K157" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="45" t="s">
+        <v>634</v>
+      </c>
       <c r="C158" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="G158" s="31"/>
+        <v>612</v>
+      </c>
+      <c r="D158" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>412</v>
+      </c>
       <c r="H158" s="1" t="s">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="I158" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J158" s="23"/>
       <c r="K158" s="24" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="45" t="s">
+        <v>634</v>
+      </c>
       <c r="C159" s="45" t="s">
-        <v>27</v>
+        <v>613</v>
+      </c>
+      <c r="D159" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="G159" s="32"/>
       <c r="H159" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I159" s="22" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J159" s="23"/>
       <c r="K159" s="24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="45" t="s">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>625</v>
+        <v>614</v>
+      </c>
+      <c r="D160" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>32</v>
+        <v>416</v>
       </c>
       <c r="I160" s="22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J160" s="23"/>
-      <c r="K160" s="23"/>
-    </row>
-    <row r="161" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K160" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="C161" s="45" t="s">
-        <v>626</v>
-      </c>
-      <c r="G161" s="31"/>
+        <v>615</v>
+      </c>
+      <c r="D161" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="32"/>
       <c r="H161" s="1" t="s">
-        <v>427</v>
+        <v>23</v>
       </c>
       <c r="I161" s="22" t="s">
-        <v>428</v>
+        <v>244</v>
       </c>
       <c r="J161" s="23"/>
-      <c r="K161" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K161" s="23"/>
+    </row>
+    <row r="162" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="45" t="s">
+        <v>418</v>
+      </c>
       <c r="C162" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="G162" s="32"/>
+        <v>612</v>
+      </c>
+      <c r="D162" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="H162" s="1" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I162" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="J162" s="23" t="s">
-        <v>431</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J162" s="23"/>
       <c r="K162" s="24" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="45" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>628</v>
+        <v>611</v>
+      </c>
+      <c r="D163" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="I163" s="22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J163" s="23"/>
       <c r="K163" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="45" t="s">
+        <v>420</v>
+      </c>
       <c r="C164" s="45" t="s">
-        <v>629</v>
+        <v>659</v>
+      </c>
+      <c r="D164" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="G164" s="31"/>
-      <c r="H164" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I164" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J164" s="23"/>
-      <c r="K164" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I165" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="J165" s="23"/>
-      <c r="K165" s="24" t="s">
-        <v>438</v>
-      </c>
+      <c r="H164" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I164" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J164" s="35"/>
+      <c r="K164" s="41" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="31"/>
+      <c r="H165" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="I165" s="40"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="42"/>
     </row>
     <row r="166" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="45" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="G166" s="30" t="s">
-        <v>439</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="D166" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="31"/>
       <c r="H166" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I166" s="22" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J166" s="23"/>
       <c r="K166" s="24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="45" t="s">
+        <v>420</v>
+      </c>
       <c r="C167" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="G167" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="32"/>
       <c r="H167" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I167" s="22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J167" s="23"/>
       <c r="K167" s="24" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="45" t="s">
+        <v>427</v>
+      </c>
       <c r="C168" s="45" t="s">
-        <v>579</v>
-      </c>
-      <c r="G168" s="32"/>
+        <v>616</v>
+      </c>
+      <c r="D168" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="30" t="s">
+        <v>427</v>
+      </c>
       <c r="H168" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
     </row>
     <row r="169" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="45" t="s">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>629</v>
-      </c>
-      <c r="G169" s="30" t="s">
-        <v>37</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D169" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="G169" s="31"/>
       <c r="H169" s="1" t="s">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="I169" s="22" t="s">
-        <v>36</v>
+        <v>429</v>
       </c>
       <c r="J169" s="23"/>
       <c r="K169" s="24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="45" t="s">
+        <v>427</v>
+      </c>
       <c r="C170" s="45" t="s">
-        <v>599</v>
+        <v>618</v>
+      </c>
+      <c r="D170" s="45" t="s">
+        <v>431</v>
       </c>
       <c r="G170" s="32"/>
       <c r="H170" s="1" t="s">
-        <v>284</v>
+        <v>430</v>
       </c>
       <c r="I170" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="J170" s="23"/>
+        <v>431</v>
+      </c>
+      <c r="J170" s="23" t="s">
+        <v>432</v>
+      </c>
       <c r="K170" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="45" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>444</v>
+        <v>619</v>
+      </c>
+      <c r="D171" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="I171" s="22" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="J171" s="23"/>
-      <c r="K171" s="23"/>
-    </row>
-    <row r="172" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K171" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C172" s="45" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="G172" s="31"/>
-      <c r="H172" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="I172" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="J172" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="K172" s="35"/>
-    </row>
-    <row r="173" spans="2:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="23"/>
+      <c r="K172" s="24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="45" t="s">
+        <v>604</v>
+      </c>
       <c r="G173" s="32"/>
-      <c r="H173" s="32"/>
-      <c r="I173" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="J173" s="37"/>
-      <c r="K173" s="37"/>
-    </row>
-    <row r="174" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H173" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I173" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="J173" s="23"/>
+      <c r="K173" s="24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="45" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I174" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J174" s="23" t="s">
-        <v>449</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J174" s="23"/>
       <c r="K174" s="24" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C175" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="G175" s="32"/>
+        <v>616</v>
+      </c>
+      <c r="G175" s="31"/>
       <c r="H175" s="1" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="I175" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="J175" s="23" t="s">
-        <v>311</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J175" s="23"/>
       <c r="K175" s="24" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="45" t="s">
-        <v>454</v>
-      </c>
       <c r="C176" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>454</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="G176" s="32"/>
       <c r="H176" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I176" s="22" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
     </row>
     <row r="177" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="45" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="C177" s="45" t="s">
-        <v>367</v>
+        <v>620</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I177" s="22" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J177" s="23"/>
       <c r="K177" s="24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C178" s="45" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="G178" s="32"/>
       <c r="H178" s="1" t="s">
-        <v>457</v>
+        <v>285</v>
       </c>
       <c r="I178" s="22" t="s">
-        <v>458</v>
+        <v>291</v>
       </c>
       <c r="J178" s="23"/>
       <c r="K178" s="24" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="45" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C179" s="45" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
     </row>
-    <row r="180" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C180" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G180" s="32"/>
-      <c r="H180" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I180" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="J180" s="23"/>
-      <c r="K180" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="C181" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="G181" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I181" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J181" s="23"/>
-      <c r="K181" s="23"/>
-    </row>
-    <row r="182" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="G180" s="31"/>
+      <c r="H180" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="I180" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J180" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="K180" s="35"/>
+    </row>
+    <row r="181" spans="2:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="J181" s="37"/>
+      <c r="K181" s="37"/>
+    </row>
+    <row r="182" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="45" t="s">
+        <v>449</v>
+      </c>
       <c r="C182" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="G182" s="31"/>
-      <c r="H182" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I182" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="J182" s="35"/>
-      <c r="K182" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G183" s="31"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="34"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G182" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I182" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J182" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="K182" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="G183" s="32"/>
+      <c r="H183" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I183" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="J183" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K183" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="45" t="s">
+        <v>455</v>
+      </c>
       <c r="C184" s="45" t="s">
-        <v>586</v>
-      </c>
-      <c r="G184" s="31"/>
+        <v>368</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="H184" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J184" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="K184" s="24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="J184" s="23"/>
+      <c r="K184" s="23"/>
+    </row>
+    <row r="185" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="45" t="s">
+        <v>456</v>
+      </c>
       <c r="C185" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="G185" s="31"/>
+        <v>368</v>
+      </c>
+      <c r="G185" s="30" t="s">
+        <v>456</v>
+      </c>
       <c r="H185" s="1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J185" s="23" t="s">
-        <v>469</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J185" s="23"/>
       <c r="K185" s="24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C186" s="45" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="G186" s="32"/>
       <c r="H186" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I186" s="23" t="s">
-        <v>211</v>
+        <v>458</v>
+      </c>
+      <c r="I186" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="J186" s="23"/>
       <c r="K186" s="24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="45" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C187" s="45" t="s">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I187" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J187" s="23"/>
-      <c r="K187" s="24" t="s">
-        <v>473</v>
-      </c>
+      <c r="K187" s="23"/>
     </row>
     <row r="188" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="45" t="s">
-        <v>472</v>
+        <v>577</v>
       </c>
       <c r="G188" s="32"/>
       <c r="H188" s="1" t="s">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="I188" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="J188" s="23" t="s">
-        <v>476</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="J188" s="23"/>
       <c r="K188" s="24" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="45" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C189" s="45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I189" s="22" t="s">
-        <v>479</v>
+        <v>84</v>
       </c>
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
     </row>
-    <row r="190" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="C190" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="G190" s="32"/>
-      <c r="H190" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G190" s="31"/>
+      <c r="H190" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="I190" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J190" s="23"/>
-      <c r="K190" s="24" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="C191" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="G191" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I191" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23"/>
-    </row>
-    <row r="192" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I190" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="J190" s="35"/>
+      <c r="K190" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="31"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="45" t="s">
         <v>586</v>
       </c>
@@ -13340,743 +13821,766 @@
       <c r="H192" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I192" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="J192" s="23"/>
-      <c r="K192" s="23"/>
-    </row>
-    <row r="193" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I192" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J192" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="K192" s="24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C193" s="45" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G193" s="31"/>
       <c r="H193" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I193" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="J193" s="23"/>
-      <c r="K193" s="23"/>
-    </row>
-    <row r="194" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I193" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J193" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="K193" s="24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C194" s="45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G194" s="32"/>
       <c r="H194" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I194" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J194" s="23"/>
+      <c r="K194" s="24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="C195" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="G195" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J195" s="23"/>
+      <c r="K195" s="24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="G196" s="32"/>
+      <c r="H196" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="J196" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="K196" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="C197" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="G197" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I197" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+    </row>
+    <row r="198" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="G198" s="32"/>
+      <c r="H198" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I198" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J198" s="23"/>
+      <c r="K198" s="24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G199" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I199" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J199" s="23"/>
+      <c r="K199" s="23"/>
+    </row>
+    <row r="200" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="G200" s="31"/>
+      <c r="H200" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I200" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="J200" s="23"/>
+      <c r="K200" s="23"/>
+    </row>
+    <row r="201" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="G201" s="31"/>
+      <c r="H201" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I201" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="J194" s="23"/>
-      <c r="K194" s="27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C195" s="45" t="s">
-        <v>587</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I195" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23"/>
-    </row>
-    <row r="196" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="45" t="s">
-        <v>486</v>
-      </c>
-      <c r="C196" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="G196" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I196" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J196" s="23"/>
-      <c r="K196" s="23"/>
-    </row>
-    <row r="197" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="C197" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="G197" s="31"/>
-      <c r="H197" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I197" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="J197" s="35"/>
-      <c r="K197" s="17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G198" s="31"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="40"/>
-      <c r="J198" s="37"/>
-      <c r="K198" s="26" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="C199" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="G199" s="31"/>
-      <c r="H199" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I199" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="J199" s="35"/>
-      <c r="K199" s="17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G200" s="31"/>
-      <c r="H200" s="31"/>
-      <c r="I200" s="43"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G201" s="31"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="34"/>
-      <c r="J201" s="37"/>
-      <c r="K201" s="26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J201" s="23"/>
+      <c r="K201" s="23"/>
+    </row>
+    <row r="202" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C202" s="45" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="G202" s="32"/>
       <c r="H202" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I202" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="J202" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="K202" s="24" t="s">
-        <v>497</v>
+        <v>163</v>
+      </c>
+      <c r="I202" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="J202" s="23"/>
+      <c r="K202" s="27" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="45" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>498</v>
+        <v>587</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>498</v>
+        <v>97</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I203" s="27" t="s">
-        <v>499</v>
+        <v>94</v>
+      </c>
+      <c r="I203" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="J203" s="23"/>
-      <c r="K203" s="23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K203" s="23"/>
+    </row>
+    <row r="204" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="45" t="s">
-        <v>101</v>
+        <v>487</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>101</v>
+        <v>482</v>
+      </c>
+      <c r="G204" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>501</v>
+        <v>88</v>
       </c>
       <c r="J204" s="23"/>
-      <c r="K204" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="45" t="s">
-        <v>27</v>
-      </c>
+      <c r="K204" s="23"/>
+    </row>
+    <row r="205" spans="2:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="C205" s="45" t="s">
-        <v>633</v>
-      </c>
-      <c r="G205" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I205" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="J205" s="23"/>
-      <c r="K205" s="24" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="45" t="s">
-        <v>617</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="G205" s="31"/>
+      <c r="H205" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I205" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="J205" s="35"/>
+      <c r="K205" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G206" s="31"/>
-      <c r="H206" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I206" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J206" s="23"/>
-      <c r="K206" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H206" s="32"/>
+      <c r="I206" s="40"/>
+      <c r="J206" s="37"/>
+      <c r="K206" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" ht="44.25" x14ac:dyDescent="0.25">
       <c r="C207" s="45" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="G207" s="31"/>
-      <c r="H207" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I207" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J207" s="23"/>
-      <c r="K207" s="24" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C208" s="45" t="s">
-        <v>570</v>
-      </c>
+      <c r="H207" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I207" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="J207" s="35"/>
+      <c r="K207" s="17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G208" s="31"/>
-      <c r="H208" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I208" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J208" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="K208" s="24" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="45" t="s">
-        <v>576</v>
-      </c>
+      <c r="H208" s="31"/>
+      <c r="I208" s="43"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G209" s="31"/>
-      <c r="H209" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I209" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="J209" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="K209" s="24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="210" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H209" s="32"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C210" s="45" t="s">
-        <v>591</v>
+        <v>487</v>
       </c>
       <c r="G210" s="32"/>
       <c r="H210" s="1" t="s">
-        <v>2</v>
+        <v>495</v>
       </c>
       <c r="I210" s="22" t="s">
-        <v>1</v>
+        <v>496</v>
       </c>
       <c r="J210" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="K210" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="K210" s="24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="45" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C211" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G211" s="30" t="s">
-        <v>514</v>
+        <v>499</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I211" s="22" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="I211" s="27" t="s">
+        <v>500</v>
       </c>
       <c r="J211" s="23"/>
-      <c r="K211" s="24" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K211" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="C212" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="G212" s="31"/>
+        <v>499</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H212" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I212" s="23" t="s">
-        <v>517</v>
+        <v>98</v>
+      </c>
+      <c r="I212" s="22" t="s">
+        <v>502</v>
       </c>
       <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-    </row>
-    <row r="213" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K212" s="24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="45" t="s">
+        <v>27</v>
+      </c>
       <c r="C213" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="G213" s="31"/>
+        <v>624</v>
+      </c>
+      <c r="G213" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="H213" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I213" s="23" t="s">
-        <v>519</v>
+        <v>504</v>
+      </c>
+      <c r="I213" s="27" t="s">
+        <v>505</v>
       </c>
       <c r="J213" s="23"/>
-      <c r="K213" s="23"/>
-    </row>
-    <row r="214" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K213" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C214" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G214" s="32"/>
+        <v>610</v>
+      </c>
+      <c r="G214" s="31"/>
       <c r="H214" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I214" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="J214" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="K214" s="23"/>
-    </row>
-    <row r="215" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="45" t="s">
-        <v>521</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="I214" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="23"/>
+      <c r="K214" s="24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="G215" s="30" t="s">
-        <v>521</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="G215" s="31"/>
       <c r="H215" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I215" s="22" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J215" s="23"/>
-      <c r="K215" s="27" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K215" s="24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C216" s="45" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="G216" s="31"/>
       <c r="H216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K216" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G217" s="31"/>
+      <c r="H217" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I217" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="J217" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="K217" s="24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="G218" s="32"/>
+      <c r="H218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I218" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J218" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C219" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G219" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I219" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J219" s="23"/>
+      <c r="K219" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="I216" s="23" t="s">
+    </row>
+    <row r="220" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-    </row>
-    <row r="217" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="45" t="s">
+      <c r="G220" s="31"/>
+      <c r="H220" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I220" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="G217" s="32"/>
-      <c r="H217" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I217" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-    </row>
-    <row r="218" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="C218" s="45" t="s">
-        <v>595</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I218" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="J218" s="23"/>
-      <c r="K218" s="24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="C219" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="G219" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I219" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23"/>
-    </row>
-    <row r="220" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G220" s="32"/>
-      <c r="H220" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I220" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="J220" s="23"/>
       <c r="K220" s="23"/>
     </row>
-    <row r="221" spans="2:11" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="B221" s="45" t="s">
-        <v>527</v>
-      </c>
+    <row r="221" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C221" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="G221" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="H221" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I221" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="J221" s="35"/>
-      <c r="K221" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="G222" s="31"/>
-      <c r="H222" s="31"/>
-      <c r="I222" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="J222" s="36"/>
-      <c r="K222" s="25" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="223" spans="2:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="G223" s="31"/>
-      <c r="H223" s="31"/>
-      <c r="I223" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="J223" s="36"/>
-      <c r="K223" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="G221" s="31"/>
+      <c r="H221" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I221" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23"/>
+    </row>
+    <row r="222" spans="2:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G222" s="32"/>
+      <c r="H222" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I222" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="J222" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="K222" s="23"/>
+    </row>
+    <row r="223" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="C223" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="G223" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I223" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J223" s="23"/>
+      <c r="K223" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="45" t="s">
+        <v>517</v>
+      </c>
       <c r="G224" s="31"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H224" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I224" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="J224" s="23"/>
+      <c r="K224" s="23"/>
+    </row>
+    <row r="225" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C225" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="G225" s="31"/>
+        <v>519</v>
+      </c>
+      <c r="G225" s="32"/>
       <c r="H225" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I225" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J225" s="23" t="s">
-        <v>535</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="I225" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J225" s="23"/>
       <c r="K225" s="23"/>
     </row>
-    <row r="226" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="45" t="s">
+        <v>524</v>
+      </c>
       <c r="C226" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="G226" s="32"/>
+        <v>594</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="H226" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I226" s="23" t="s">
-        <v>536</v>
+        <v>272</v>
+      </c>
+      <c r="I226" s="27" t="s">
+        <v>525</v>
       </c>
       <c r="J226" s="23"/>
       <c r="K226" s="24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C227" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="G227" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I227" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J227" s="23"/>
+      <c r="K227" s="23"/>
+    </row>
+    <row r="228" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G228" s="32"/>
+      <c r="H228" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I228" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J228" s="23"/>
+      <c r="K228" s="23"/>
+    </row>
+    <row r="229" spans="2:11" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B229" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="C229" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="G229" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I229" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="J229" s="35"/>
+      <c r="K229" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="G230" s="31"/>
+      <c r="H230" s="31"/>
+      <c r="I230" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="J230" s="36"/>
+      <c r="K230" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="G231" s="31"/>
+      <c r="H231" s="31"/>
+      <c r="I231" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J231" s="36"/>
+      <c r="K231" s="25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="31"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="37"/>
+      <c r="K232" s="18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="G233" s="31"/>
+      <c r="H233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I233" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J233" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="K233" s="23"/>
+    </row>
+    <row r="234" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="G234" s="32"/>
+      <c r="H234" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I234" s="23" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="227" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="45" t="s">
+      <c r="J234" s="23"/>
+      <c r="K234" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="C227" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H227" s="1" t="s">
+    </row>
+    <row r="235" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="I227" s="22" t="s">
+      <c r="C235" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J227" s="23"/>
-      <c r="K227" s="24" t="s">
+      <c r="I235" s="22" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="228" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="45" t="s">
+      <c r="J235" s="23"/>
+      <c r="K235" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C228" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="G228" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="H228" s="1" t="s">
+    </row>
+    <row r="236" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="I228" s="22" t="s">
+      <c r="C236" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="G236" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="H236" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="J228" s="23"/>
-      <c r="K228" s="24" t="s">
+      <c r="I236" s="22" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="229" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="45" t="s">
-        <v>636</v>
-      </c>
-      <c r="G229" s="31"/>
-      <c r="H229" s="1" t="s">
+      <c r="J236" s="23"/>
+      <c r="K236" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="I229" s="22" t="s">
+    </row>
+    <row r="237" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="G237" s="31"/>
+      <c r="H237" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="J229" s="23"/>
-      <c r="K229" s="24" t="s">
+      <c r="I237" s="22" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C230" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="G230" s="32"/>
-      <c r="H230" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I230" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J230" s="23"/>
-      <c r="K230" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="C231" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="G231" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I231" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J231" s="23"/>
-      <c r="K231" s="24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="G232" s="31"/>
-      <c r="H232" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I232" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J232" s="23"/>
-      <c r="K232" s="24" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C233" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="G233" s="31"/>
-      <c r="H233" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I233" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="J233" s="35"/>
-      <c r="K233" s="33" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="G234" s="31"/>
-      <c r="H234" s="31"/>
-      <c r="I234" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="J234" s="36"/>
-      <c r="K234" s="43"/>
-    </row>
-    <row r="235" spans="2:11" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="G235" s="31"/>
-      <c r="H235" s="31"/>
-      <c r="I235" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="J235" s="36"/>
-      <c r="K235" s="43"/>
-    </row>
-    <row r="236" spans="2:11" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G236" s="32"/>
-      <c r="H236" s="32"/>
-      <c r="I236" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="J236" s="37"/>
-      <c r="K236" s="34"/>
-    </row>
-    <row r="237" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="C237" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I237" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="J237" s="23"/>
       <c r="K237" s="24" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="45" t="s">
-        <v>560</v>
-      </c>
       <c r="C238" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="G238" s="30" t="s">
-        <v>560</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="G238" s="32"/>
       <c r="H238" s="1" t="s">
         <v>108</v>
       </c>
@@ -14084,194 +14588,316 @@
         <v>109</v>
       </c>
       <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-    </row>
-    <row r="239" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K238" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="45" t="s">
+        <v>551</v>
+      </c>
       <c r="C239" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="G239" s="31"/>
-      <c r="H239" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I239" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J239" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="K239" s="41" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="G239" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I239" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J239" s="23"/>
+      <c r="K239" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="45" t="s">
+        <v>593</v>
+      </c>
       <c r="G240" s="31"/>
-      <c r="H240" s="32"/>
-      <c r="I240" s="40"/>
-      <c r="J240" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="K240" s="42"/>
-    </row>
-    <row r="241" spans="3:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H240" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I240" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J240" s="23"/>
+      <c r="K240" s="24" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C241" s="45" t="s">
-        <v>637</v>
+        <v>367</v>
       </c>
       <c r="G241" s="31"/>
       <c r="H241" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I241" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="J241" s="35"/>
+      <c r="K241" s="33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="G242" s="31"/>
+      <c r="H242" s="31"/>
+      <c r="I242" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="J242" s="36"/>
+      <c r="K242" s="43"/>
+    </row>
+    <row r="243" spans="2:11" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="G243" s="31"/>
+      <c r="H243" s="31"/>
+      <c r="I243" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="J243" s="36"/>
+      <c r="K243" s="43"/>
+    </row>
+    <row r="244" spans="2:11" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G244" s="32"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="J244" s="37"/>
+      <c r="K244" s="34"/>
+    </row>
+    <row r="245" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="C245" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I245" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="J245" s="23"/>
+      <c r="K245" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="C246" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="G246" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I246" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+    </row>
+    <row r="247" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C247" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="G247" s="31"/>
+      <c r="H247" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I247" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J247" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="K247" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="I241" s="38" t="s">
+    </row>
+    <row r="248" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="31"/>
+      <c r="H248" s="32"/>
+      <c r="I248" s="40"/>
+      <c r="J248" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="K248" s="42"/>
+    </row>
+    <row r="249" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C249" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="G249" s="31"/>
+      <c r="H249" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="I249" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J241" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="K241" s="41" t="s">
+      <c r="J249" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="K249" s="41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="32"/>
+      <c r="H250" s="32"/>
+      <c r="I250" s="40"/>
+      <c r="J250" s="21" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="242" spans="3:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G242" s="32"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="40"/>
-      <c r="J242" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="K242" s="42"/>
+      <c r="K250" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="K241:K242"/>
-    <mergeCell ref="G231:G236"/>
-    <mergeCell ref="H233:H236"/>
-    <mergeCell ref="J233:J236"/>
-    <mergeCell ref="K233:K236"/>
-    <mergeCell ref="G238:G242"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="I239:I240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="I241:I242"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="G221:G226"/>
-    <mergeCell ref="H221:H224"/>
-    <mergeCell ref="J221:J224"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="H199:H201"/>
-    <mergeCell ref="I199:I201"/>
-    <mergeCell ref="J199:J201"/>
-    <mergeCell ref="G205:G210"/>
-    <mergeCell ref="G211:G214"/>
+    <mergeCell ref="K249:K250"/>
+    <mergeCell ref="G239:G244"/>
+    <mergeCell ref="H241:H244"/>
+    <mergeCell ref="J241:J244"/>
+    <mergeCell ref="K241:K244"/>
+    <mergeCell ref="G246:G250"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="I247:I248"/>
+    <mergeCell ref="K247:K248"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="G223:G225"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="G229:G234"/>
+    <mergeCell ref="H229:H232"/>
+    <mergeCell ref="J229:J232"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="H207:H209"/>
+    <mergeCell ref="I207:I209"/>
+    <mergeCell ref="J207:J209"/>
+    <mergeCell ref="G213:G218"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="G204:G210"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="G185:G186"/>
     <mergeCell ref="G187:G188"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="G191:G194"/>
-    <mergeCell ref="G196:G202"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="I197:I198"/>
-    <mergeCell ref="K172:K173"/>
-    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="I190:I191"/>
+    <mergeCell ref="J190:J191"/>
+    <mergeCell ref="G171:G173"/>
+    <mergeCell ref="G174:G176"/>
     <mergeCell ref="G177:G178"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="G181:G186"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="J182:J183"/>
-    <mergeCell ref="G163:G165"/>
-    <mergeCell ref="G166:G168"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="G171:G173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="J172:J173"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G155:G159"/>
-    <mergeCell ref="I156:I157"/>
-    <mergeCell ref="J156:J157"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="G160:G162"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G139:G141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="G179:G181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="G163:G167"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="G168:G170"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="G155:G157"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="I146:I148"/>
+    <mergeCell ref="J146:J148"/>
+    <mergeCell ref="K146:K148"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G128:G129"/>
     <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H112:H114"/>
-    <mergeCell ref="I112:I114"/>
-    <mergeCell ref="J112:J114"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G91:G94"/>
-    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="G135:G137"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G97"/>
     <mergeCell ref="G98:G100"/>
     <mergeCell ref="G101:G103"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
     <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G56"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G57"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G18:G22"/>
     <mergeCell ref="H18:H19"/>
@@ -14294,41 +14920,41 @@
     <hyperlink ref="K23" r:id="rId3" location="cite_note-consonant-3" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-consonant-3"/>
     <hyperlink ref="I25" r:id="rId4" location="cite_note-air-4" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-air-4"/>
     <hyperlink ref="I31" r:id="rId5" location="cite_note-air-4" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-air-4"/>
-    <hyperlink ref="I34" r:id="rId6" tooltip="Википедия:Ссылки на источники" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B8%D0%BA%D0%B8%D0%BF%D0%B5%D0%B4%D0%B8%D1%8F:%D0%A1%D1%81%D1%8B%D0%BB%D0%BA%D0%B8_%D0%BD%D0%B0_%D0%B8%D1%81%D1%82%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B8"/>
-    <hyperlink ref="K48" r:id="rId7" tooltip="Корделия" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D1%80%D0%B4%D0%B5%D0%BB%D0%B8%D1%8F"/>
-    <hyperlink ref="I52" r:id="rId8" location="cite_note-5" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-5"/>
-    <hyperlink ref="I58" r:id="rId9" location="cite_note-6" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-6"/>
-    <hyperlink ref="I61" r:id="rId10" tooltip="Википедия:Ссылки на источники" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B8%D0%BA%D0%B8%D0%BF%D0%B5%D0%B4%D0%B8%D1%8F:%D0%A1%D1%81%D1%8B%D0%BB%D0%BA%D0%B8_%D0%BD%D0%B0_%D0%B8%D1%81%D1%82%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B8"/>
-    <hyperlink ref="I63" r:id="rId11" location="cite_note-air-4" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-air-4"/>
-    <hyperlink ref="I73" r:id="rId12" location="cite_note-eo-7" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-eo-7"/>
-    <hyperlink ref="I74" r:id="rId13" location="cite_note-eo-7" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-eo-7"/>
-    <hyperlink ref="I76" r:id="rId14" location="cite_note-8" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-8"/>
-    <hyperlink ref="K85" r:id="rId15" location="cite_note-sewer-9" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-sewer-9"/>
-    <hyperlink ref="K86" r:id="rId16" location="cite_note-sewer-9" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-sewer-9"/>
-    <hyperlink ref="I90" r:id="rId17" location="cite_note-10" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-10"/>
-    <hyperlink ref="K110" r:id="rId18" tooltip="Лит (Шотландия)" display="https://ru.wikipedia.org/wiki/%D0%9B%D0%B8%D1%82_(%D0%A8%D0%BE%D1%82%D0%BB%D0%B0%D0%BD%D0%B4%D0%B8%D1%8F)"/>
-    <hyperlink ref="I118" r:id="rId19" location="cite_note-erm-tion-11" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-tion-11"/>
-    <hyperlink ref="I131" r:id="rId20" location="cite_note-12" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-12"/>
-    <hyperlink ref="I133" r:id="rId21" tooltip="Валлийский язык" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D0%BB%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D0%B9_%D1%8F%D0%B7%D1%8B%D0%BA"/>
-    <hyperlink ref="K136" r:id="rId22" tooltip="Кэмпбелл" display="https://ru.wikipedia.org/wiki/%D0%9A%D1%8D%D0%BC%D0%BF%D0%B1%D0%B5%D0%BB%D0%BB"/>
-    <hyperlink ref="I139" r:id="rId23" location="cite_note-ou-13" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-ou-13"/>
-    <hyperlink ref="I140" r:id="rId24" location="cite_note-14" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-14"/>
-    <hyperlink ref="I142" r:id="rId25" location="cite_note-ou-13" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-ou-13"/>
-    <hyperlink ref="K143" r:id="rId26" tooltip="Оукс" display="https://ru.wikipedia.org/wiki/%D0%9E%D1%83%D0%BA%D1%81"/>
-    <hyperlink ref="I182" r:id="rId27" location="cite_note-15" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-15"/>
-    <hyperlink ref="I192" r:id="rId28" location="cite_note-erm-tion-11" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-tion-11"/>
-    <hyperlink ref="I193" r:id="rId29" location="cite_note-erm-ture-16" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-ture-16"/>
-    <hyperlink ref="K194" r:id="rId30" tooltip="Ньюкасл" display="https://ru.wikipedia.org/wiki/%D0%9D%D1%8C%D1%8E%D0%BA%D0%B0%D1%81%D0%BB"/>
-    <hyperlink ref="K198" r:id="rId31" tooltip="Голсуорси" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D0%BB%D1%81%D1%83%D0%BE%D1%80%D1%81%D0%B8"/>
-    <hyperlink ref="I199" r:id="rId32" location="cite_note-17" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-17"/>
-    <hyperlink ref="K201" r:id="rId33" tooltip="Резерфорд" display="https://ru.wikipedia.org/wiki/%D0%A0%D0%B5%D0%B7%D0%B5%D1%80%D1%84%D0%BE%D1%80%D0%B4"/>
-    <hyperlink ref="I203" r:id="rId34" location="cite_note-18" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-18"/>
-    <hyperlink ref="I205" r:id="rId35" location="cite_note-.D1.8A-19" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-.D1.8A-19"/>
-    <hyperlink ref="K210" r:id="rId36" tooltip="Лландидно" display="https://ru.wikipedia.org/wiki/%D0%9B%D0%BB%D0%B0%D0%BD%D0%B4%D0%B8%D0%B4%D0%BD%D0%BE"/>
-    <hyperlink ref="K215" r:id="rId37" tooltip="Эмпайр-стейт-билдинг" display="https://ru.wikipedia.org/wiki/%D0%AD%D0%BC%D0%BF%D0%B0%D0%B9%D1%80-%D1%81%D1%82%D0%B5%D0%B9%D1%82-%D0%B1%D0%B8%D0%BB%D0%B4%D0%B8%D0%BD%D0%B3"/>
-    <hyperlink ref="I218" r:id="rId38" location="cite_note-erm-ture-16" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-ture-16"/>
-    <hyperlink ref="I233" r:id="rId39" location="cite_note-.D1.8A-19" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-.D1.8A-19"/>
-    <hyperlink ref="K233" r:id="rId40" tooltip="Йеллоустон" display="https://ru.wikipedia.org/wiki/%D0%99%D0%B5%D0%BB%D0%BB%D0%BE%D1%83%D1%81%D1%82%D0%BE%D0%BD"/>
+    <hyperlink ref="I35" r:id="rId6" tooltip="Википедия:Ссылки на источники" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B8%D0%BA%D0%B8%D0%BF%D0%B5%D0%B4%D0%B8%D1%8F:%D0%A1%D1%81%D1%8B%D0%BB%D0%BA%D0%B8_%D0%BD%D0%B0_%D0%B8%D1%81%D1%82%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B8"/>
+    <hyperlink ref="K49" r:id="rId7" tooltip="Корделия" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D1%80%D0%B4%D0%B5%D0%BB%D0%B8%D1%8F"/>
+    <hyperlink ref="I53" r:id="rId8" location="cite_note-5" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-5"/>
+    <hyperlink ref="I59" r:id="rId9" location="cite_note-6" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-6"/>
+    <hyperlink ref="I62" r:id="rId10" tooltip="Википедия:Ссылки на источники" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B8%D0%BA%D0%B8%D0%BF%D0%B5%D0%B4%D0%B8%D1%8F:%D0%A1%D1%81%D1%8B%D0%BB%D0%BA%D0%B8_%D0%BD%D0%B0_%D0%B8%D1%81%D1%82%D0%BE%D1%87%D0%BD%D0%B8%D0%BA%D0%B8"/>
+    <hyperlink ref="I64" r:id="rId11" location="cite_note-air-4" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-air-4"/>
+    <hyperlink ref="I75" r:id="rId12" location="cite_note-eo-7" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-eo-7"/>
+    <hyperlink ref="I76" r:id="rId13" location="cite_note-eo-7" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-eo-7"/>
+    <hyperlink ref="I78" r:id="rId14" location="cite_note-8" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-8"/>
+    <hyperlink ref="K87" r:id="rId15" location="cite_note-sewer-9" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-sewer-9"/>
+    <hyperlink ref="K88" r:id="rId16" location="cite_note-sewer-9" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-sewer-9"/>
+    <hyperlink ref="I93" r:id="rId17" location="cite_note-10" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-10"/>
+    <hyperlink ref="K114" r:id="rId18" tooltip="Лит (Шотландия)" display="https://ru.wikipedia.org/wiki/%D0%9B%D0%B8%D1%82_(%D0%A8%D0%BE%D1%82%D0%BB%D0%B0%D0%BD%D0%B4%D0%B8%D1%8F)"/>
+    <hyperlink ref="I123" r:id="rId19" location="cite_note-erm-tion-11" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-tion-11"/>
+    <hyperlink ref="I137" r:id="rId20" location="cite_note-12" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-12"/>
+    <hyperlink ref="I139" r:id="rId21" tooltip="Валлийский язык" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D0%BB%D0%BB%D0%B8%D0%B9%D1%81%D0%BA%D0%B8%D0%B9_%D1%8F%D0%B7%D1%8B%D0%BA"/>
+    <hyperlink ref="K142" r:id="rId22" tooltip="Кэмпбелл" display="https://ru.wikipedia.org/wiki/%D0%9A%D1%8D%D0%BC%D0%BF%D0%B1%D0%B5%D0%BB%D0%BB"/>
+    <hyperlink ref="I145" r:id="rId23" location="cite_note-ou-13" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-ou-13"/>
+    <hyperlink ref="I146" r:id="rId24" location="cite_note-14" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-14"/>
+    <hyperlink ref="I149" r:id="rId25" location="cite_note-ou-13" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-ou-13"/>
+    <hyperlink ref="K150" r:id="rId26" tooltip="Оукс" display="https://ru.wikipedia.org/wiki/%D0%9E%D1%83%D0%BA%D1%81"/>
+    <hyperlink ref="I190" r:id="rId27" location="cite_note-15" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-15"/>
+    <hyperlink ref="I200" r:id="rId28" location="cite_note-erm-tion-11" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-tion-11"/>
+    <hyperlink ref="I201" r:id="rId29" location="cite_note-erm-ture-16" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-ture-16"/>
+    <hyperlink ref="K202" r:id="rId30" tooltip="Ньюкасл" display="https://ru.wikipedia.org/wiki/%D0%9D%D1%8C%D1%8E%D0%BA%D0%B0%D1%81%D0%BB"/>
+    <hyperlink ref="K206" r:id="rId31" tooltip="Голсуорси" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D0%BB%D1%81%D1%83%D0%BE%D1%80%D1%81%D0%B8"/>
+    <hyperlink ref="I207" r:id="rId32" location="cite_note-17" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-17"/>
+    <hyperlink ref="K209" r:id="rId33" tooltip="Резерфорд" display="https://ru.wikipedia.org/wiki/%D0%A0%D0%B5%D0%B7%D0%B5%D1%80%D1%84%D0%BE%D1%80%D0%B4"/>
+    <hyperlink ref="I211" r:id="rId34" location="cite_note-18" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-18"/>
+    <hyperlink ref="I213" r:id="rId35" location="cite_note-.D1.8A-19" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-.D1.8A-19"/>
+    <hyperlink ref="K218" r:id="rId36" tooltip="Лландидно" display="https://ru.wikipedia.org/wiki/%D0%9B%D0%BB%D0%B0%D0%BD%D0%B4%D0%B8%D0%B4%D0%BD%D0%BE"/>
+    <hyperlink ref="K223" r:id="rId37" tooltip="Эмпайр-стейт-билдинг" display="https://ru.wikipedia.org/wiki/%D0%AD%D0%BC%D0%BF%D0%B0%D0%B9%D1%80-%D1%81%D1%82%D0%B5%D0%B9%D1%82-%D0%B1%D0%B8%D0%BB%D0%B4%D0%B8%D0%BD%D0%B3"/>
+    <hyperlink ref="I226" r:id="rId38" location="cite_note-erm-ture-16" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-erm-ture-16"/>
+    <hyperlink ref="I241" r:id="rId39" location="cite_note-.D1.8A-19" display="https://ru.wikipedia.org/wiki/%D0%90%D0%BD%D0%B3%D0%BB%D0%BE-%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F_%D0%BF%D1%80%D0%B0%D0%BA%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F_%D1%82%D1%80%D0%B0%D0%BD%D1%81%D0%BA%D1%80%D0%B8%D0%BF%D1%86%D0%B8%D1%8F - cite_note-.D1.8A-19"/>
+    <hyperlink ref="K241" r:id="rId40" tooltip="Йеллоустон" display="https://ru.wikipedia.org/wiki/%D0%99%D0%B5%D0%BB%D0%BB%D0%BE%D1%83%D1%81%D1%82%D0%BE%D0%BD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14404,7 +15030,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
@@ -14425,7 +15051,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>

--- a/Transcription rules.xlsx
+++ b/Transcription rules.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Letter-based" sheetId="2" r:id="rId1"/>
     <sheet name="Sound-based" sheetId="1" r:id="rId2"/>
+    <sheet name="Symbols" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="774">
   <si>
     <t>[iː]</t>
   </si>
@@ -9264,6 +9265,321 @@
   </si>
   <si>
     <t>ju</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AA0</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>AA2</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AE0</t>
+  </si>
+  <si>
+    <t>AE1</t>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AH0</t>
+  </si>
+  <si>
+    <t>AH1</t>
+  </si>
+  <si>
+    <t>AH2</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AO0</t>
+  </si>
+  <si>
+    <t>AO1</t>
+  </si>
+  <si>
+    <t>AO2</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AW0</t>
+  </si>
+  <si>
+    <t>AW1</t>
+  </si>
+  <si>
+    <t>AW2</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AY0</t>
+  </si>
+  <si>
+    <t>AY1</t>
+  </si>
+  <si>
+    <t>AY2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>EH0</t>
+  </si>
+  <si>
+    <t>EH1</t>
+  </si>
+  <si>
+    <t>EH2</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER0</t>
+  </si>
+  <si>
+    <t>ER1</t>
+  </si>
+  <si>
+    <t>ER2</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>EY0</t>
+  </si>
+  <si>
+    <t>EY1</t>
+  </si>
+  <si>
+    <t>EY2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>IH0</t>
+  </si>
+  <si>
+    <t>IH1</t>
+  </si>
+  <si>
+    <t>IH2</t>
+  </si>
+  <si>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>IY0</t>
+  </si>
+  <si>
+    <t>IY1</t>
+  </si>
+  <si>
+    <t>IY2</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>OW0</t>
+  </si>
+  <si>
+    <t>OW1</t>
+  </si>
+  <si>
+    <t>OW2</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>OY0</t>
+  </si>
+  <si>
+    <t>OY1</t>
+  </si>
+  <si>
+    <t>OY2</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>UH</t>
+  </si>
+  <si>
+    <t>UH0</t>
+  </si>
+  <si>
+    <t>UH1</t>
+  </si>
+  <si>
+    <t>UH2</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
+    <t>UW0</t>
+  </si>
+  <si>
+    <t>UW1</t>
+  </si>
+  <si>
+    <t>UW2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>Carnegie</t>
+  </si>
+  <si>
+    <t>BEEP</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>iy</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>oy</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>uw</t>
+  </si>
+  <si>
+    <t>zh</t>
   </si>
 </sst>
 </file>
@@ -9591,12 +9907,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9609,31 +9919,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9928,7 +10244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
@@ -9961,16 +10277,16 @@
       <c r="F2" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="33" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -9978,8 +10294,8 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="12" t="s">
         <v>121</v>
       </c>
@@ -10000,14 +10316,14 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="36" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -10015,24 +10331,24 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="29"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="18" t="s">
         <v>131</v>
       </c>
@@ -10047,7 +10363,7 @@
       <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="1" t="s">
         <v>132</v>
       </c>
@@ -10069,14 +10385,14 @@
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="36" t="s">
         <v>134</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -10085,37 +10401,37 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="39"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="39"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="40"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="23" t="s">
         <v>139</v>
       </c>
@@ -10130,7 +10446,7 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10154,7 +10470,7 @@
       <c r="D14" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="1"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
@@ -10170,7 +10486,7 @@
       <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="1" t="s">
         <v>143</v>
       </c>
@@ -10210,7 +10526,7 @@
       <c r="D17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="33" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -10237,7 +10553,7 @@
       <c r="F18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
@@ -10259,7 +10575,7 @@
       <c r="D19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="37"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
@@ -10284,27 +10600,27 @@
       <c r="F20" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="33" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="38"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="15" t="s">
         <v>153</v>
       </c>
@@ -10322,14 +10638,14 @@
       <c r="F22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="35" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="36" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="14" t="s">
@@ -10337,19 +10653,19 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="15" t="s">
         <v>157</v>
       </c>
@@ -10367,7 +10683,7 @@
       <c r="F25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="33" t="s">
         <v>158</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -10376,8 +10692,8 @@
       <c r="J25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="41" t="s">
+      <c r="K25" s="36"/>
+      <c r="L25" s="42" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10391,14 +10707,14 @@
       <c r="F26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10438,7 +10754,7 @@
       <c r="D28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="33" t="s">
         <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10460,7 +10776,7 @@
       <c r="D29" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="1" t="s">
         <v>167</v>
       </c>
@@ -10485,7 +10801,7 @@
       <c r="F30" s="27" t="s">
         <v>663</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="1" t="s">
         <v>170</v>
       </c>
@@ -10505,7 +10821,7 @@
       <c r="D31" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -10532,7 +10848,7 @@
       <c r="F32" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="1" t="s">
         <v>175</v>
       </c>
@@ -10557,7 +10873,7 @@
       <c r="F33" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="1" t="s">
         <v>178</v>
       </c>
@@ -10619,7 +10935,7 @@
       <c r="D36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="33" t="s">
         <v>183</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -10643,7 +10959,7 @@
       <c r="D37" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
@@ -10667,7 +10983,7 @@
       <c r="D38" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="33" t="s">
         <v>188</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -10693,7 +11009,7 @@
       <c r="D39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="1" t="s">
         <v>67</v>
       </c>
@@ -10715,7 +11031,7 @@
       <c r="D40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="37"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="1" t="s">
         <v>85</v>
       </c>
@@ -10737,7 +11053,7 @@
       <c r="D41" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="33" t="s">
         <v>194</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -10761,7 +11077,7 @@
       <c r="D42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="34"/>
       <c r="I42" s="1" t="s">
         <v>57</v>
       </c>
@@ -10785,7 +11101,7 @@
       <c r="D43" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="1" t="s">
         <v>67</v>
       </c>
@@ -10809,7 +11125,7 @@
       <c r="D44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="36"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="1" t="s">
         <v>85</v>
       </c>
@@ -10833,7 +11149,7 @@
       <c r="D45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="37"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="1" t="s">
         <v>202</v>
       </c>
@@ -10857,25 +11173,25 @@
       <c r="D46" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="40"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="18" t="s">
         <v>208</v>
       </c>
@@ -10890,7 +11206,7 @@
       <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="33" t="s">
         <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -10914,7 +11230,7 @@
       <c r="D49" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H49" s="37"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="1" t="s">
         <v>162</v>
       </c>
@@ -10936,16 +11252,16 @@
       <c r="D50" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="36" t="s">
         <v>215</v>
       </c>
       <c r="L50" s="14" t="s">
@@ -10953,10 +11269,10 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="40"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="37"/>
       <c r="L51" s="23" t="s">
         <v>217</v>
       </c>
@@ -10974,26 +11290,26 @@
       <c r="F52" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35" t="s">
+      <c r="H52" s="34"/>
+      <c r="I52" s="33" t="s">
         <v>218</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="38"/>
-      <c r="L52" s="33" t="s">
+      <c r="K52" s="36"/>
+      <c r="L52" s="44" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="35"/>
       <c r="J53" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="34"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="28" t="s">
@@ -11008,7 +11324,7 @@
       <c r="E54" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="34"/>
       <c r="I54" s="1" t="s">
         <v>2</v>
       </c>
@@ -11023,14 +11339,14 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H55" s="36"/>
-      <c r="I55" s="35" t="s">
+      <c r="H55" s="34"/>
+      <c r="I55" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="41" t="s">
+      <c r="J55" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="38" t="s">
+      <c r="K55" s="36" t="s">
         <v>225</v>
       </c>
       <c r="L55" s="14" t="s">
@@ -11038,10 +11354,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="43"/>
-      <c r="K56" s="40"/>
+      <c r="K56" s="37"/>
       <c r="L56" s="15" t="s">
         <v>227</v>
       </c>
@@ -11056,36 +11372,36 @@
       <c r="D57" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="35" t="s">
+      <c r="H57" s="34"/>
+      <c r="I57" s="33" t="s">
         <v>162</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K57" s="38"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="39"/>
+      <c r="K58" s="41"/>
       <c r="L58" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K59" s="40"/>
+      <c r="K59" s="37"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11098,7 +11414,7 @@
       <c r="D60" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -11122,7 +11438,7 @@
       <c r="D61" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="36"/>
+      <c r="H61" s="34"/>
       <c r="I61" s="1" t="s">
         <v>2</v>
       </c>
@@ -11144,7 +11460,7 @@
       <c r="D62" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="36"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="1" t="s">
         <v>5</v>
       </c>
@@ -11169,7 +11485,7 @@
       <c r="F63" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H63" s="36"/>
+      <c r="H63" s="34"/>
       <c r="I63" s="1" t="s">
         <v>38</v>
       </c>
@@ -11191,7 +11507,7 @@
       <c r="D64" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="H64" s="37"/>
+      <c r="H64" s="35"/>
       <c r="I64" s="1" t="s">
         <v>42</v>
       </c>
@@ -11216,7 +11532,7 @@
       <c r="F65" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H65" s="33" t="s">
         <v>242</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -11243,7 +11559,7 @@
       <c r="F66" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H66" s="36"/>
+      <c r="H66" s="34"/>
       <c r="I66" s="1" t="s">
         <v>40</v>
       </c>
@@ -11265,7 +11581,7 @@
       <c r="D67" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="37"/>
+      <c r="H67" s="35"/>
       <c r="I67" s="1" t="s">
         <v>42</v>
       </c>
@@ -11335,7 +11651,7 @@
       <c r="D70" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="35" t="s">
+      <c r="H70" s="33" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -11359,7 +11675,7 @@
       <c r="D71" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="34"/>
       <c r="I71" s="1"/>
       <c r="J71" s="19"/>
       <c r="K71" s="20"/>
@@ -11375,7 +11691,7 @@
       <c r="D72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="34"/>
       <c r="I72" s="1" t="s">
         <v>28</v>
       </c>
@@ -11402,7 +11718,7 @@
       <c r="F73" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H73" s="37"/>
+      <c r="H73" s="35"/>
       <c r="I73" s="1" t="s">
         <v>38</v>
       </c>
@@ -11424,7 +11740,7 @@
       <c r="D74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H74" s="33" t="s">
         <v>258</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -11451,7 +11767,7 @@
       <c r="F75" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H75" s="37"/>
+      <c r="H75" s="35"/>
       <c r="I75" s="1" t="s">
         <v>38</v>
       </c>
@@ -11495,7 +11811,7 @@
       <c r="D77" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="H77" s="33" t="s">
         <v>262</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -11519,7 +11835,7 @@
       <c r="D78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="34"/>
       <c r="I78" s="1" t="s">
         <v>2</v>
       </c>
@@ -11544,7 +11860,7 @@
       <c r="F79" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="34"/>
       <c r="I79" s="1" t="s">
         <v>5</v>
       </c>
@@ -11566,7 +11882,7 @@
       <c r="D80" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="37"/>
+      <c r="H80" s="35"/>
       <c r="I80" s="1" t="s">
         <v>26</v>
       </c>
@@ -11591,7 +11907,7 @@
       <c r="F81" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H81" s="33" t="s">
         <v>270</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -11615,7 +11931,7 @@
       <c r="D82" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H82" s="37"/>
+      <c r="H82" s="35"/>
       <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
@@ -11664,16 +11980,16 @@
       <c r="F84" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="I84" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="44" t="s">
+      <c r="J84" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="K84" s="38"/>
+      <c r="K84" s="36"/>
       <c r="L84" s="14" t="s">
         <v>279</v>
       </c>
@@ -11688,17 +12004,17 @@
       <c r="D85" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="39"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="41"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="36"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="40"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="37"/>
       <c r="L86" s="15" t="s">
         <v>280</v>
       </c>
@@ -11713,7 +12029,7 @@
       <c r="D87" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="37"/>
+      <c r="H87" s="35"/>
       <c r="I87" s="1" t="s">
         <v>20</v>
       </c>
@@ -11738,7 +12054,7 @@
       <c r="F88" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="33" t="s">
         <v>282</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -11760,7 +12076,7 @@
       <c r="D89" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H89" s="37"/>
+      <c r="H89" s="35"/>
       <c r="I89" s="1" t="s">
         <v>284</v>
       </c>
@@ -11783,7 +12099,7 @@
       <c r="F90" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="33" t="s">
         <v>286</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -11807,7 +12123,7 @@
       <c r="D91" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H91" s="37"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="1" t="s">
         <v>284</v>
       </c>
@@ -11829,7 +12145,7 @@
       <c r="D92" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H92" s="35" t="s">
+      <c r="H92" s="33" t="s">
         <v>292</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -11853,7 +12169,7 @@
       <c r="D93" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="36"/>
+      <c r="H93" s="34"/>
       <c r="I93" s="1"/>
       <c r="J93" s="19"/>
       <c r="K93" s="20"/>
@@ -11872,7 +12188,7 @@
       <c r="F94" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H94" s="37"/>
+      <c r="H94" s="35"/>
       <c r="I94" s="1" t="s">
         <v>38</v>
       </c>
@@ -11894,7 +12210,7 @@
       <c r="D95" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="35" t="s">
+      <c r="H95" s="33" t="s">
         <v>104</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -11918,7 +12234,7 @@
       <c r="D96" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="37"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="1" t="s">
         <v>102</v>
       </c>
@@ -11938,7 +12254,7 @@
       <c r="D97" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="33" t="s">
         <v>297</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -11962,7 +12278,7 @@
       <c r="D98" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="36"/>
+      <c r="H98" s="34"/>
       <c r="I98" s="1" t="s">
         <v>57</v>
       </c>
@@ -11986,7 +12302,7 @@
       <c r="D99" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H99" s="36"/>
+      <c r="H99" s="34"/>
       <c r="I99" s="1" t="s">
         <v>111</v>
       </c>
@@ -12010,7 +12326,7 @@
       <c r="D100" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="37"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="1" t="s">
         <v>162</v>
       </c>
@@ -12030,7 +12346,7 @@
       <c r="D101" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="35" t="s">
+      <c r="H101" s="33" t="s">
         <v>302</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -12054,7 +12370,7 @@
       <c r="D102" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H102" s="36"/>
+      <c r="H102" s="34"/>
       <c r="I102" s="1" t="s">
         <v>57</v>
       </c>
@@ -12074,7 +12390,7 @@
       <c r="D103" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="37"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="1" t="s">
         <v>111</v>
       </c>
@@ -12096,7 +12412,7 @@
       <c r="D104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="35" t="s">
+      <c r="H104" s="33" t="s">
         <v>306</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -12122,7 +12438,7 @@
       <c r="D105" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H105" s="36"/>
+      <c r="H105" s="34"/>
       <c r="I105" s="1" t="s">
         <v>309</v>
       </c>
@@ -12146,7 +12462,7 @@
       <c r="D106" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H106" s="37"/>
+      <c r="H106" s="35"/>
       <c r="I106" s="1" t="s">
         <v>162</v>
       </c>
@@ -12168,25 +12484,25 @@
       <c r="D107" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H107" s="35" t="s">
+      <c r="H107" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="I107" s="35" t="s">
+      <c r="I107" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J107" s="44" t="s">
+      <c r="J107" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="38"/>
+      <c r="K107" s="36"/>
       <c r="L107" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="40"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="37"/>
       <c r="L108" s="18" t="s">
         <v>317</v>
       </c>
@@ -12201,7 +12517,7 @@
       <c r="D109" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H109" s="37"/>
+      <c r="H109" s="35"/>
       <c r="I109" s="1" t="s">
         <v>162</v>
       </c>
@@ -12225,7 +12541,7 @@
       <c r="D110" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H110" s="35" t="s">
+      <c r="H110" s="33" t="s">
         <v>320</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -12251,7 +12567,7 @@
       <c r="D111" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H111" s="37"/>
+      <c r="H111" s="35"/>
       <c r="I111" s="1" t="s">
         <v>140</v>
       </c>
@@ -12291,7 +12607,7 @@
       <c r="D113" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="H113" s="35" t="s">
+      <c r="H113" s="33" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -12315,7 +12631,7 @@
       <c r="D114" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="H114" s="37"/>
+      <c r="H114" s="35"/>
       <c r="I114" s="1" t="s">
         <v>42</v>
       </c>
@@ -12361,7 +12677,7 @@
       <c r="D116" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="H116" s="35" t="s">
+      <c r="H116" s="33" t="s">
         <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -12385,7 +12701,7 @@
       <c r="D117" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="37"/>
+      <c r="H117" s="35"/>
       <c r="I117" s="1" t="s">
         <v>140</v>
       </c>
@@ -12425,7 +12741,7 @@
       <c r="D119" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="H119" s="35" t="s">
+      <c r="H119" s="33" t="s">
         <v>337</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -12447,32 +12763,32 @@
       <c r="D120" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="36"/>
-      <c r="I120" s="35" t="s">
+      <c r="H120" s="34"/>
+      <c r="I120" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="J120" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="K120" s="38"/>
+      <c r="K120" s="36"/>
       <c r="L120" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="39"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="41"/>
       <c r="L121" s="22" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="40"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="37"/>
       <c r="L122" s="15" t="s">
         <v>344</v>
       </c>
@@ -12487,7 +12803,7 @@
       <c r="D123" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H123" s="33" t="s">
         <v>345</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -12511,7 +12827,7 @@
       <c r="D124" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="H124" s="37"/>
+      <c r="H124" s="35"/>
       <c r="I124" s="1" t="s">
         <v>347</v>
       </c>
@@ -12535,7 +12851,7 @@
       <c r="D125" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="35" t="s">
+      <c r="H125" s="33" t="s">
         <v>351</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -12557,7 +12873,7 @@
       <c r="D126" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="36"/>
+      <c r="H126" s="34"/>
       <c r="I126" s="1" t="s">
         <v>162</v>
       </c>
@@ -12577,7 +12893,7 @@
       <c r="D127" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H127" s="36"/>
+      <c r="H127" s="34"/>
       <c r="I127" s="1" t="s">
         <v>30</v>
       </c>
@@ -12599,7 +12915,7 @@
       <c r="D128" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="H128" s="37"/>
+      <c r="H128" s="35"/>
       <c r="I128" s="1" t="s">
         <v>355</v>
       </c>
@@ -12622,7 +12938,7 @@
       <c r="F129" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="H129" s="35" t="s">
+      <c r="H129" s="33" t="s">
         <v>357</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -12644,7 +12960,7 @@
       <c r="D130" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="37"/>
+      <c r="H130" s="35"/>
       <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
@@ -12664,7 +12980,7 @@
       <c r="D131" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="33" t="s">
         <v>359</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -12688,7 +13004,7 @@
       <c r="D132" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="37"/>
+      <c r="H132" s="35"/>
       <c r="I132" s="1" t="s">
         <v>42</v>
       </c>
@@ -12754,7 +13070,7 @@
       <c r="D135" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H135" s="35" t="s">
+      <c r="H135" s="33" t="s">
         <v>367</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -12776,7 +13092,7 @@
       <c r="D136" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H136" s="37"/>
+      <c r="H136" s="35"/>
       <c r="I136" s="1" t="s">
         <v>162</v>
       </c>
@@ -12810,25 +13126,25 @@
       <c r="D138" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H138" s="35" t="s">
+      <c r="H138" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="I138" s="35" t="s">
+      <c r="I138" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J138" s="44" t="s">
+      <c r="J138" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="K138" s="38"/>
+      <c r="K138" s="36"/>
       <c r="L138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139" spans="2:12" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="36"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="45"/>
-      <c r="K139" s="40"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="37"/>
       <c r="L139" s="18" t="s">
         <v>373</v>
       </c>
@@ -12843,7 +13159,7 @@
       <c r="D140" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H140" s="37"/>
+      <c r="H140" s="35"/>
       <c r="I140" s="1" t="s">
         <v>162</v>
       </c>
@@ -12865,26 +13181,26 @@
       <c r="D141" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="35" t="s">
+      <c r="H141" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="I141" s="35" t="s">
+      <c r="I141" s="33" t="s">
         <v>69</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
     </row>
     <row r="142" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
       <c r="J142" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="K142" s="40"/>
-      <c r="L142" s="40"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
     </row>
     <row r="143" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
@@ -12896,7 +13212,7 @@
       <c r="D143" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H143" s="35" t="s">
+      <c r="H143" s="33" t="s">
         <v>379</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -12912,7 +13228,7 @@
       <c r="C144" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H144" s="37"/>
+      <c r="H144" s="35"/>
       <c r="I144" s="1" t="s">
         <v>162</v>
       </c>
@@ -13002,7 +13318,7 @@
       <c r="D148" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H148" s="35" t="s">
+      <c r="H148" s="33" t="s">
         <v>14</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -13024,15 +13340,15 @@
       <c r="D149" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H149" s="36"/>
+      <c r="H149" s="34"/>
       <c r="I149" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="J149" s="41" t="s">
+      <c r="J149" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="K149" s="38"/>
-      <c r="L149" s="33" t="s">
+      <c r="K149" s="36"/>
+      <c r="L149" s="44" t="s">
         <v>393</v>
       </c>
     </row>
@@ -13046,20 +13362,20 @@
       <c r="D150" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H150" s="36"/>
+      <c r="H150" s="34"/>
       <c r="I150" s="31"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="39"/>
-      <c r="L150" s="46"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="47"/>
     </row>
     <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H151" s="37"/>
+      <c r="H151" s="35"/>
       <c r="I151" s="26" t="s">
         <v>391</v>
       </c>
       <c r="J151" s="43"/>
-      <c r="K151" s="40"/>
-      <c r="L151" s="34"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="45"/>
     </row>
     <row r="152" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B152" s="28" t="s">
@@ -13071,16 +13387,16 @@
       <c r="D152" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H152" s="35" t="s">
+      <c r="H152" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="I152" s="35" t="s">
+      <c r="I152" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="J152" s="41" t="s">
+      <c r="J152" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="K152" s="38"/>
+      <c r="K152" s="36"/>
       <c r="L152" s="14" t="s">
         <v>396</v>
       </c>
@@ -13095,10 +13411,10 @@
       <c r="D153" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
       <c r="J153" s="43"/>
-      <c r="K153" s="40"/>
+      <c r="K153" s="37"/>
       <c r="L153" s="23" t="s">
         <v>397</v>
       </c>
@@ -13161,16 +13477,16 @@
       <c r="D156" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H156" s="35" t="s">
+      <c r="H156" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="I156" s="35" t="s">
+      <c r="I156" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J156" s="44" t="s">
+      <c r="J156" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="K156" s="38"/>
+      <c r="K156" s="36"/>
       <c r="L156" s="14" t="s">
         <v>405</v>
       </c>
@@ -13185,10 +13501,10 @@
       <c r="D157" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="40"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="37"/>
       <c r="L157" s="18" t="s">
         <v>406</v>
       </c>
@@ -13203,7 +13519,7 @@
       <c r="D158" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H158" s="35" t="s">
+      <c r="H158" s="33" t="s">
         <v>407</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -13227,7 +13543,7 @@
       <c r="D159" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H159" s="36"/>
+      <c r="H159" s="34"/>
       <c r="I159" s="1"/>
       <c r="J159" s="19"/>
       <c r="K159" s="20"/>
@@ -13243,7 +13559,7 @@
       <c r="D160" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="37"/>
+      <c r="H160" s="35"/>
       <c r="I160" s="1" t="s">
         <v>21</v>
       </c>
@@ -13265,7 +13581,7 @@
       <c r="D161" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="35" t="s">
+      <c r="H161" s="33" t="s">
         <v>411</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -13289,7 +13605,7 @@
       <c r="D162" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H162" s="37"/>
+      <c r="H162" s="35"/>
       <c r="I162" s="1" t="s">
         <v>51</v>
       </c>
@@ -13311,7 +13627,7 @@
       <c r="D163" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="H163" s="33" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -13338,7 +13654,7 @@
       <c r="F164" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H164" s="37"/>
+      <c r="H164" s="35"/>
       <c r="I164" s="1" t="s">
         <v>23</v>
       </c>
@@ -13382,7 +13698,7 @@
       <c r="D166" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H166" s="35" t="s">
+      <c r="H166" s="33" t="s">
         <v>419</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -13406,26 +13722,26 @@
       <c r="D167" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H167" s="36"/>
+      <c r="H167" s="34"/>
       <c r="I167" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J167" s="44" t="s">
+      <c r="J167" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K167" s="38"/>
-      <c r="L167" s="33" t="s">
+      <c r="K167" s="36"/>
+      <c r="L167" s="44" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="168" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H168" s="36"/>
+      <c r="H168" s="34"/>
       <c r="I168" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="J168" s="45"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="34"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="37"/>
+      <c r="L168" s="45"/>
     </row>
     <row r="169" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
@@ -13437,7 +13753,7 @@
       <c r="D169" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H169" s="36"/>
+      <c r="H169" s="34"/>
       <c r="I169" s="1" t="s">
         <v>32</v>
       </c>
@@ -13459,7 +13775,7 @@
       <c r="D170" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="37"/>
+      <c r="H170" s="35"/>
       <c r="I170" s="1" t="s">
         <v>18</v>
       </c>
@@ -13481,7 +13797,7 @@
       <c r="D171" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H171" s="35" t="s">
+      <c r="H171" s="33" t="s">
         <v>426</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -13503,7 +13819,7 @@
       <c r="D172" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="H172" s="36"/>
+      <c r="H172" s="34"/>
       <c r="I172" s="1" t="s">
         <v>427</v>
       </c>
@@ -13525,7 +13841,7 @@
       <c r="D173" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H173" s="37"/>
+      <c r="H173" s="35"/>
       <c r="I173" s="1" t="s">
         <v>429</v>
       </c>
@@ -13549,7 +13865,7 @@
       <c r="D174" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H174" s="35" t="s">
+      <c r="H174" s="33" t="s">
         <v>433</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -13573,7 +13889,7 @@
       <c r="D175" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="36"/>
+      <c r="H175" s="34"/>
       <c r="I175" s="1" t="s">
         <v>34</v>
       </c>
@@ -13598,7 +13914,7 @@
       <c r="F176" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H176" s="37"/>
+      <c r="H176" s="35"/>
       <c r="I176" s="1" t="s">
         <v>358</v>
       </c>
@@ -13620,7 +13936,7 @@
       <c r="D177" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H177" s="35" t="s">
+      <c r="H177" s="33" t="s">
         <v>439</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -13644,7 +13960,7 @@
       <c r="D178" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="36"/>
+      <c r="H178" s="34"/>
       <c r="I178" s="1" t="s">
         <v>32</v>
       </c>
@@ -13666,7 +13982,7 @@
       <c r="D179" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H179" s="37"/>
+      <c r="H179" s="35"/>
       <c r="I179" s="1" t="s">
         <v>15</v>
       </c>
@@ -13686,7 +14002,7 @@
       <c r="D180" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="H180" s="33" t="s">
         <v>37</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -13710,7 +14026,7 @@
       <c r="D181" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="H181" s="37"/>
+      <c r="H181" s="35"/>
       <c r="I181" s="1" t="s">
         <v>284</v>
       </c>
@@ -13732,7 +14048,7 @@
       <c r="D182" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H182" s="35" t="s">
+      <c r="H182" s="33" t="s">
         <v>444</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -13754,26 +14070,26 @@
       <c r="D183" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H183" s="36"/>
-      <c r="I183" s="35" t="s">
+      <c r="H183" s="34"/>
+      <c r="I183" s="33" t="s">
         <v>162</v>
       </c>
       <c r="J183" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K183" s="38" t="s">
+      <c r="K183" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="L183" s="38"/>
+      <c r="L183" s="36"/>
     </row>
     <row r="184" spans="2:12" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
       <c r="J184" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
+      <c r="K184" s="37"/>
+      <c r="L184" s="37"/>
     </row>
     <row r="185" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
@@ -13785,7 +14101,7 @@
       <c r="D185" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H185" s="35" t="s">
+      <c r="H185" s="33" t="s">
         <v>448</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -13811,7 +14127,7 @@
       <c r="D186" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H186" s="37"/>
+      <c r="H186" s="35"/>
       <c r="I186" s="1" t="s">
         <v>451</v>
       </c>
@@ -13857,7 +14173,7 @@
       <c r="D188" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H188" s="35" t="s">
+      <c r="H188" s="33" t="s">
         <v>455</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -13881,7 +14197,7 @@
       <c r="D189" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="H189" s="37"/>
+      <c r="H189" s="35"/>
       <c r="I189" s="1" t="s">
         <v>457</v>
       </c>
@@ -13903,7 +14219,7 @@
       <c r="D190" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H190" s="35" t="s">
+      <c r="H190" s="33" t="s">
         <v>460</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -13925,7 +14241,7 @@
       <c r="D191" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H191" s="37"/>
+      <c r="H191" s="35"/>
       <c r="I191" s="1" t="s">
         <v>162</v>
       </c>
@@ -13947,7 +14263,7 @@
       <c r="D192" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H192" s="35" t="s">
+      <c r="H192" s="33" t="s">
         <v>463</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -13969,23 +14285,23 @@
       <c r="D193" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H193" s="36"/>
-      <c r="I193" s="35" t="s">
+      <c r="H193" s="34"/>
+      <c r="I193" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J193" s="41" t="s">
+      <c r="J193" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="K193" s="38"/>
+      <c r="K193" s="36"/>
       <c r="L193" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="194" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H194" s="36"/>
-      <c r="I194" s="37"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="35"/>
       <c r="J194" s="43"/>
-      <c r="K194" s="40"/>
+      <c r="K194" s="37"/>
       <c r="L194" s="15" t="s">
         <v>466</v>
       </c>
@@ -14000,7 +14316,7 @@
       <c r="D195" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="36"/>
+      <c r="H195" s="34"/>
       <c r="I195" s="1" t="s">
         <v>85</v>
       </c>
@@ -14024,7 +14340,7 @@
       <c r="D196" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H196" s="36"/>
+      <c r="H196" s="34"/>
       <c r="I196" s="1" t="s">
         <v>111</v>
       </c>
@@ -14048,7 +14364,7 @@
       <c r="D197" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H197" s="37"/>
+      <c r="H197" s="35"/>
       <c r="I197" s="1" t="s">
         <v>162</v>
       </c>
@@ -14070,7 +14386,7 @@
       <c r="D198" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H198" s="35" t="s">
+      <c r="H198" s="33" t="s">
         <v>472</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -14094,7 +14410,7 @@
       <c r="D199" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="H199" s="37"/>
+      <c r="H199" s="35"/>
       <c r="I199" s="1" t="s">
         <v>474</v>
       </c>
@@ -14118,7 +14434,7 @@
       <c r="D200" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H200" s="35" t="s">
+      <c r="H200" s="33" t="s">
         <v>478</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -14140,7 +14456,7 @@
       <c r="D201" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H201" s="37"/>
+      <c r="H201" s="35"/>
       <c r="I201" s="1" t="s">
         <v>108</v>
       </c>
@@ -14162,7 +14478,7 @@
       <c r="D202" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H202" s="35" t="s">
+      <c r="H202" s="33" t="s">
         <v>481</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -14184,7 +14500,7 @@
       <c r="D203" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H203" s="36"/>
+      <c r="H203" s="34"/>
       <c r="I203" s="1" t="s">
         <v>85</v>
       </c>
@@ -14204,7 +14520,7 @@
       <c r="D204" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H204" s="36"/>
+      <c r="H204" s="34"/>
       <c r="I204" s="1" t="s">
         <v>94</v>
       </c>
@@ -14224,7 +14540,7 @@
       <c r="D205" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H205" s="37"/>
+      <c r="H205" s="35"/>
       <c r="I205" s="1" t="s">
         <v>162</v>
       </c>
@@ -14268,7 +14584,7 @@
       <c r="D207" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H207" s="35" t="s">
+      <c r="H207" s="33" t="s">
         <v>486</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -14290,23 +14606,23 @@
       <c r="D208" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H208" s="36"/>
-      <c r="I208" s="35" t="s">
+      <c r="H208" s="34"/>
+      <c r="I208" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J208" s="44" t="s">
+      <c r="J208" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="K208" s="38"/>
+      <c r="K208" s="36"/>
       <c r="L208" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="209" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H209" s="36"/>
-      <c r="I209" s="37"/>
-      <c r="J209" s="45"/>
-      <c r="K209" s="40"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="35"/>
+      <c r="J209" s="40"/>
+      <c r="K209" s="37"/>
       <c r="L209" s="23" t="s">
         <v>489</v>
       </c>
@@ -14321,32 +14637,32 @@
       <c r="D210" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="H210" s="36"/>
-      <c r="I210" s="35" t="s">
+      <c r="H210" s="34"/>
+      <c r="I210" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J210" s="41" t="s">
+      <c r="J210" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="K210" s="38"/>
+      <c r="K210" s="36"/>
       <c r="L210" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
-      <c r="J211" s="42"/>
-      <c r="K211" s="39"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="46"/>
+      <c r="K211" s="41"/>
       <c r="L211" s="17" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="212" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H212" s="36"/>
-      <c r="I212" s="37"/>
+      <c r="H212" s="34"/>
+      <c r="I212" s="35"/>
       <c r="J212" s="43"/>
-      <c r="K212" s="40"/>
+      <c r="K212" s="37"/>
       <c r="L212" s="23" t="s">
         <v>493</v>
       </c>
@@ -14361,7 +14677,7 @@
       <c r="D213" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="H213" s="37"/>
+      <c r="H213" s="35"/>
       <c r="I213" s="1" t="s">
         <v>494</v>
       </c>
@@ -14436,7 +14752,7 @@
       <c r="F216" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H216" s="35" t="s">
+      <c r="H216" s="33" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -14460,7 +14776,7 @@
       <c r="D217" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H217" s="36"/>
+      <c r="H217" s="34"/>
       <c r="I217" s="1" t="s">
         <v>408</v>
       </c>
@@ -14482,7 +14798,7 @@
       <c r="D218" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H218" s="36"/>
+      <c r="H218" s="34"/>
       <c r="I218" s="1"/>
       <c r="J218" s="19"/>
       <c r="K218" s="20"/>
@@ -14498,7 +14814,7 @@
       <c r="D219" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H219" s="36"/>
+      <c r="H219" s="34"/>
       <c r="I219" s="1" t="s">
         <v>21</v>
       </c>
@@ -14520,7 +14836,7 @@
       <c r="D220" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H220" s="36"/>
+      <c r="H220" s="34"/>
       <c r="I220" s="1" t="s">
         <v>26</v>
       </c>
@@ -14544,7 +14860,7 @@
       <c r="D221" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H221" s="36"/>
+      <c r="H221" s="34"/>
       <c r="I221" s="1" t="s">
         <v>162</v>
       </c>
@@ -14568,7 +14884,7 @@
       <c r="D222" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="37"/>
+      <c r="H222" s="35"/>
       <c r="I222" s="1" t="s">
         <v>2</v>
       </c>
@@ -14592,7 +14908,7 @@
       <c r="D223" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H223" s="35" t="s">
+      <c r="H223" s="33" t="s">
         <v>514</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -14607,7 +14923,7 @@
       </c>
     </row>
     <row r="224" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="36"/>
+      <c r="H224" s="34"/>
       <c r="I224" s="1" t="s">
         <v>516</v>
       </c>
@@ -14618,7 +14934,7 @@
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="36"/>
+      <c r="H225" s="34"/>
       <c r="I225" s="1" t="s">
         <v>518</v>
       </c>
@@ -14638,7 +14954,7 @@
       <c r="D226" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H226" s="37"/>
+      <c r="H226" s="35"/>
       <c r="I226" s="1" t="s">
         <v>162</v>
       </c>
@@ -14660,7 +14976,7 @@
       <c r="D227" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="35" t="s">
+      <c r="H227" s="33" t="s">
         <v>521</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -14675,7 +14991,7 @@
       </c>
     </row>
     <row r="228" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H228" s="36"/>
+      <c r="H228" s="34"/>
       <c r="I228" s="1" t="s">
         <v>516</v>
       </c>
@@ -14686,7 +15002,7 @@
       <c r="L228" s="20"/>
     </row>
     <row r="229" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="37"/>
+      <c r="H229" s="35"/>
       <c r="I229" s="1" t="s">
         <v>518</v>
       </c>
@@ -14733,7 +15049,7 @@
       <c r="D231" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H231" s="35" t="s">
+      <c r="H231" s="33" t="s">
         <v>526</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -14749,7 +15065,7 @@
       <c r="C232" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H232" s="37"/>
+      <c r="H232" s="35"/>
       <c r="I232" s="1" t="s">
         <v>162</v>
       </c>
@@ -14769,47 +15085,47 @@
       <c r="D233" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="H233" s="35" t="s">
+      <c r="H233" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="I233" s="35" t="s">
+      <c r="I233" s="33" t="s">
         <v>105</v>
       </c>
       <c r="J233" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="K233" s="38"/>
+      <c r="K233" s="36"/>
       <c r="L233" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="234" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H234" s="36"/>
-      <c r="I234" s="36"/>
+      <c r="H234" s="34"/>
+      <c r="I234" s="34"/>
       <c r="J234" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="K234" s="39"/>
+      <c r="K234" s="41"/>
       <c r="L234" s="22" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="235" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H235" s="36"/>
-      <c r="I235" s="36"/>
+      <c r="H235" s="34"/>
+      <c r="I235" s="34"/>
       <c r="J235" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="K235" s="39"/>
+      <c r="K235" s="41"/>
       <c r="L235" s="22" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="236" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H236" s="36"/>
-      <c r="I236" s="37"/>
+      <c r="H236" s="34"/>
+      <c r="I236" s="35"/>
       <c r="J236" s="18"/>
-      <c r="K236" s="40"/>
+      <c r="K236" s="37"/>
       <c r="L236" s="15" t="s">
         <v>534</v>
       </c>
@@ -14824,7 +15140,7 @@
       <c r="D237" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H237" s="36"/>
+      <c r="H237" s="34"/>
       <c r="I237" s="1" t="s">
         <v>102</v>
       </c>
@@ -14846,7 +15162,7 @@
       <c r="D238" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H238" s="37"/>
+      <c r="H238" s="35"/>
       <c r="I238" s="1" t="s">
         <v>162</v>
       </c>
@@ -14892,7 +15208,7 @@
       <c r="D240" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="H240" s="35" t="s">
+      <c r="H240" s="33" t="s">
         <v>542</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -14916,7 +15232,7 @@
       <c r="D241" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H241" s="36"/>
+      <c r="H241" s="34"/>
       <c r="I241" s="1" t="s">
         <v>546</v>
       </c>
@@ -14938,7 +15254,7 @@
       <c r="D242" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H242" s="37"/>
+      <c r="H242" s="35"/>
       <c r="I242" s="1" t="s">
         <v>108</v>
       </c>
@@ -14960,7 +15276,7 @@
       <c r="D243" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H243" s="35" t="s">
+      <c r="H243" s="33" t="s">
         <v>550</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -14984,7 +15300,7 @@
       <c r="D244" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="36"/>
+      <c r="H244" s="34"/>
       <c r="I244" s="1" t="s">
         <v>28</v>
       </c>
@@ -15006,43 +15322,43 @@
       <c r="D245" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="H245" s="36"/>
-      <c r="I245" s="35" t="s">
+      <c r="H245" s="34"/>
+      <c r="I245" s="33" t="s">
         <v>65</v>
       </c>
       <c r="J245" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="K245" s="38"/>
-      <c r="L245" s="41" t="s">
+      <c r="K245" s="36"/>
+      <c r="L245" s="42" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="246" spans="2:12" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="H246" s="36"/>
-      <c r="I246" s="36"/>
+      <c r="H246" s="34"/>
+      <c r="I246" s="34"/>
       <c r="J246" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="K246" s="39"/>
-      <c r="L246" s="42"/>
+      <c r="K246" s="41"/>
+      <c r="L246" s="46"/>
     </row>
     <row r="247" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="H247" s="36"/>
-      <c r="I247" s="36"/>
+      <c r="H247" s="34"/>
+      <c r="I247" s="34"/>
       <c r="J247" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="K247" s="39"/>
-      <c r="L247" s="42"/>
+      <c r="K247" s="41"/>
+      <c r="L247" s="46"/>
     </row>
     <row r="248" spans="2:12" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H248" s="37"/>
-      <c r="I248" s="37"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="35"/>
       <c r="J248" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="K248" s="40"/>
+      <c r="K248" s="37"/>
       <c r="L248" s="43"/>
     </row>
     <row r="249" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15082,7 +15398,7 @@
       <c r="D250" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H250" s="35" t="s">
+      <c r="H250" s="33" t="s">
         <v>560</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -15104,28 +15420,28 @@
       <c r="D251" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H251" s="36"/>
-      <c r="I251" s="35" t="s">
+      <c r="H251" s="34"/>
+      <c r="I251" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J251" s="44" t="s">
+      <c r="J251" s="38" t="s">
         <v>100</v>
       </c>
       <c r="K251" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L251" s="33" t="s">
+      <c r="L251" s="44" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="252" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H252" s="36"/>
-      <c r="I252" s="37"/>
-      <c r="J252" s="45"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="35"/>
+      <c r="J252" s="40"/>
       <c r="K252" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="L252" s="34"/>
+      <c r="L252" s="45"/>
     </row>
     <row r="253" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B253" s="28" t="s">
@@ -15137,113 +15453,78 @@
       <c r="D253" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H253" s="36"/>
-      <c r="I253" s="35" t="s">
+      <c r="H253" s="34"/>
+      <c r="I253" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="J253" s="44" t="s">
+      <c r="J253" s="38" t="s">
         <v>84</v>
       </c>
       <c r="K253" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L253" s="33" t="s">
+      <c r="L253" s="44" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="254" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H254" s="37"/>
-      <c r="I254" s="37"/>
-      <c r="J254" s="45"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="35"/>
+      <c r="J254" s="40"/>
       <c r="K254" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="34"/>
+      <c r="L254" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="H2:H15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="I245:I248"/>
+    <mergeCell ref="K245:K248"/>
+    <mergeCell ref="L245:L248"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H238"/>
+    <mergeCell ref="I233:I236"/>
+    <mergeCell ref="K233:K236"/>
+    <mergeCell ref="H240:H242"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="I210:I212"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="K210:K212"/>
+    <mergeCell ref="H216:H222"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="H207:H213"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H179"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="H182:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H166:H170"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
     <mergeCell ref="L167:L168"/>
     <mergeCell ref="H171:H173"/>
     <mergeCell ref="H156:H157"/>
@@ -15260,53 +15541,88 @@
     <mergeCell ref="I152:I153"/>
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="K152:K153"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H179"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="H182:H184"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H166:H170"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="H207:H213"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H238"/>
-    <mergeCell ref="I233:I236"/>
-    <mergeCell ref="K233:K236"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="I210:I212"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="K210:K212"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="I245:I248"/>
-    <mergeCell ref="K245:K248"/>
-    <mergeCell ref="L245:L248"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Слог" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BB%D0%BE%D0%B3"/>
@@ -16088,4 +16404,1043 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>753</v>
+      </c>
+      <c r="C12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>753</v>
+      </c>
+      <c r="C18" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C21" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>753</v>
+      </c>
+      <c r="C23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>753</v>
+      </c>
+      <c r="C24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>753</v>
+      </c>
+      <c r="C26" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>753</v>
+      </c>
+      <c r="C27" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>753</v>
+      </c>
+      <c r="C28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>753</v>
+      </c>
+      <c r="C29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C30" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>753</v>
+      </c>
+      <c r="C31" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>753</v>
+      </c>
+      <c r="C32" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>753</v>
+      </c>
+      <c r="C33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>753</v>
+      </c>
+      <c r="C34" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>753</v>
+      </c>
+      <c r="C35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>753</v>
+      </c>
+      <c r="C36" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>753</v>
+      </c>
+      <c r="C37" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>753</v>
+      </c>
+      <c r="C38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>753</v>
+      </c>
+      <c r="C39" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>753</v>
+      </c>
+      <c r="C40" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>753</v>
+      </c>
+      <c r="C41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>753</v>
+      </c>
+      <c r="C42" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>753</v>
+      </c>
+      <c r="C43" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>753</v>
+      </c>
+      <c r="C44" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>753</v>
+      </c>
+      <c r="C45" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>753</v>
+      </c>
+      <c r="C46" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>753</v>
+      </c>
+      <c r="C47" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>753</v>
+      </c>
+      <c r="C48" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>753</v>
+      </c>
+      <c r="C49" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>753</v>
+      </c>
+      <c r="C50" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>753</v>
+      </c>
+      <c r="C51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>753</v>
+      </c>
+      <c r="C53" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>753</v>
+      </c>
+      <c r="C54" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>753</v>
+      </c>
+      <c r="C55" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>753</v>
+      </c>
+      <c r="C56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>753</v>
+      </c>
+      <c r="C57" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>753</v>
+      </c>
+      <c r="C58" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>753</v>
+      </c>
+      <c r="C59" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>753</v>
+      </c>
+      <c r="C60" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>753</v>
+      </c>
+      <c r="C61" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>753</v>
+      </c>
+      <c r="C62" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>753</v>
+      </c>
+      <c r="C63" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>753</v>
+      </c>
+      <c r="C64" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>753</v>
+      </c>
+      <c r="C65" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>753</v>
+      </c>
+      <c r="C66" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>753</v>
+      </c>
+      <c r="C67" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>753</v>
+      </c>
+      <c r="C68" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>753</v>
+      </c>
+      <c r="C69" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>753</v>
+      </c>
+      <c r="C70" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>753</v>
+      </c>
+      <c r="C71" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>753</v>
+      </c>
+      <c r="C72" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>753</v>
+      </c>
+      <c r="C73" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>753</v>
+      </c>
+      <c r="C74" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>753</v>
+      </c>
+      <c r="C75" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>753</v>
+      </c>
+      <c r="C76" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>753</v>
+      </c>
+      <c r="C77" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>753</v>
+      </c>
+      <c r="C78" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>753</v>
+      </c>
+      <c r="C79" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>753</v>
+      </c>
+      <c r="C80" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>753</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>753</v>
+      </c>
+      <c r="C82" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>753</v>
+      </c>
+      <c r="C83" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>753</v>
+      </c>
+      <c r="C84" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>753</v>
+      </c>
+      <c r="C85" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>754</v>
+      </c>
+      <c r="C87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>754</v>
+      </c>
+      <c r="C88" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>754</v>
+      </c>
+      <c r="C89" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>754</v>
+      </c>
+      <c r="C90" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>754</v>
+      </c>
+      <c r="C91" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>754</v>
+      </c>
+      <c r="C92" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>754</v>
+      </c>
+      <c r="C93" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>754</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>754</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>754</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>754</v>
+      </c>
+      <c r="C97" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>754</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>754</v>
+      </c>
+      <c r="C99" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>754</v>
+      </c>
+      <c r="C100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>754</v>
+      </c>
+      <c r="C101" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>754</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>754</v>
+      </c>
+      <c r="C103" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>754</v>
+      </c>
+      <c r="C104" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>754</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>754</v>
+      </c>
+      <c r="C106" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>754</v>
+      </c>
+      <c r="C107" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>754</v>
+      </c>
+      <c r="C108" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>754</v>
+      </c>
+      <c r="C109" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>754</v>
+      </c>
+      <c r="C110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>754</v>
+      </c>
+      <c r="C111" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>754</v>
+      </c>
+      <c r="C112" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>754</v>
+      </c>
+      <c r="C113" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>754</v>
+      </c>
+      <c r="C114" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>754</v>
+      </c>
+      <c r="C115" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>754</v>
+      </c>
+      <c r="C116" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>754</v>
+      </c>
+      <c r="C117" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>754</v>
+      </c>
+      <c r="C118" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>754</v>
+      </c>
+      <c r="C119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>754</v>
+      </c>
+      <c r="C120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>754</v>
+      </c>
+      <c r="C121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>754</v>
+      </c>
+      <c r="C122" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>754</v>
+      </c>
+      <c r="C123" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>754</v>
+      </c>
+      <c r="C124" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>754</v>
+      </c>
+      <c r="C125" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>754</v>
+      </c>
+      <c r="C126" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>754</v>
+      </c>
+      <c r="C127" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>754</v>
+      </c>
+      <c r="C128" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>754</v>
+      </c>
+      <c r="C129" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>754</v>
+      </c>
+      <c r="C130" t="s">
+        <v>773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Transcription rules.xlsx
+++ b/Transcription rules.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Letter-based" sheetId="2" r:id="rId1"/>
     <sheet name="Sound-based" sheetId="1" r:id="rId2"/>
-    <sheet name="Symbols" sheetId="3" r:id="rId3"/>
+    <sheet name="Dictionary symbols" sheetId="3" r:id="rId3"/>
+    <sheet name="IPA symbols" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="800">
   <si>
     <t>[iː]</t>
   </si>
@@ -9042,9 +9043,6 @@
     <t>uː</t>
   </si>
   <si>
-    <t>ju, juə</t>
-  </si>
-  <si>
     <t>ouə</t>
   </si>
   <si>
@@ -9580,6 +9578,137 @@
   </si>
   <si>
     <t>zh</t>
+  </si>
+  <si>
+    <t>ɑ</t>
+  </si>
+  <si>
+    <t>ɛər</t>
+  </si>
+  <si>
+    <t>juə</t>
+  </si>
+  <si>
+    <t>aɪər</t>
+  </si>
+  <si>
+    <t>ɪər</t>
+  </si>
+  <si>
+    <t>ɪɔ</t>
+  </si>
+  <si>
+    <t>ɔəː</t>
+  </si>
+  <si>
+    <t>ɔh</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AE
+AE0
+AE1
+AE2</t>
+  </si>
+  <si>
+    <t>AW
+AW0
+AW1
+AW2</t>
+  </si>
+  <si>
+    <t>ao
+aa</t>
+  </si>
+  <si>
+    <t>AO
+AO0
+AO1
+AO2
+AA
+AA0
+AA1
+AA2</t>
+  </si>
+  <si>
+    <t>AH
+AH0
+AH1
+AH2</t>
+  </si>
+  <si>
+    <t>AY
+AY0
+AY1
+AY2</t>
+  </si>
+  <si>
+    <t>EH
+EH0
+EH1
+EH2</t>
+  </si>
+  <si>
+    <t>ER
+ER0
+ER1
+ER2</t>
+  </si>
+  <si>
+    <t>EY
+EY0
+EY1
+EY2</t>
+  </si>
+  <si>
+    <t>IH
+IH0
+IH1
+IH2</t>
+  </si>
+  <si>
+    <t>IY
+IY0
+IY1
+IY2</t>
+  </si>
+  <si>
+    <t>OW
+OW0
+OW1
+OW2</t>
+  </si>
+  <si>
+    <t>OY
+OY0
+OY1
+OY2</t>
+  </si>
+  <si>
+    <t>UW
+UW0
+UW1
+UW2</t>
+  </si>
+  <si>
+    <t>UH
+UH0
+UH1
+UH2</t>
+  </si>
+  <si>
+    <t>əu
+ou</t>
+  </si>
+  <si>
+    <t>ɔ
+o</t>
+  </si>
+  <si>
+    <t>ɔː
+oː</t>
   </si>
 </sst>
 </file>
@@ -9817,7 +9946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9907,6 +10036,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9919,37 +10054,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9961,12 +10090,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10244,8 +10393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L254"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10275,18 +10424,18 @@
         <v>118</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H2" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -10294,8 +10443,8 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="12" t="s">
         <v>121</v>
       </c>
@@ -10316,39 +10465,39 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="38" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+    <row r="5" spans="2:12" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="29"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="18" t="s">
         <v>131</v>
       </c>
@@ -10363,7 +10512,7 @@
       <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="1" t="s">
         <v>132</v>
       </c>
@@ -10385,14 +10534,14 @@
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="33" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="38" t="s">
         <v>134</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -10401,37 +10550,37 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="37"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="23" t="s">
         <v>139</v>
       </c>
@@ -10446,7 +10595,7 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10470,7 +10619,7 @@
       <c r="D14" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="1"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
@@ -10481,12 +10630,12 @@
         <v>119</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="1" t="s">
         <v>143</v>
       </c>
@@ -10526,7 +10675,7 @@
       <c r="D17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="35" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -10553,7 +10702,7 @@
       <c r="F18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="34"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
@@ -10575,7 +10724,7 @@
       <c r="D19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
@@ -10598,29 +10747,29 @@
         <v>118</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H20" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="35" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="15" t="s">
         <v>153</v>
       </c>
@@ -10638,14 +10787,14 @@
       <c r="F22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="38" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="14" t="s">
@@ -10653,19 +10802,19 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="41"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="15" t="s">
         <v>157</v>
       </c>
@@ -10683,7 +10832,7 @@
       <c r="F25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="35" t="s">
         <v>158</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -10692,8 +10841,8 @@
       <c r="J25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="42" t="s">
+      <c r="K25" s="38"/>
+      <c r="L25" s="41" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10707,14 +10856,14 @@
       <c r="F26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10728,7 +10877,7 @@
         <v>117</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>163</v>
@@ -10746,7 +10895,7 @@
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>578</v>
@@ -10754,7 +10903,7 @@
       <c r="D28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="35" t="s">
         <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10768,15 +10917,15 @@
     </row>
     <row r="29" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>579</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="H29" s="34"/>
+        <v>632</v>
+      </c>
+      <c r="H29" s="36"/>
       <c r="I29" s="1" t="s">
         <v>167</v>
       </c>
@@ -10790,18 +10939,18 @@
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>580</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>663</v>
-      </c>
-      <c r="H30" s="35"/>
+        <v>662</v>
+      </c>
+      <c r="H30" s="37"/>
       <c r="I30" s="1" t="s">
         <v>170</v>
       </c>
@@ -10813,7 +10962,7 @@
     </row>
     <row r="31" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>581</v>
@@ -10821,7 +10970,7 @@
       <c r="D31" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="35" t="s">
         <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -10837,7 +10986,7 @@
     </row>
     <row r="32" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>582</v>
@@ -10846,9 +10995,9 @@
         <v>173</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="H32" s="34"/>
+        <v>659</v>
+      </c>
+      <c r="H32" s="36"/>
       <c r="I32" s="1" t="s">
         <v>175</v>
       </c>
@@ -10862,7 +11011,7 @@
     </row>
     <row r="33" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>583</v>
@@ -10871,9 +11020,9 @@
         <v>117</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="H33" s="35"/>
+        <v>659</v>
+      </c>
+      <c r="H33" s="37"/>
       <c r="I33" s="1" t="s">
         <v>178</v>
       </c>
@@ -10887,10 +11036,10 @@
     </row>
     <row r="34" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>22</v>
@@ -10911,10 +11060,10 @@
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>115</v>
@@ -10935,7 +11084,7 @@
       <c r="D36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="35" t="s">
         <v>183</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -10959,7 +11108,7 @@
       <c r="D37" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H37" s="35"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
@@ -10983,7 +11132,7 @@
       <c r="D38" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="35" t="s">
         <v>188</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -11009,7 +11158,7 @@
       <c r="D39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="1" t="s">
         <v>67</v>
       </c>
@@ -11031,7 +11180,7 @@
       <c r="D40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="35"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="1" t="s">
         <v>85</v>
       </c>
@@ -11053,7 +11202,7 @@
       <c r="D41" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="35" t="s">
         <v>194</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -11077,7 +11226,7 @@
       <c r="D42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="34"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
         <v>57</v>
       </c>
@@ -11101,7 +11250,7 @@
       <c r="D43" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="1" t="s">
         <v>67</v>
       </c>
@@ -11125,7 +11274,7 @@
       <c r="D44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="34"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="1" t="s">
         <v>85</v>
       </c>
@@ -11149,7 +11298,7 @@
       <c r="D45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="1" t="s">
         <v>202</v>
       </c>
@@ -11173,25 +11322,25 @@
       <c r="D46" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="36"/>
+      <c r="K46" s="38"/>
       <c r="L46" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="40"/>
       <c r="L47" s="18" t="s">
         <v>208</v>
       </c>
@@ -11206,7 +11355,7 @@
       <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="35" t="s">
         <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -11230,7 +11379,7 @@
       <c r="D49" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="1" t="s">
         <v>162</v>
       </c>
@@ -11252,16 +11401,16 @@
       <c r="D50" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="38" t="s">
+      <c r="J50" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="38" t="s">
         <v>215</v>
       </c>
       <c r="L50" s="14" t="s">
@@ -11269,10 +11418,10 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="37"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="23" t="s">
         <v>217</v>
       </c>
@@ -11288,28 +11437,28 @@
         <v>7</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="H52" s="36"/>
+      <c r="I52" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="36"/>
-      <c r="L52" s="44" t="s">
+      <c r="K52" s="38"/>
+      <c r="L52" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
       <c r="J53" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="45"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="34"/>
     </row>
     <row r="54" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="28" t="s">
@@ -11324,7 +11473,7 @@
       <c r="E54" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="1" t="s">
         <v>2</v>
       </c>
@@ -11339,14 +11488,14 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H55" s="34"/>
-      <c r="I55" s="33" t="s">
+      <c r="H55" s="36"/>
+      <c r="I55" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="42" t="s">
+      <c r="J55" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="38" t="s">
         <v>225</v>
       </c>
       <c r="L55" s="14" t="s">
@@ -11354,10 +11503,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
       <c r="J56" s="43"/>
-      <c r="K56" s="37"/>
+      <c r="K56" s="40"/>
       <c r="L56" s="15" t="s">
         <v>227</v>
       </c>
@@ -11372,36 +11521,36 @@
       <c r="D57" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="33" t="s">
+      <c r="H57" s="36"/>
+      <c r="I57" s="35" t="s">
         <v>162</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K57" s="36"/>
+      <c r="K57" s="38"/>
       <c r="L57" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="41"/>
+      <c r="K58" s="39"/>
       <c r="L58" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
       <c r="J59" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K59" s="37"/>
+      <c r="K59" s="40"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11414,7 +11563,7 @@
       <c r="D60" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="35" t="s">
         <v>233</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -11438,7 +11587,7 @@
       <c r="D61" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="34"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="1" t="s">
         <v>2</v>
       </c>
@@ -11460,7 +11609,7 @@
       <c r="D62" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="34"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="1" t="s">
         <v>5</v>
       </c>
@@ -11483,9 +11632,9 @@
         <v>118</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H63" s="34"/>
+        <v>660</v>
+      </c>
+      <c r="H63" s="36"/>
       <c r="I63" s="1" t="s">
         <v>38</v>
       </c>
@@ -11505,9 +11654,9 @@
         <v>590</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="H64" s="35"/>
+        <v>633</v>
+      </c>
+      <c r="H64" s="37"/>
       <c r="I64" s="1" t="s">
         <v>42</v>
       </c>
@@ -11530,9 +11679,9 @@
         <v>117</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="H65" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="H65" s="35" t="s">
         <v>242</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -11557,9 +11706,9 @@
         <v>117</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="H66" s="34"/>
+        <v>659</v>
+      </c>
+      <c r="H66" s="36"/>
       <c r="I66" s="1" t="s">
         <v>40</v>
       </c>
@@ -11581,7 +11730,7 @@
       <c r="D67" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="35"/>
+      <c r="H67" s="37"/>
       <c r="I67" s="1" t="s">
         <v>42</v>
       </c>
@@ -11651,7 +11800,7 @@
       <c r="D70" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" s="35" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -11675,7 +11824,7 @@
       <c r="D71" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="34"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="1"/>
       <c r="J71" s="19"/>
       <c r="K71" s="20"/>
@@ -11691,7 +11840,7 @@
       <c r="D72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="34"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="1" t="s">
         <v>28</v>
       </c>
@@ -11716,9 +11865,9 @@
         <v>118</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H73" s="35"/>
+        <v>660</v>
+      </c>
+      <c r="H73" s="37"/>
       <c r="I73" s="1" t="s">
         <v>38</v>
       </c>
@@ -11740,7 +11889,7 @@
       <c r="D74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="33" t="s">
+      <c r="H74" s="35" t="s">
         <v>258</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -11765,9 +11914,9 @@
         <v>118</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H75" s="35"/>
+        <v>660</v>
+      </c>
+      <c r="H75" s="37"/>
       <c r="I75" s="1" t="s">
         <v>38</v>
       </c>
@@ -11811,7 +11960,7 @@
       <c r="D77" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H77" s="35" t="s">
         <v>262</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -11835,7 +11984,7 @@
       <c r="D78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="34"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="1" t="s">
         <v>2</v>
       </c>
@@ -11858,9 +12007,9 @@
         <v>7</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="H79" s="34"/>
+        <v>661</v>
+      </c>
+      <c r="H79" s="36"/>
       <c r="I79" s="1" t="s">
         <v>5</v>
       </c>
@@ -11882,7 +12031,7 @@
       <c r="D80" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="35"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="1" t="s">
         <v>26</v>
       </c>
@@ -11905,9 +12054,9 @@
         <v>117</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="H81" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="H81" s="35" t="s">
         <v>270</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -11931,7 +12080,7 @@
       <c r="D82" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H82" s="35"/>
+      <c r="H82" s="37"/>
       <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
@@ -11969,59 +12118,59 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="H84" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="H84" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="33" t="s">
+      <c r="I84" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="38" t="s">
+      <c r="J84" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="K84" s="36"/>
+      <c r="K84" s="38"/>
       <c r="L84" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="41"/>
+        <v>637</v>
+      </c>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="39"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="37"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="40"/>
       <c r="L86" s="15" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="87" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>593</v>
@@ -12029,7 +12178,7 @@
       <c r="D87" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="35"/>
+      <c r="H87" s="37"/>
       <c r="I87" s="1" t="s">
         <v>20</v>
       </c>
@@ -12046,15 +12195,15 @@
         <v>282</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="H88" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="H88" s="35" t="s">
         <v>282</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -12071,12 +12220,12 @@
         <v>282</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H89" s="35"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="1" t="s">
         <v>284</v>
       </c>
@@ -12091,15 +12240,15 @@
         <v>286</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D90" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="F90" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="F90" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="35" t="s">
         <v>286</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -12118,12 +12267,12 @@
         <v>286</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H91" s="35"/>
+      <c r="H91" s="37"/>
       <c r="I91" s="1" t="s">
         <v>284</v>
       </c>
@@ -12145,7 +12294,7 @@
       <c r="D92" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="35" t="s">
         <v>292</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -12169,7 +12318,7 @@
       <c r="D93" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="34"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="1"/>
       <c r="J93" s="19"/>
       <c r="K93" s="20"/>
@@ -12186,9 +12335,9 @@
         <v>118</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="H94" s="35"/>
+        <v>660</v>
+      </c>
+      <c r="H94" s="37"/>
       <c r="I94" s="1" t="s">
         <v>38</v>
       </c>
@@ -12210,7 +12359,7 @@
       <c r="D95" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="35" t="s">
         <v>104</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -12234,7 +12383,7 @@
       <c r="D96" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="35"/>
+      <c r="H96" s="37"/>
       <c r="I96" s="1" t="s">
         <v>102</v>
       </c>
@@ -12254,7 +12403,7 @@
       <c r="D97" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" s="35" t="s">
         <v>297</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -12278,7 +12427,7 @@
       <c r="D98" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="34"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="1" t="s">
         <v>57</v>
       </c>
@@ -12297,12 +12446,12 @@
         <v>297</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H99" s="34"/>
+      <c r="H99" s="36"/>
       <c r="I99" s="1" t="s">
         <v>111</v>
       </c>
@@ -12318,7 +12467,7 @@
     </row>
     <row r="100" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>385</v>
@@ -12326,7 +12475,7 @@
       <c r="D100" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="35"/>
+      <c r="H100" s="37"/>
       <c r="I100" s="1" t="s">
         <v>162</v>
       </c>
@@ -12346,7 +12495,7 @@
       <c r="D101" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="35" t="s">
         <v>302</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -12370,7 +12519,7 @@
       <c r="D102" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H102" s="34"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="1" t="s">
         <v>57</v>
       </c>
@@ -12385,12 +12534,12 @@
         <v>302</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D103" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="35"/>
+      <c r="H103" s="37"/>
       <c r="I103" s="1" t="s">
         <v>111</v>
       </c>
@@ -12412,7 +12561,7 @@
       <c r="D104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="35" t="s">
         <v>306</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -12438,7 +12587,7 @@
       <c r="D105" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H105" s="34"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="1" t="s">
         <v>309</v>
       </c>
@@ -12462,7 +12611,7 @@
       <c r="D106" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H106" s="35"/>
+      <c r="H106" s="37"/>
       <c r="I106" s="1" t="s">
         <v>162</v>
       </c>
@@ -12484,30 +12633,30 @@
       <c r="D107" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H107" s="33" t="s">
+      <c r="H107" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="I107" s="33" t="s">
+      <c r="I107" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J107" s="38" t="s">
+      <c r="J107" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="36"/>
+      <c r="K107" s="38"/>
       <c r="L107" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="34"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="37"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="40"/>
       <c r="L108" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="28" t="s">
         <v>314</v>
       </c>
@@ -12517,7 +12666,7 @@
       <c r="D109" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H109" s="35"/>
+      <c r="H109" s="37"/>
       <c r="I109" s="1" t="s">
         <v>162</v>
       </c>
@@ -12541,7 +12690,7 @@
       <c r="D110" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="H110" s="35" t="s">
         <v>320</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -12567,7 +12716,7 @@
       <c r="D111" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H111" s="35"/>
+      <c r="H111" s="37"/>
       <c r="I111" s="1" t="s">
         <v>140</v>
       </c>
@@ -12602,12 +12751,12 @@
         <v>45</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>641</v>
-      </c>
-      <c r="H113" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="H113" s="35" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -12629,9 +12778,9 @@
         <v>590</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="H114" s="35"/>
+        <v>633</v>
+      </c>
+      <c r="H114" s="37"/>
       <c r="I114" s="1" t="s">
         <v>42</v>
       </c>
@@ -12648,7 +12797,7 @@
         <v>329</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D115" s="28" t="s">
         <v>330</v>
@@ -12672,12 +12821,12 @@
         <v>332</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="35" t="s">
         <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -12701,7 +12850,7 @@
       <c r="D117" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="35"/>
+      <c r="H117" s="37"/>
       <c r="I117" s="1" t="s">
         <v>140</v>
       </c>
@@ -12736,12 +12885,12 @@
         <v>337</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D119" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="H119" s="35" t="s">
         <v>337</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -12758,37 +12907,37 @@
         <v>337</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="34"/>
-      <c r="I120" s="33" t="s">
+      <c r="H120" s="36"/>
+      <c r="I120" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="38" t="s">
+      <c r="J120" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="K120" s="36"/>
+      <c r="K120" s="38"/>
       <c r="L120" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="41"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="39"/>
       <c r="L121" s="22" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="40"/>
       <c r="L122" s="15" t="s">
         <v>344</v>
       </c>
@@ -12803,7 +12952,7 @@
       <c r="D123" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H123" s="35" t="s">
         <v>345</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -12822,12 +12971,12 @@
         <v>345</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D124" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="H124" s="35"/>
+      <c r="H124" s="37"/>
       <c r="I124" s="1" t="s">
         <v>347</v>
       </c>
@@ -12851,7 +13000,7 @@
       <c r="D125" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" s="35" t="s">
         <v>351</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -12873,7 +13022,7 @@
       <c r="D126" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="34"/>
+      <c r="H126" s="36"/>
       <c r="I126" s="1" t="s">
         <v>162</v>
       </c>
@@ -12888,12 +13037,12 @@
         <v>351</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H127" s="34"/>
+      <c r="H127" s="36"/>
       <c r="I127" s="1" t="s">
         <v>30</v>
       </c>
@@ -12910,12 +13059,12 @@
         <v>351</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D128" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="H128" s="35"/>
+      <c r="H128" s="37"/>
       <c r="I128" s="1" t="s">
         <v>355</v>
       </c>
@@ -12930,15 +13079,15 @@
         <v>357</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D129" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="F129" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="F129" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="35" t="s">
         <v>357</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -12960,7 +13109,7 @@
       <c r="D130" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="35"/>
+      <c r="H130" s="37"/>
       <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
@@ -12975,12 +13124,12 @@
         <v>359</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D131" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="H131" s="33" t="s">
+      <c r="H131" s="35" t="s">
         <v>359</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -13004,7 +13153,7 @@
       <c r="D132" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="35"/>
+      <c r="H132" s="37"/>
       <c r="I132" s="1" t="s">
         <v>42</v>
       </c>
@@ -13021,7 +13170,7 @@
         <v>363</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D133" s="28" t="s">
         <v>365</v>
@@ -13070,7 +13219,7 @@
       <c r="D135" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H135" s="33" t="s">
+      <c r="H135" s="35" t="s">
         <v>367</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -13084,7 +13233,7 @@
     </row>
     <row r="136" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>385</v>
@@ -13092,7 +13241,7 @@
       <c r="D136" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H136" s="35"/>
+      <c r="H136" s="37"/>
       <c r="I136" s="1" t="s">
         <v>162</v>
       </c>
@@ -13126,25 +13275,25 @@
       <c r="D138" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="I138" s="33" t="s">
+      <c r="I138" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J138" s="38" t="s">
+      <c r="J138" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="K138" s="36"/>
+      <c r="K138" s="38"/>
       <c r="L138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139" spans="2:12" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="34"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="37"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="40"/>
       <c r="L139" s="18" t="s">
         <v>373</v>
       </c>
@@ -13159,7 +13308,7 @@
       <c r="D140" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H140" s="35"/>
+      <c r="H140" s="37"/>
       <c r="I140" s="1" t="s">
         <v>162</v>
       </c>
@@ -13181,26 +13330,26 @@
       <c r="D141" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="I141" s="33" t="s">
+      <c r="I141" s="35" t="s">
         <v>69</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
     </row>
     <row r="142" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
       <c r="J142" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="K142" s="37"/>
-      <c r="L142" s="37"/>
+      <c r="K142" s="40"/>
+      <c r="L142" s="40"/>
     </row>
     <row r="143" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
@@ -13212,7 +13361,7 @@
       <c r="D143" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H143" s="33" t="s">
+      <c r="H143" s="35" t="s">
         <v>379</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -13228,7 +13377,7 @@
       <c r="C144" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H144" s="35"/>
+      <c r="H144" s="37"/>
       <c r="I144" s="1" t="s">
         <v>162</v>
       </c>
@@ -13245,10 +13394,10 @@
         <v>381</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>381</v>
@@ -13269,7 +13418,7 @@
         <v>385</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D146" s="28" t="s">
         <v>74</v>
@@ -13291,7 +13440,7 @@
         <v>387</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>76</v>
@@ -13313,12 +13462,12 @@
         <v>14</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D148" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H148" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -13335,20 +13484,20 @@
         <v>14</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H149" s="34"/>
+      <c r="H149" s="36"/>
       <c r="I149" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="J149" s="42" t="s">
+      <c r="J149" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="K149" s="36"/>
-      <c r="L149" s="44" t="s">
+      <c r="K149" s="38"/>
+      <c r="L149" s="33" t="s">
         <v>393</v>
       </c>
     </row>
@@ -13362,41 +13511,41 @@
       <c r="D150" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H150" s="34"/>
+      <c r="H150" s="36"/>
       <c r="I150" s="31"/>
-      <c r="J150" s="46"/>
-      <c r="K150" s="41"/>
-      <c r="L150" s="47"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="46"/>
     </row>
     <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H151" s="35"/>
+      <c r="H151" s="37"/>
       <c r="I151" s="26" t="s">
         <v>391</v>
       </c>
       <c r="J151" s="43"/>
-      <c r="K151" s="37"/>
-      <c r="L151" s="45"/>
+      <c r="K151" s="40"/>
+      <c r="L151" s="34"/>
     </row>
     <row r="152" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B152" s="28" t="s">
         <v>394</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H152" s="33" t="s">
+      <c r="H152" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="I152" s="33" t="s">
+      <c r="I152" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="J152" s="42" t="s">
+      <c r="J152" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="K152" s="36"/>
+      <c r="K152" s="38"/>
       <c r="L152" s="14" t="s">
         <v>396</v>
       </c>
@@ -13411,10 +13560,10 @@
       <c r="D153" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
       <c r="J153" s="43"/>
-      <c r="K153" s="37"/>
+      <c r="K153" s="40"/>
       <c r="L153" s="23" t="s">
         <v>397</v>
       </c>
@@ -13424,7 +13573,7 @@
         <v>398</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D154" s="28" t="s">
         <v>16</v>
@@ -13445,7 +13594,7 @@
     </row>
     <row r="155" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C155" s="28" t="s">
         <v>587</v>
@@ -13469,42 +13618,42 @@
     </row>
     <row r="156" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B156" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D156" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H156" s="33" t="s">
+      <c r="H156" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="I156" s="33" t="s">
+      <c r="I156" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J156" s="38" t="s">
+      <c r="J156" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="K156" s="36"/>
+      <c r="K156" s="38"/>
       <c r="L156" s="14" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="157" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="C157" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="D157" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="D157" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="37"/>
+      <c r="H157" s="37"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="40"/>
       <c r="L157" s="18" t="s">
         <v>406</v>
       </c>
@@ -13519,7 +13668,7 @@
       <c r="D158" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H158" s="33" t="s">
+      <c r="H158" s="35" t="s">
         <v>407</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -13543,7 +13692,7 @@
       <c r="D159" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H159" s="34"/>
+      <c r="H159" s="36"/>
       <c r="I159" s="1"/>
       <c r="J159" s="19"/>
       <c r="K159" s="20"/>
@@ -13554,12 +13703,12 @@
         <v>407</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D160" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="35"/>
+      <c r="H160" s="37"/>
       <c r="I160" s="1" t="s">
         <v>21</v>
       </c>
@@ -13573,15 +13722,15 @@
     </row>
     <row r="161" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D161" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="33" t="s">
+      <c r="H161" s="35" t="s">
         <v>411</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -13597,15 +13746,15 @@
     </row>
     <row r="162" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D162" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H162" s="35"/>
+      <c r="H162" s="37"/>
       <c r="I162" s="1" t="s">
         <v>51</v>
       </c>
@@ -13622,12 +13771,12 @@
         <v>17</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H163" s="33" t="s">
+      <c r="H163" s="35" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -13646,7 +13795,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>41</v>
@@ -13654,7 +13803,7 @@
       <c r="F164" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H164" s="35"/>
+      <c r="H164" s="37"/>
       <c r="I164" s="1" t="s">
         <v>23</v>
       </c>
@@ -13669,7 +13818,7 @@
         <v>417</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>16</v>
@@ -13693,12 +13842,12 @@
         <v>419</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H166" s="33" t="s">
+      <c r="H166" s="35" t="s">
         <v>419</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -13717,43 +13866,43 @@
         <v>419</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H167" s="34"/>
+      <c r="H167" s="36"/>
       <c r="I167" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J167" s="38" t="s">
+      <c r="J167" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K167" s="36"/>
-      <c r="L167" s="44" t="s">
+      <c r="K167" s="38"/>
+      <c r="L167" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="168" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H168" s="34"/>
+      <c r="H168" s="36"/>
       <c r="I168" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="J168" s="40"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="45"/>
+      <c r="J168" s="45"/>
+      <c r="K168" s="40"/>
+      <c r="L168" s="34"/>
     </row>
     <row r="169" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
         <v>419</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H169" s="34"/>
+      <c r="H169" s="36"/>
       <c r="I169" s="1" t="s">
         <v>32</v>
       </c>
@@ -13775,7 +13924,7 @@
       <c r="D170" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="35"/>
+      <c r="H170" s="37"/>
       <c r="I170" s="1" t="s">
         <v>18</v>
       </c>
@@ -13792,12 +13941,12 @@
         <v>426</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H171" s="33" t="s">
+      <c r="H171" s="35" t="s">
         <v>426</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -13814,12 +13963,12 @@
         <v>426</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="H172" s="34"/>
+      <c r="H172" s="36"/>
       <c r="I172" s="1" t="s">
         <v>427</v>
       </c>
@@ -13836,12 +13985,12 @@
         <v>426</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H173" s="35"/>
+      <c r="H173" s="37"/>
       <c r="I173" s="1" t="s">
         <v>429</v>
       </c>
@@ -13860,12 +14009,12 @@
         <v>433</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H174" s="33" t="s">
+      <c r="H174" s="35" t="s">
         <v>433</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -13884,12 +14033,12 @@
         <v>433</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="34"/>
+      <c r="H175" s="36"/>
       <c r="I175" s="1" t="s">
         <v>34</v>
       </c>
@@ -13906,15 +14055,15 @@
         <v>433</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D176" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F176" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="H176" s="35"/>
+        <v>659</v>
+      </c>
+      <c r="H176" s="37"/>
       <c r="I176" s="1" t="s">
         <v>358</v>
       </c>
@@ -13936,7 +14085,7 @@
       <c r="D177" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H177" s="33" t="s">
+      <c r="H177" s="35" t="s">
         <v>439</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -13955,12 +14104,12 @@
         <v>439</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="34"/>
+      <c r="H178" s="36"/>
       <c r="I178" s="1" t="s">
         <v>32</v>
       </c>
@@ -13982,7 +14131,7 @@
       <c r="D179" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H179" s="35"/>
+      <c r="H179" s="37"/>
       <c r="I179" s="1" t="s">
         <v>15</v>
       </c>
@@ -13997,12 +14146,12 @@
         <v>37</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="33" t="s">
+      <c r="H180" s="35" t="s">
         <v>37</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -14021,12 +14170,12 @@
         <v>37</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="H181" s="35"/>
+      <c r="H181" s="37"/>
       <c r="I181" s="1" t="s">
         <v>284</v>
       </c>
@@ -14048,7 +14197,7 @@
       <c r="D182" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H182" s="33" t="s">
+      <c r="H182" s="35" t="s">
         <v>444</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -14070,26 +14219,26 @@
       <c r="D183" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H183" s="34"/>
-      <c r="I183" s="33" t="s">
+      <c r="H183" s="36"/>
+      <c r="I183" s="35" t="s">
         <v>162</v>
       </c>
       <c r="J183" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K183" s="36" t="s">
+      <c r="K183" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="L183" s="36"/>
+      <c r="L183" s="38"/>
     </row>
     <row r="184" spans="2:12" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
       <c r="J184" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="K184" s="37"/>
-      <c r="L184" s="37"/>
+      <c r="K184" s="40"/>
+      <c r="L184" s="40"/>
     </row>
     <row r="185" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
@@ -14101,7 +14250,7 @@
       <c r="D185" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H185" s="33" t="s">
+      <c r="H185" s="35" t="s">
         <v>448</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -14127,7 +14276,7 @@
       <c r="D186" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H186" s="35"/>
+      <c r="H186" s="37"/>
       <c r="I186" s="1" t="s">
         <v>451</v>
       </c>
@@ -14173,7 +14322,7 @@
       <c r="D188" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H188" s="33" t="s">
+      <c r="H188" s="35" t="s">
         <v>455</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -14192,12 +14341,12 @@
         <v>455</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="H189" s="35"/>
+        <v>654</v>
+      </c>
+      <c r="H189" s="37"/>
       <c r="I189" s="1" t="s">
         <v>457</v>
       </c>
@@ -14219,7 +14368,7 @@
       <c r="D190" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H190" s="33" t="s">
+      <c r="H190" s="35" t="s">
         <v>460</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -14241,7 +14390,7 @@
       <c r="D191" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H191" s="35"/>
+      <c r="H191" s="37"/>
       <c r="I191" s="1" t="s">
         <v>162</v>
       </c>
@@ -14263,7 +14412,7 @@
       <c r="D192" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H192" s="33" t="s">
+      <c r="H192" s="35" t="s">
         <v>463</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -14285,23 +14434,23 @@
       <c r="D193" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H193" s="34"/>
-      <c r="I193" s="33" t="s">
+      <c r="H193" s="36"/>
+      <c r="I193" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J193" s="42" t="s">
+      <c r="J193" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="K193" s="36"/>
+      <c r="K193" s="38"/>
       <c r="L193" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="194" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H194" s="34"/>
-      <c r="I194" s="35"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="37"/>
       <c r="J194" s="43"/>
-      <c r="K194" s="37"/>
+      <c r="K194" s="40"/>
       <c r="L194" s="15" t="s">
         <v>466</v>
       </c>
@@ -14316,7 +14465,7 @@
       <c r="D195" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="34"/>
+      <c r="H195" s="36"/>
       <c r="I195" s="1" t="s">
         <v>85</v>
       </c>
@@ -14335,12 +14484,12 @@
         <v>463</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D196" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H196" s="34"/>
+      <c r="H196" s="36"/>
       <c r="I196" s="1" t="s">
         <v>111</v>
       </c>
@@ -14364,7 +14513,7 @@
       <c r="D197" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H197" s="35"/>
+      <c r="H197" s="37"/>
       <c r="I197" s="1" t="s">
         <v>162</v>
       </c>
@@ -14386,7 +14535,7 @@
       <c r="D198" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H198" s="33" t="s">
+      <c r="H198" s="35" t="s">
         <v>472</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -14410,7 +14559,7 @@
       <c r="D199" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="H199" s="35"/>
+      <c r="H199" s="37"/>
       <c r="I199" s="1" t="s">
         <v>474</v>
       </c>
@@ -14434,7 +14583,7 @@
       <c r="D200" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H200" s="33" t="s">
+      <c r="H200" s="35" t="s">
         <v>478</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -14456,7 +14605,7 @@
       <c r="D201" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H201" s="35"/>
+      <c r="H201" s="37"/>
       <c r="I201" s="1" t="s">
         <v>108</v>
       </c>
@@ -14478,7 +14627,7 @@
       <c r="D202" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H202" s="33" t="s">
+      <c r="H202" s="35" t="s">
         <v>481</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -14500,7 +14649,7 @@
       <c r="D203" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H203" s="34"/>
+      <c r="H203" s="36"/>
       <c r="I203" s="1" t="s">
         <v>85</v>
       </c>
@@ -14520,7 +14669,7 @@
       <c r="D204" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H204" s="34"/>
+      <c r="H204" s="36"/>
       <c r="I204" s="1" t="s">
         <v>94</v>
       </c>
@@ -14540,7 +14689,7 @@
       <c r="D205" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H205" s="35"/>
+      <c r="H205" s="37"/>
       <c r="I205" s="1" t="s">
         <v>162</v>
       </c>
@@ -14584,7 +14733,7 @@
       <c r="D207" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H207" s="33" t="s">
+      <c r="H207" s="35" t="s">
         <v>486</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -14601,28 +14750,28 @@
         <v>486</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="H208" s="34"/>
-      <c r="I208" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="H208" s="36"/>
+      <c r="I208" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J208" s="38" t="s">
+      <c r="J208" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="K208" s="36"/>
+      <c r="K208" s="38"/>
       <c r="L208" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="209" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H209" s="34"/>
-      <c r="I209" s="35"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="37"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="37"/>
+      <c r="J209" s="45"/>
+      <c r="K209" s="40"/>
       <c r="L209" s="23" t="s">
         <v>489</v>
       </c>
@@ -14632,37 +14781,37 @@
         <v>486</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="H210" s="34"/>
-      <c r="I210" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="H210" s="36"/>
+      <c r="I210" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="J210" s="42" t="s">
+      <c r="J210" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="K210" s="36"/>
+      <c r="K210" s="38"/>
       <c r="L210" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H211" s="34"/>
-      <c r="I211" s="34"/>
-      <c r="J211" s="46"/>
-      <c r="K211" s="41"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="36"/>
+      <c r="J211" s="42"/>
+      <c r="K211" s="39"/>
       <c r="L211" s="17" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="212" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H212" s="34"/>
-      <c r="I212" s="35"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="37"/>
       <c r="J212" s="43"/>
-      <c r="K212" s="37"/>
+      <c r="K212" s="40"/>
       <c r="L212" s="23" t="s">
         <v>493</v>
       </c>
@@ -14677,7 +14826,7 @@
       <c r="D213" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="H213" s="35"/>
+      <c r="H213" s="37"/>
       <c r="I213" s="1" t="s">
         <v>494</v>
       </c>
@@ -14744,15 +14893,15 @@
         <v>27</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D216" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="F216" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="F216" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="H216" s="33" t="s">
+      <c r="H216" s="35" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -14776,7 +14925,7 @@
       <c r="D217" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H217" s="34"/>
+      <c r="H217" s="36"/>
       <c r="I217" s="1" t="s">
         <v>408</v>
       </c>
@@ -14798,7 +14947,7 @@
       <c r="D218" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H218" s="34"/>
+      <c r="H218" s="36"/>
       <c r="I218" s="1"/>
       <c r="J218" s="19"/>
       <c r="K218" s="20"/>
@@ -14809,12 +14958,12 @@
         <v>27</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D219" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H219" s="34"/>
+      <c r="H219" s="36"/>
       <c r="I219" s="1" t="s">
         <v>21</v>
       </c>
@@ -14836,7 +14985,7 @@
       <c r="D220" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H220" s="34"/>
+      <c r="H220" s="36"/>
       <c r="I220" s="1" t="s">
         <v>26</v>
       </c>
@@ -14860,7 +15009,7 @@
       <c r="D221" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H221" s="34"/>
+      <c r="H221" s="36"/>
       <c r="I221" s="1" t="s">
         <v>162</v>
       </c>
@@ -14884,7 +15033,7 @@
       <c r="D222" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="35"/>
+      <c r="H222" s="37"/>
       <c r="I222" s="1" t="s">
         <v>2</v>
       </c>
@@ -14908,7 +15057,7 @@
       <c r="D223" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H223" s="33" t="s">
+      <c r="H223" s="35" t="s">
         <v>514</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -14923,7 +15072,7 @@
       </c>
     </row>
     <row r="224" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="34"/>
+      <c r="H224" s="36"/>
       <c r="I224" s="1" t="s">
         <v>516</v>
       </c>
@@ -14934,7 +15083,7 @@
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="34"/>
+      <c r="H225" s="36"/>
       <c r="I225" s="1" t="s">
         <v>518</v>
       </c>
@@ -14954,7 +15103,7 @@
       <c r="D226" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H226" s="35"/>
+      <c r="H226" s="37"/>
       <c r="I226" s="1" t="s">
         <v>162</v>
       </c>
@@ -14976,7 +15125,7 @@
       <c r="D227" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="33" t="s">
+      <c r="H227" s="35" t="s">
         <v>521</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -14991,7 +15140,7 @@
       </c>
     </row>
     <row r="228" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H228" s="34"/>
+      <c r="H228" s="36"/>
       <c r="I228" s="1" t="s">
         <v>516</v>
       </c>
@@ -15002,7 +15151,7 @@
       <c r="L228" s="20"/>
     </row>
     <row r="229" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="35"/>
+      <c r="H229" s="37"/>
       <c r="I229" s="1" t="s">
         <v>518</v>
       </c>
@@ -15023,7 +15172,7 @@
         <v>117</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>523</v>
@@ -15049,7 +15198,7 @@
       <c r="D231" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H231" s="33" t="s">
+      <c r="H231" s="35" t="s">
         <v>526</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -15065,7 +15214,7 @@
       <c r="C232" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H232" s="35"/>
+      <c r="H232" s="37"/>
       <c r="I232" s="1" t="s">
         <v>162</v>
       </c>
@@ -15083,49 +15232,49 @@
         <v>527</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="H233" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="H233" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="I233" s="33" t="s">
+      <c r="I233" s="35" t="s">
         <v>105</v>
       </c>
       <c r="J233" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="K233" s="36"/>
+      <c r="K233" s="38"/>
       <c r="L233" s="14" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H234" s="34"/>
-      <c r="I234" s="34"/>
+    <row r="234" spans="2:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H234" s="36"/>
+      <c r="I234" s="36"/>
       <c r="J234" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="K234" s="41"/>
+      <c r="K234" s="39"/>
       <c r="L234" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
+    <row r="235" spans="2:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H235" s="36"/>
+      <c r="I235" s="36"/>
       <c r="J235" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="K235" s="41"/>
+      <c r="K235" s="39"/>
       <c r="L235" s="22" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="236" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H236" s="34"/>
-      <c r="I236" s="35"/>
+      <c r="H236" s="36"/>
+      <c r="I236" s="37"/>
       <c r="J236" s="18"/>
-      <c r="K236" s="37"/>
+      <c r="K236" s="40"/>
       <c r="L236" s="15" t="s">
         <v>534</v>
       </c>
@@ -15140,7 +15289,7 @@
       <c r="D237" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H237" s="34"/>
+      <c r="H237" s="36"/>
       <c r="I237" s="1" t="s">
         <v>102</v>
       </c>
@@ -15162,7 +15311,7 @@
       <c r="D238" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H238" s="35"/>
+      <c r="H238" s="37"/>
       <c r="I238" s="1" t="s">
         <v>162</v>
       </c>
@@ -15179,10 +15328,10 @@
         <v>538</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>538</v>
@@ -15203,12 +15352,12 @@
         <v>542</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D240" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="H240" s="33" t="s">
+      <c r="H240" s="35" t="s">
         <v>542</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -15227,12 +15376,12 @@
         <v>542</v>
       </c>
       <c r="C241" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D241" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H241" s="34"/>
+      <c r="H241" s="36"/>
       <c r="I241" s="1" t="s">
         <v>546</v>
       </c>
@@ -15254,7 +15403,7 @@
       <c r="D242" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H242" s="35"/>
+      <c r="H242" s="37"/>
       <c r="I242" s="1" t="s">
         <v>108</v>
       </c>
@@ -15276,7 +15425,7 @@
       <c r="D243" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H243" s="33" t="s">
+      <c r="H243" s="35" t="s">
         <v>550</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -15300,7 +15449,7 @@
       <c r="D244" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="34"/>
+      <c r="H244" s="36"/>
       <c r="I244" s="1" t="s">
         <v>28</v>
       </c>
@@ -15320,45 +15469,45 @@
         <v>366</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>666</v>
-      </c>
-      <c r="H245" s="34"/>
-      <c r="I245" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="H245" s="36"/>
+      <c r="I245" s="35" t="s">
         <v>65</v>
       </c>
       <c r="J245" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="K245" s="36"/>
-      <c r="L245" s="42" t="s">
+      <c r="K245" s="38"/>
+      <c r="L245" s="41" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="246" spans="2:12" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="H246" s="34"/>
-      <c r="I246" s="34"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="36"/>
       <c r="J246" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="K246" s="41"/>
-      <c r="L246" s="46"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="42"/>
     </row>
     <row r="247" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="H247" s="34"/>
-      <c r="I247" s="34"/>
+      <c r="H247" s="36"/>
+      <c r="I247" s="36"/>
       <c r="J247" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="K247" s="41"/>
-      <c r="L247" s="46"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="42"/>
     </row>
     <row r="248" spans="2:12" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H248" s="35"/>
-      <c r="I248" s="35"/>
+      <c r="H248" s="37"/>
+      <c r="I248" s="37"/>
       <c r="J248" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="K248" s="37"/>
+      <c r="K248" s="40"/>
       <c r="L248" s="43"/>
     </row>
     <row r="249" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15366,13 +15515,13 @@
         <v>558</v>
       </c>
       <c r="C249" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D249" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="F249" s="27" t="s">
         <v>644</v>
-      </c>
-      <c r="F249" s="27" t="s">
-        <v>645</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>558</v>
@@ -15398,7 +15547,7 @@
       <c r="D250" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H250" s="33" t="s">
+      <c r="H250" s="35" t="s">
         <v>560</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -15420,111 +15569,146 @@
       <c r="D251" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H251" s="34"/>
-      <c r="I251" s="33" t="s">
+      <c r="H251" s="36"/>
+      <c r="I251" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="J251" s="38" t="s">
+      <c r="J251" s="44" t="s">
         <v>100</v>
       </c>
       <c r="K251" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L251" s="44" t="s">
+      <c r="L251" s="33" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="252" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H252" s="34"/>
-      <c r="I252" s="35"/>
-      <c r="J252" s="40"/>
+      <c r="H252" s="36"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="45"/>
       <c r="K252" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="L252" s="45"/>
+      <c r="L252" s="34"/>
     </row>
     <row r="253" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B253" s="28" t="s">
         <v>560</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D253" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H253" s="34"/>
-      <c r="I253" s="33" t="s">
+      <c r="H253" s="36"/>
+      <c r="I253" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="J253" s="38" t="s">
+      <c r="J253" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K253" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L253" s="44" t="s">
+      <c r="L253" s="33" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="254" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H254" s="35"/>
-      <c r="I254" s="35"/>
-      <c r="J254" s="40"/>
+      <c r="H254" s="37"/>
+      <c r="I254" s="37"/>
+      <c r="J254" s="45"/>
       <c r="K254" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="45"/>
+      <c r="L254" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="I245:I248"/>
-    <mergeCell ref="K245:K248"/>
-    <mergeCell ref="L245:L248"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H238"/>
-    <mergeCell ref="I233:I236"/>
-    <mergeCell ref="K233:K236"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="I210:I212"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="K210:K212"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="H207:H213"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H179"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="H182:H184"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H166:H170"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
     <mergeCell ref="L167:L168"/>
     <mergeCell ref="H171:H173"/>
     <mergeCell ref="H156:H157"/>
@@ -15541,88 +15725,53 @@
     <mergeCell ref="I152:I153"/>
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="K152:K153"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="H2:H15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H179"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="H182:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H166:H170"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="H207:H213"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H238"/>
+    <mergeCell ref="I233:I236"/>
+    <mergeCell ref="K233:K236"/>
+    <mergeCell ref="H240:H242"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="I210:I212"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="K210:K212"/>
+    <mergeCell ref="H216:H222"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="I245:I248"/>
+    <mergeCell ref="K245:K248"/>
+    <mergeCell ref="L245:L248"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="J253:J254"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Слог" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BB%D0%BE%D0%B3"/>
@@ -15676,7 +15825,7 @@
   <dimension ref="D1:J49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16410,743 +16559,743 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C37" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C46" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C48" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C49" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C51" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C54" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C56" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C57" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C58" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C67" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C69" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C70" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C71" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C73" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C75" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C76" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C77" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C78" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C79" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C80" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C81" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C82" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C83" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C85" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>753</v>
+      </c>
+      <c r="C87" t="s">
         <v>754</v>
-      </c>
-      <c r="C87" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C88" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C90" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C91" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C92" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C93" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -17154,7 +17303,7 @@
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C95" t="s">
         <v>194</v>
@@ -17162,7 +17311,7 @@
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C96" t="s">
         <v>209</v>
@@ -17170,15 +17319,15 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C97" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C98" t="s">
         <v>233</v>
@@ -17186,15 +17335,15 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C99" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C100" t="s">
         <v>270</v>
@@ -17202,7 +17351,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C101" t="s">
         <v>292</v>
@@ -17210,7 +17359,7 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -17218,7 +17367,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C103" t="s">
         <v>297</v>
@@ -17226,15 +17375,15 @@
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C104" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C105" t="s">
         <v>45</v>
@@ -17242,31 +17391,31 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C106" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C107" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C109" t="s">
         <v>367</v>
@@ -17274,7 +17423,7 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C110" t="s">
         <v>370</v>
@@ -17282,7 +17431,7 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C111" t="s">
         <v>379</v>
@@ -17290,7 +17439,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C112" t="s">
         <v>385</v>
@@ -17298,7 +17447,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C113" t="s">
         <v>387</v>
@@ -17306,15 +17455,15 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C114" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C115" t="s">
         <v>439</v>
@@ -17322,15 +17471,15 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C116" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C117" t="s">
         <v>444</v>
@@ -17338,7 +17487,7 @@
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C118" t="s">
         <v>460</v>
@@ -17346,7 +17495,7 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C119" t="s">
         <v>463</v>
@@ -17354,7 +17503,7 @@
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C120" t="s">
         <v>472</v>
@@ -17362,7 +17511,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C121" t="s">
         <v>481</v>
@@ -17370,7 +17519,7 @@
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C122" t="s">
         <v>486</v>
@@ -17378,31 +17527,31 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C123" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C124" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C125" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C126" t="s">
         <v>526</v>
@@ -17410,7 +17559,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C127" t="s">
         <v>527</v>
@@ -17418,7 +17567,7 @@
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C128" t="s">
         <v>550</v>
@@ -17426,7 +17575,7 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C129" t="s">
         <v>560</v>
@@ -17434,13 +17583,642 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C130" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="27"/>
+    <col min="4" max="4" width="3.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>785</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>782</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>783</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>798</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>719</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>791</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>749</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>720</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>721</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>723</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D36" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>734</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D43" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>796</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D44" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D46" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>786</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="52" t="s">
+        <v>527</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="52" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>751</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>738</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="52" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="27"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
+  </sheetData>
+  <sortState ref="D3:F55">
+    <sortCondition ref="D3"/>
+  </sortState>
+  <conditionalFormatting sqref="E24:F24">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Transcription rules.xlsx
+++ b/Transcription rules.xlsx
@@ -10036,11 +10036,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10054,31 +10057,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10089,15 +10098,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10393,8 +10393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L254"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10426,16 +10426,16 @@
       <c r="F2" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="45" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -10443,12 +10443,12 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="15" t="s">
         <v>124</v>
       </c>
@@ -10465,14 +10465,14 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -10480,20 +10480,20 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="29"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="18" t="s">
         <v>127</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="1" t="s">
         <v>132</v>
       </c>
@@ -10534,14 +10534,14 @@
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="39" t="s">
         <v>134</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -10550,36 +10550,36 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="39"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="45"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="40"/>
       <c r="L12" s="23" t="s">
         <v>139</v>
@@ -10595,7 +10595,7 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10619,7 +10619,7 @@
       <c r="D14" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="1"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
@@ -10635,7 +10635,7 @@
       <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="1" t="s">
         <v>143</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="D17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="36" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -10702,7 +10702,7 @@
       <c r="F18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="D19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="37"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
@@ -10749,23 +10749,23 @@
       <c r="F20" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="38"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="12" t="s">
         <v>121</v>
       </c>
@@ -10787,14 +10787,14 @@
       <c r="F22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="35" t="s">
+      <c r="H22" s="37"/>
+      <c r="I22" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="39" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="14" t="s">
@@ -10802,18 +10802,18 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="45"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="40"/>
       <c r="L24" s="15" t="s">
         <v>157</v>
@@ -10832,7 +10832,7 @@
       <c r="F25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="36" t="s">
         <v>158</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -10841,8 +10841,8 @@
       <c r="J25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="41" t="s">
+      <c r="K25" s="39"/>
+      <c r="L25" s="45" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10856,7 +10856,7 @@
       <c r="F26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="1" t="s">
         <v>162</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>160</v>
       </c>
       <c r="K26" s="40"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28" t="s">
@@ -10903,7 +10903,7 @@
       <c r="D28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="36" t="s">
         <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10925,7 +10925,7 @@
       <c r="D29" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="1" t="s">
         <v>167</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="F30" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="1" t="s">
         <v>170</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="D31" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="36" t="s">
         <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -10997,7 +10997,7 @@
       <c r="F32" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="1" t="s">
         <v>175</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="F33" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="1" t="s">
         <v>178</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="D36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="36" t="s">
         <v>183</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -11108,7 +11108,7 @@
       <c r="D37" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="D38" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="36" t="s">
         <v>188</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -11158,7 +11158,7 @@
       <c r="D39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="1" t="s">
         <v>67</v>
       </c>
@@ -11180,7 +11180,7 @@
       <c r="D40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="37"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="1" t="s">
         <v>85</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="D41" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="36" t="s">
         <v>194</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -11226,7 +11226,7 @@
       <c r="D42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="1" t="s">
         <v>57</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="D43" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="1" t="s">
         <v>67</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="D44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="36"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="1" t="s">
         <v>85</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="D45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="37"/>
+      <c r="H45" s="38"/>
       <c r="I45" s="1" t="s">
         <v>202</v>
       </c>
@@ -11322,24 +11322,24 @@
       <c r="D46" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="39"/>
       <c r="L46" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="45"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="40"/>
       <c r="L47" s="18" t="s">
         <v>208</v>
@@ -11355,7 +11355,7 @@
       <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="36" t="s">
         <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -11379,7 +11379,7 @@
       <c r="D49" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H49" s="37"/>
+      <c r="H49" s="38"/>
       <c r="I49" s="1" t="s">
         <v>162</v>
       </c>
@@ -11401,16 +11401,16 @@
       <c r="D50" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="39" t="s">
         <v>215</v>
       </c>
       <c r="L50" s="14" t="s">
@@ -11418,9 +11418,9 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="45"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="43"/>
       <c r="K51" s="40"/>
       <c r="L51" s="23" t="s">
         <v>217</v>
@@ -11439,26 +11439,26 @@
       <c r="F52" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="36" t="s">
         <v>218</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="38"/>
-      <c r="L52" s="33" t="s">
+      <c r="K52" s="39"/>
+      <c r="L52" s="47" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="12" t="s">
         <v>220</v>
       </c>
       <c r="K53" s="40"/>
-      <c r="L53" s="34"/>
+      <c r="L53" s="48"/>
     </row>
     <row r="54" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="28" t="s">
@@ -11473,7 +11473,7 @@
       <c r="E54" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="1" t="s">
         <v>2</v>
       </c>
@@ -11488,14 +11488,14 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H55" s="36"/>
-      <c r="I55" s="35" t="s">
+      <c r="H55" s="37"/>
+      <c r="I55" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="41" t="s">
+      <c r="J55" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="38" t="s">
+      <c r="K55" s="39" t="s">
         <v>225</v>
       </c>
       <c r="L55" s="14" t="s">
@@ -11503,9 +11503,9 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="43"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="46"/>
       <c r="K56" s="40"/>
       <c r="L56" s="15" t="s">
         <v>227</v>
@@ -11521,32 +11521,32 @@
       <c r="D57" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="35" t="s">
+      <c r="H57" s="37"/>
+      <c r="I57" s="36" t="s">
         <v>162</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K57" s="38"/>
+      <c r="K57" s="39"/>
       <c r="L57" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
       <c r="J58" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="39"/>
+      <c r="K58" s="44"/>
       <c r="L58" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
       <c r="J59" s="18" t="s">
         <v>230</v>
       </c>
@@ -11563,7 +11563,7 @@
       <c r="D60" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="36" t="s">
         <v>233</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -11587,7 +11587,7 @@
       <c r="D61" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="36"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="1" t="s">
         <v>2</v>
       </c>
@@ -11609,7 +11609,7 @@
       <c r="D62" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="36"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="1" t="s">
         <v>5</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="F63" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H63" s="36"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="1" t="s">
         <v>38</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="D64" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H64" s="37"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="1" t="s">
         <v>42</v>
       </c>
@@ -11681,7 +11681,7 @@
       <c r="F65" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H65" s="36" t="s">
         <v>242</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -11708,7 +11708,7 @@
       <c r="F66" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H66" s="36"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="1" t="s">
         <v>40</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="D67" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="37"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="1" t="s">
         <v>42</v>
       </c>
@@ -11800,7 +11800,7 @@
       <c r="D70" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="35" t="s">
+      <c r="H70" s="36" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -11824,7 +11824,7 @@
       <c r="D71" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="37"/>
       <c r="I71" s="1"/>
       <c r="J71" s="19"/>
       <c r="K71" s="20"/>
@@ -11840,7 +11840,7 @@
       <c r="D72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="1" t="s">
         <v>28</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="F73" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H73" s="37"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="1" t="s">
         <v>38</v>
       </c>
@@ -11889,7 +11889,7 @@
       <c r="D74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H74" s="36" t="s">
         <v>258</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -11916,7 +11916,7 @@
       <c r="F75" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H75" s="37"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="1" t="s">
         <v>38</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="D77" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="H77" s="36" t="s">
         <v>262</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -11984,7 +11984,7 @@
       <c r="D78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="37"/>
       <c r="I78" s="1" t="s">
         <v>2</v>
       </c>
@@ -12009,7 +12009,7 @@
       <c r="F79" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="37"/>
       <c r="I79" s="1" t="s">
         <v>5</v>
       </c>
@@ -12031,7 +12031,7 @@
       <c r="D80" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="37"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="1" t="s">
         <v>26</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="F81" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H81" s="36" t="s">
         <v>270</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -12080,7 +12080,7 @@
       <c r="D82" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H82" s="37"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
@@ -12129,16 +12129,16 @@
       <c r="F84" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="I84" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="44" t="s">
+      <c r="J84" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="K84" s="38"/>
+      <c r="K84" s="39"/>
       <c r="L84" s="14" t="s">
         <v>279</v>
       </c>
@@ -12153,16 +12153,16 @@
       <c r="D85" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="39"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="44"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="36"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="45"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="43"/>
       <c r="K86" s="40"/>
       <c r="L86" s="15" t="s">
         <v>280</v>
@@ -12178,7 +12178,7 @@
       <c r="D87" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="37"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="1" t="s">
         <v>20</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="F88" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="36" t="s">
         <v>282</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -12225,7 +12225,7 @@
       <c r="D89" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H89" s="37"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="1" t="s">
         <v>284</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="F90" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="36" t="s">
         <v>286</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -12272,7 +12272,7 @@
       <c r="D91" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H91" s="37"/>
+      <c r="H91" s="38"/>
       <c r="I91" s="1" t="s">
         <v>284</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="D92" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H92" s="35" t="s">
+      <c r="H92" s="36" t="s">
         <v>292</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -12318,7 +12318,7 @@
       <c r="D93" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="36"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="1"/>
       <c r="J93" s="19"/>
       <c r="K93" s="20"/>
@@ -12337,7 +12337,7 @@
       <c r="F94" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H94" s="37"/>
+      <c r="H94" s="38"/>
       <c r="I94" s="1" t="s">
         <v>38</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="D95" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="35" t="s">
+      <c r="H95" s="36" t="s">
         <v>104</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -12383,7 +12383,7 @@
       <c r="D96" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="37"/>
+      <c r="H96" s="38"/>
       <c r="I96" s="1" t="s">
         <v>102</v>
       </c>
@@ -12403,7 +12403,7 @@
       <c r="D97" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="36" t="s">
         <v>297</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -12427,7 +12427,7 @@
       <c r="D98" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="36"/>
+      <c r="H98" s="37"/>
       <c r="I98" s="1" t="s">
         <v>57</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="D99" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H99" s="36"/>
+      <c r="H99" s="37"/>
       <c r="I99" s="1" t="s">
         <v>111</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="D100" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="37"/>
+      <c r="H100" s="38"/>
       <c r="I100" s="1" t="s">
         <v>162</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="D101" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="35" t="s">
+      <c r="H101" s="36" t="s">
         <v>302</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -12519,7 +12519,7 @@
       <c r="D102" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H102" s="36"/>
+      <c r="H102" s="37"/>
       <c r="I102" s="1" t="s">
         <v>57</v>
       </c>
@@ -12539,7 +12539,7 @@
       <c r="D103" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="37"/>
+      <c r="H103" s="38"/>
       <c r="I103" s="1" t="s">
         <v>111</v>
       </c>
@@ -12561,7 +12561,7 @@
       <c r="D104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="35" t="s">
+      <c r="H104" s="36" t="s">
         <v>306</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -12587,7 +12587,7 @@
       <c r="D105" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H105" s="36"/>
+      <c r="H105" s="37"/>
       <c r="I105" s="1" t="s">
         <v>309</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="D106" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H106" s="37"/>
+      <c r="H106" s="38"/>
       <c r="I106" s="1" t="s">
         <v>162</v>
       </c>
@@ -12633,30 +12633,30 @@
       <c r="D107" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H107" s="35" t="s">
+      <c r="H107" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="I107" s="35" t="s">
+      <c r="I107" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J107" s="44" t="s">
+      <c r="J107" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="38"/>
+      <c r="K107" s="39"/>
       <c r="L107" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="45"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="43"/>
       <c r="K108" s="40"/>
       <c r="L108" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="28" t="s">
         <v>314</v>
       </c>
@@ -12666,7 +12666,7 @@
       <c r="D109" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H109" s="37"/>
+      <c r="H109" s="38"/>
       <c r="I109" s="1" t="s">
         <v>162</v>
       </c>
@@ -12690,7 +12690,7 @@
       <c r="D110" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H110" s="35" t="s">
+      <c r="H110" s="36" t="s">
         <v>320</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -12716,7 +12716,7 @@
       <c r="D111" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H111" s="37"/>
+      <c r="H111" s="38"/>
       <c r="I111" s="1" t="s">
         <v>140</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="D113" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="H113" s="35" t="s">
+      <c r="H113" s="36" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -12780,7 +12780,7 @@
       <c r="D114" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H114" s="37"/>
+      <c r="H114" s="38"/>
       <c r="I114" s="1" t="s">
         <v>42</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="D116" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="H116" s="35" t="s">
+      <c r="H116" s="36" t="s">
         <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -12850,7 +12850,7 @@
       <c r="D117" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="37"/>
+      <c r="H117" s="38"/>
       <c r="I117" s="1" t="s">
         <v>140</v>
       </c>
@@ -12890,7 +12890,7 @@
       <c r="D119" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="H119" s="35" t="s">
+      <c r="H119" s="36" t="s">
         <v>337</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -12912,31 +12912,31 @@
       <c r="D120" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="36"/>
-      <c r="I120" s="35" t="s">
+      <c r="H120" s="37"/>
+      <c r="I120" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="J120" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="K120" s="38"/>
+      <c r="K120" s="39"/>
       <c r="L120" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="39"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="44"/>
       <c r="L121" s="22" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="45"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="43"/>
       <c r="K122" s="40"/>
       <c r="L122" s="15" t="s">
         <v>344</v>
@@ -12952,7 +12952,7 @@
       <c r="D123" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H123" s="36" t="s">
         <v>345</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -12976,7 +12976,7 @@
       <c r="D124" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="H124" s="37"/>
+      <c r="H124" s="38"/>
       <c r="I124" s="1" t="s">
         <v>347</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="D125" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="35" t="s">
+      <c r="H125" s="36" t="s">
         <v>351</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -13022,7 +13022,7 @@
       <c r="D126" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="36"/>
+      <c r="H126" s="37"/>
       <c r="I126" s="1" t="s">
         <v>162</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="D127" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H127" s="36"/>
+      <c r="H127" s="37"/>
       <c r="I127" s="1" t="s">
         <v>30</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="D128" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="H128" s="37"/>
+      <c r="H128" s="38"/>
       <c r="I128" s="1" t="s">
         <v>355</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="F129" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="H129" s="35" t="s">
+      <c r="H129" s="36" t="s">
         <v>357</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -13109,7 +13109,7 @@
       <c r="D130" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="37"/>
+      <c r="H130" s="38"/>
       <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
@@ -13129,7 +13129,7 @@
       <c r="D131" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="36" t="s">
         <v>359</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -13153,7 +13153,7 @@
       <c r="D132" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="37"/>
+      <c r="H132" s="38"/>
       <c r="I132" s="1" t="s">
         <v>42</v>
       </c>
@@ -13219,7 +13219,7 @@
       <c r="D135" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H135" s="35" t="s">
+      <c r="H135" s="36" t="s">
         <v>367</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -13241,7 +13241,7 @@
       <c r="D136" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H136" s="37"/>
+      <c r="H136" s="38"/>
       <c r="I136" s="1" t="s">
         <v>162</v>
       </c>
@@ -13275,24 +13275,24 @@
       <c r="D138" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H138" s="35" t="s">
+      <c r="H138" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="I138" s="35" t="s">
+      <c r="I138" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J138" s="44" t="s">
+      <c r="J138" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="K138" s="38"/>
+      <c r="K138" s="39"/>
       <c r="L138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139" spans="2:12" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="36"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="45"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="43"/>
       <c r="K139" s="40"/>
       <c r="L139" s="18" t="s">
         <v>373</v>
@@ -13308,7 +13308,7 @@
       <c r="D140" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H140" s="37"/>
+      <c r="H140" s="38"/>
       <c r="I140" s="1" t="s">
         <v>162</v>
       </c>
@@ -13330,21 +13330,21 @@
       <c r="D141" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="35" t="s">
+      <c r="H141" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="I141" s="35" t="s">
+      <c r="I141" s="36" t="s">
         <v>69</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="39"/>
     </row>
     <row r="142" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
       <c r="J142" s="23" t="s">
         <v>378</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="D143" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H143" s="35" t="s">
+      <c r="H143" s="36" t="s">
         <v>379</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -13377,7 +13377,7 @@
       <c r="C144" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H144" s="37"/>
+      <c r="H144" s="38"/>
       <c r="I144" s="1" t="s">
         <v>162</v>
       </c>
@@ -13467,7 +13467,7 @@
       <c r="D148" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H148" s="35" t="s">
+      <c r="H148" s="36" t="s">
         <v>14</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -13489,15 +13489,15 @@
       <c r="D149" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H149" s="36"/>
+      <c r="H149" s="37"/>
       <c r="I149" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="J149" s="41" t="s">
+      <c r="J149" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="K149" s="38"/>
-      <c r="L149" s="33" t="s">
+      <c r="K149" s="39"/>
+      <c r="L149" s="47" t="s">
         <v>393</v>
       </c>
     </row>
@@ -13511,20 +13511,20 @@
       <c r="D150" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H150" s="36"/>
+      <c r="H150" s="37"/>
       <c r="I150" s="31"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="39"/>
-      <c r="L150" s="46"/>
+      <c r="J150" s="49"/>
+      <c r="K150" s="44"/>
+      <c r="L150" s="50"/>
     </row>
     <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H151" s="37"/>
+      <c r="H151" s="38"/>
       <c r="I151" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="J151" s="43"/>
+      <c r="J151" s="46"/>
       <c r="K151" s="40"/>
-      <c r="L151" s="34"/>
+      <c r="L151" s="48"/>
     </row>
     <row r="152" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B152" s="28" t="s">
@@ -13536,16 +13536,16 @@
       <c r="D152" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H152" s="35" t="s">
+      <c r="H152" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="I152" s="35" t="s">
+      <c r="I152" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="J152" s="41" t="s">
+      <c r="J152" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="K152" s="38"/>
+      <c r="K152" s="39"/>
       <c r="L152" s="14" t="s">
         <v>396</v>
       </c>
@@ -13560,9 +13560,9 @@
       <c r="D153" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="43"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="46"/>
       <c r="K153" s="40"/>
       <c r="L153" s="23" t="s">
         <v>397</v>
@@ -13626,16 +13626,16 @@
       <c r="D156" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H156" s="35" t="s">
+      <c r="H156" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="I156" s="35" t="s">
+      <c r="I156" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J156" s="44" t="s">
+      <c r="J156" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="K156" s="38"/>
+      <c r="K156" s="39"/>
       <c r="L156" s="14" t="s">
         <v>405</v>
       </c>
@@ -13650,9 +13650,9 @@
       <c r="D157" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="45"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="38"/>
+      <c r="J157" s="43"/>
       <c r="K157" s="40"/>
       <c r="L157" s="18" t="s">
         <v>406</v>
@@ -13668,7 +13668,7 @@
       <c r="D158" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H158" s="35" t="s">
+      <c r="H158" s="36" t="s">
         <v>407</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -13692,7 +13692,7 @@
       <c r="D159" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H159" s="36"/>
+      <c r="H159" s="37"/>
       <c r="I159" s="1"/>
       <c r="J159" s="19"/>
       <c r="K159" s="20"/>
@@ -13708,7 +13708,7 @@
       <c r="D160" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="37"/>
+      <c r="H160" s="38"/>
       <c r="I160" s="1" t="s">
         <v>21</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="D161" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="35" t="s">
+      <c r="H161" s="36" t="s">
         <v>411</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -13754,7 +13754,7 @@
       <c r="D162" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H162" s="37"/>
+      <c r="H162" s="38"/>
       <c r="I162" s="1" t="s">
         <v>51</v>
       </c>
@@ -13776,7 +13776,7 @@
       <c r="D163" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="H163" s="36" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -13803,7 +13803,7 @@
       <c r="F164" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H164" s="37"/>
+      <c r="H164" s="38"/>
       <c r="I164" s="1" t="s">
         <v>23</v>
       </c>
@@ -13847,7 +13847,7 @@
       <c r="D166" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H166" s="35" t="s">
+      <c r="H166" s="36" t="s">
         <v>419</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -13871,26 +13871,26 @@
       <c r="D167" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H167" s="36"/>
+      <c r="H167" s="37"/>
       <c r="I167" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J167" s="44" t="s">
+      <c r="J167" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K167" s="38"/>
-      <c r="L167" s="33" t="s">
+      <c r="K167" s="39"/>
+      <c r="L167" s="47" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="168" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H168" s="36"/>
+      <c r="H168" s="37"/>
       <c r="I168" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="J168" s="45"/>
+      <c r="J168" s="43"/>
       <c r="K168" s="40"/>
-      <c r="L168" s="34"/>
+      <c r="L168" s="48"/>
     </row>
     <row r="169" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
@@ -13902,7 +13902,7 @@
       <c r="D169" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H169" s="36"/>
+      <c r="H169" s="37"/>
       <c r="I169" s="1" t="s">
         <v>32</v>
       </c>
@@ -13924,7 +13924,7 @@
       <c r="D170" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="37"/>
+      <c r="H170" s="38"/>
       <c r="I170" s="1" t="s">
         <v>18</v>
       </c>
@@ -13946,7 +13946,7 @@
       <c r="D171" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H171" s="35" t="s">
+      <c r="H171" s="36" t="s">
         <v>426</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -13968,7 +13968,7 @@
       <c r="D172" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="H172" s="36"/>
+      <c r="H172" s="37"/>
       <c r="I172" s="1" t="s">
         <v>427</v>
       </c>
@@ -13990,7 +13990,7 @@
       <c r="D173" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H173" s="37"/>
+      <c r="H173" s="38"/>
       <c r="I173" s="1" t="s">
         <v>429</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="D174" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H174" s="35" t="s">
+      <c r="H174" s="36" t="s">
         <v>433</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -14038,7 +14038,7 @@
       <c r="D175" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="36"/>
+      <c r="H175" s="37"/>
       <c r="I175" s="1" t="s">
         <v>34</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="F176" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H176" s="37"/>
+      <c r="H176" s="38"/>
       <c r="I176" s="1" t="s">
         <v>358</v>
       </c>
@@ -14085,7 +14085,7 @@
       <c r="D177" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H177" s="35" t="s">
+      <c r="H177" s="36" t="s">
         <v>439</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -14109,7 +14109,7 @@
       <c r="D178" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="36"/>
+      <c r="H178" s="37"/>
       <c r="I178" s="1" t="s">
         <v>32</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="D179" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H179" s="37"/>
+      <c r="H179" s="38"/>
       <c r="I179" s="1" t="s">
         <v>15</v>
       </c>
@@ -14151,7 +14151,7 @@
       <c r="D180" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="35" t="s">
+      <c r="H180" s="36" t="s">
         <v>37</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -14175,7 +14175,7 @@
       <c r="D181" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="H181" s="37"/>
+      <c r="H181" s="38"/>
       <c r="I181" s="1" t="s">
         <v>284</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="D182" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H182" s="35" t="s">
+      <c r="H182" s="36" t="s">
         <v>444</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -14219,21 +14219,21 @@
       <c r="D183" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H183" s="36"/>
-      <c r="I183" s="35" t="s">
+      <c r="H183" s="37"/>
+      <c r="I183" s="36" t="s">
         <v>162</v>
       </c>
       <c r="J183" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K183" s="38" t="s">
+      <c r="K183" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="L183" s="38"/>
+      <c r="L183" s="39"/>
     </row>
     <row r="184" spans="2:12" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="38"/>
       <c r="J184" s="18" t="s">
         <v>446</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="D185" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H185" s="35" t="s">
+      <c r="H185" s="36" t="s">
         <v>448</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -14276,7 +14276,7 @@
       <c r="D186" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H186" s="37"/>
+      <c r="H186" s="38"/>
       <c r="I186" s="1" t="s">
         <v>451</v>
       </c>
@@ -14322,7 +14322,7 @@
       <c r="D188" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H188" s="35" t="s">
+      <c r="H188" s="36" t="s">
         <v>455</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -14346,7 +14346,7 @@
       <c r="D189" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="37"/>
+      <c r="H189" s="38"/>
       <c r="I189" s="1" t="s">
         <v>457</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="D190" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H190" s="35" t="s">
+      <c r="H190" s="36" t="s">
         <v>460</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -14390,7 +14390,7 @@
       <c r="D191" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H191" s="37"/>
+      <c r="H191" s="38"/>
       <c r="I191" s="1" t="s">
         <v>162</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="D192" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H192" s="35" t="s">
+      <c r="H192" s="36" t="s">
         <v>463</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -14434,22 +14434,22 @@
       <c r="D193" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H193" s="36"/>
-      <c r="I193" s="35" t="s">
+      <c r="H193" s="37"/>
+      <c r="I193" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J193" s="41" t="s">
+      <c r="J193" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="K193" s="38"/>
+      <c r="K193" s="39"/>
       <c r="L193" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="194" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H194" s="36"/>
-      <c r="I194" s="37"/>
-      <c r="J194" s="43"/>
+      <c r="H194" s="37"/>
+      <c r="I194" s="38"/>
+      <c r="J194" s="46"/>
       <c r="K194" s="40"/>
       <c r="L194" s="15" t="s">
         <v>466</v>
@@ -14465,7 +14465,7 @@
       <c r="D195" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="36"/>
+      <c r="H195" s="37"/>
       <c r="I195" s="1" t="s">
         <v>85</v>
       </c>
@@ -14489,7 +14489,7 @@
       <c r="D196" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H196" s="36"/>
+      <c r="H196" s="37"/>
       <c r="I196" s="1" t="s">
         <v>111</v>
       </c>
@@ -14513,7 +14513,7 @@
       <c r="D197" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H197" s="37"/>
+      <c r="H197" s="38"/>
       <c r="I197" s="1" t="s">
         <v>162</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="D198" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H198" s="35" t="s">
+      <c r="H198" s="36" t="s">
         <v>472</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -14559,7 +14559,7 @@
       <c r="D199" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="H199" s="37"/>
+      <c r="H199" s="38"/>
       <c r="I199" s="1" t="s">
         <v>474</v>
       </c>
@@ -14583,7 +14583,7 @@
       <c r="D200" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H200" s="35" t="s">
+      <c r="H200" s="36" t="s">
         <v>478</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -14605,7 +14605,7 @@
       <c r="D201" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H201" s="37"/>
+      <c r="H201" s="38"/>
       <c r="I201" s="1" t="s">
         <v>108</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="D202" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H202" s="35" t="s">
+      <c r="H202" s="36" t="s">
         <v>481</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -14649,7 +14649,7 @@
       <c r="D203" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H203" s="36"/>
+      <c r="H203" s="37"/>
       <c r="I203" s="1" t="s">
         <v>85</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="D204" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H204" s="36"/>
+      <c r="H204" s="37"/>
       <c r="I204" s="1" t="s">
         <v>94</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="D205" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H205" s="37"/>
+      <c r="H205" s="38"/>
       <c r="I205" s="1" t="s">
         <v>162</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="D207" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H207" s="35" t="s">
+      <c r="H207" s="36" t="s">
         <v>486</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -14755,22 +14755,22 @@
       <c r="D208" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="H208" s="36"/>
-      <c r="I208" s="35" t="s">
+      <c r="H208" s="37"/>
+      <c r="I208" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J208" s="44" t="s">
+      <c r="J208" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K208" s="38"/>
+      <c r="K208" s="39"/>
       <c r="L208" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="209" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H209" s="36"/>
-      <c r="I209" s="37"/>
-      <c r="J209" s="45"/>
+      <c r="H209" s="37"/>
+      <c r="I209" s="38"/>
+      <c r="J209" s="43"/>
       <c r="K209" s="40"/>
       <c r="L209" s="23" t="s">
         <v>489</v>
@@ -14786,31 +14786,31 @@
       <c r="D210" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H210" s="36"/>
-      <c r="I210" s="35" t="s">
+      <c r="H210" s="37"/>
+      <c r="I210" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J210" s="41" t="s">
+      <c r="J210" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="K210" s="38"/>
+      <c r="K210" s="39"/>
       <c r="L210" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
-      <c r="J211" s="42"/>
-      <c r="K211" s="39"/>
+      <c r="H211" s="37"/>
+      <c r="I211" s="37"/>
+      <c r="J211" s="49"/>
+      <c r="K211" s="44"/>
       <c r="L211" s="17" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="212" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H212" s="36"/>
-      <c r="I212" s="37"/>
-      <c r="J212" s="43"/>
+      <c r="H212" s="37"/>
+      <c r="I212" s="38"/>
+      <c r="J212" s="46"/>
       <c r="K212" s="40"/>
       <c r="L212" s="23" t="s">
         <v>493</v>
@@ -14826,7 +14826,7 @@
       <c r="D213" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="H213" s="37"/>
+      <c r="H213" s="38"/>
       <c r="I213" s="1" t="s">
         <v>494</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="F216" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="H216" s="35" t="s">
+      <c r="H216" s="36" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -14925,7 +14925,7 @@
       <c r="D217" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H217" s="36"/>
+      <c r="H217" s="37"/>
       <c r="I217" s="1" t="s">
         <v>408</v>
       </c>
@@ -14947,7 +14947,7 @@
       <c r="D218" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H218" s="36"/>
+      <c r="H218" s="37"/>
       <c r="I218" s="1"/>
       <c r="J218" s="19"/>
       <c r="K218" s="20"/>
@@ -14963,7 +14963,7 @@
       <c r="D219" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H219" s="36"/>
+      <c r="H219" s="37"/>
       <c r="I219" s="1" t="s">
         <v>21</v>
       </c>
@@ -14985,7 +14985,7 @@
       <c r="D220" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H220" s="36"/>
+      <c r="H220" s="37"/>
       <c r="I220" s="1" t="s">
         <v>26</v>
       </c>
@@ -15009,7 +15009,7 @@
       <c r="D221" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H221" s="36"/>
+      <c r="H221" s="37"/>
       <c r="I221" s="1" t="s">
         <v>162</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="D222" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="37"/>
+      <c r="H222" s="38"/>
       <c r="I222" s="1" t="s">
         <v>2</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="D223" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H223" s="35" t="s">
+      <c r="H223" s="36" t="s">
         <v>514</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -15072,7 +15072,7 @@
       </c>
     </row>
     <row r="224" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="36"/>
+      <c r="H224" s="37"/>
       <c r="I224" s="1" t="s">
         <v>516</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="36"/>
+      <c r="H225" s="37"/>
       <c r="I225" s="1" t="s">
         <v>518</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="D226" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H226" s="37"/>
+      <c r="H226" s="38"/>
       <c r="I226" s="1" t="s">
         <v>162</v>
       </c>
@@ -15125,7 +15125,7 @@
       <c r="D227" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="35" t="s">
+      <c r="H227" s="36" t="s">
         <v>521</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -15140,7 +15140,7 @@
       </c>
     </row>
     <row r="228" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H228" s="36"/>
+      <c r="H228" s="37"/>
       <c r="I228" s="1" t="s">
         <v>516</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="L228" s="20"/>
     </row>
     <row r="229" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="37"/>
+      <c r="H229" s="38"/>
       <c r="I229" s="1" t="s">
         <v>518</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="D231" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H231" s="35" t="s">
+      <c r="H231" s="36" t="s">
         <v>526</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -15214,7 +15214,7 @@
       <c r="C232" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H232" s="37"/>
+      <c r="H232" s="38"/>
       <c r="I232" s="1" t="s">
         <v>162</v>
       </c>
@@ -15234,45 +15234,45 @@
       <c r="D233" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="H233" s="35" t="s">
+      <c r="H233" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="I233" s="35" t="s">
+      <c r="I233" s="36" t="s">
         <v>105</v>
       </c>
       <c r="J233" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="K233" s="38"/>
+      <c r="K233" s="39"/>
       <c r="L233" s="14" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="H234" s="36"/>
-      <c r="I234" s="36"/>
+    <row r="234" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="H234" s="37"/>
+      <c r="I234" s="37"/>
       <c r="J234" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="K234" s="39"/>
+      <c r="K234" s="44"/>
       <c r="L234" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="H235" s="36"/>
-      <c r="I235" s="36"/>
+    <row r="235" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="H235" s="37"/>
+      <c r="I235" s="37"/>
       <c r="J235" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="K235" s="39"/>
+      <c r="K235" s="44"/>
       <c r="L235" s="22" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="236" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H236" s="36"/>
-      <c r="I236" s="37"/>
+      <c r="H236" s="37"/>
+      <c r="I236" s="38"/>
       <c r="J236" s="18"/>
       <c r="K236" s="40"/>
       <c r="L236" s="15" t="s">
@@ -15289,7 +15289,7 @@
       <c r="D237" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H237" s="36"/>
+      <c r="H237" s="37"/>
       <c r="I237" s="1" t="s">
         <v>102</v>
       </c>
@@ -15311,7 +15311,7 @@
       <c r="D238" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H238" s="37"/>
+      <c r="H238" s="38"/>
       <c r="I238" s="1" t="s">
         <v>162</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="D240" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="H240" s="35" t="s">
+      <c r="H240" s="36" t="s">
         <v>542</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -15381,7 +15381,7 @@
       <c r="D241" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H241" s="36"/>
+      <c r="H241" s="37"/>
       <c r="I241" s="1" t="s">
         <v>546</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="D242" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H242" s="37"/>
+      <c r="H242" s="38"/>
       <c r="I242" s="1" t="s">
         <v>108</v>
       </c>
@@ -15425,7 +15425,7 @@
       <c r="D243" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H243" s="35" t="s">
+      <c r="H243" s="36" t="s">
         <v>550</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -15449,7 +15449,7 @@
       <c r="D244" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="36"/>
+      <c r="H244" s="37"/>
       <c r="I244" s="1" t="s">
         <v>28</v>
       </c>
@@ -15471,44 +15471,44 @@
       <c r="D245" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="H245" s="36"/>
-      <c r="I245" s="35" t="s">
+      <c r="H245" s="37"/>
+      <c r="I245" s="36" t="s">
         <v>65</v>
       </c>
       <c r="J245" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="K245" s="38"/>
-      <c r="L245" s="41" t="s">
+      <c r="K245" s="39"/>
+      <c r="L245" s="45" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="246" spans="2:12" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="H246" s="36"/>
-      <c r="I246" s="36"/>
+      <c r="H246" s="37"/>
+      <c r="I246" s="37"/>
       <c r="J246" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="K246" s="39"/>
-      <c r="L246" s="42"/>
+      <c r="K246" s="44"/>
+      <c r="L246" s="49"/>
     </row>
     <row r="247" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="H247" s="36"/>
-      <c r="I247" s="36"/>
+      <c r="H247" s="37"/>
+      <c r="I247" s="37"/>
       <c r="J247" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="K247" s="39"/>
-      <c r="L247" s="42"/>
+      <c r="K247" s="44"/>
+      <c r="L247" s="49"/>
     </row>
     <row r="248" spans="2:12" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H248" s="37"/>
-      <c r="I248" s="37"/>
+      <c r="H248" s="38"/>
+      <c r="I248" s="38"/>
       <c r="J248" s="18" t="s">
         <v>556</v>
       </c>
       <c r="K248" s="40"/>
-      <c r="L248" s="43"/>
+      <c r="L248" s="46"/>
     </row>
     <row r="249" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="28" t="s">
@@ -15547,7 +15547,7 @@
       <c r="D250" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H250" s="35" t="s">
+      <c r="H250" s="36" t="s">
         <v>560</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -15569,28 +15569,28 @@
       <c r="D251" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H251" s="36"/>
-      <c r="I251" s="35" t="s">
+      <c r="H251" s="37"/>
+      <c r="I251" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="J251" s="44" t="s">
+      <c r="J251" s="41" t="s">
         <v>100</v>
       </c>
       <c r="K251" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L251" s="33" t="s">
+      <c r="L251" s="47" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="252" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H252" s="36"/>
-      <c r="I252" s="37"/>
-      <c r="J252" s="45"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="38"/>
+      <c r="J252" s="43"/>
       <c r="K252" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="L252" s="34"/>
+      <c r="L252" s="48"/>
     </row>
     <row r="253" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B253" s="28" t="s">
@@ -15602,113 +15602,78 @@
       <c r="D253" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H253" s="36"/>
-      <c r="I253" s="35" t="s">
+      <c r="H253" s="37"/>
+      <c r="I253" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="J253" s="44" t="s">
+      <c r="J253" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K253" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L253" s="33" t="s">
+      <c r="L253" s="47" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="254" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H254" s="37"/>
-      <c r="I254" s="37"/>
-      <c r="J254" s="45"/>
+      <c r="H254" s="38"/>
+      <c r="I254" s="38"/>
+      <c r="J254" s="43"/>
       <c r="K254" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="34"/>
+      <c r="L254" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="H2:H15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="I245:I248"/>
+    <mergeCell ref="K245:K248"/>
+    <mergeCell ref="L245:L248"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H238"/>
+    <mergeCell ref="I233:I236"/>
+    <mergeCell ref="K233:K236"/>
+    <mergeCell ref="H240:H242"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="I210:I212"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="K210:K212"/>
+    <mergeCell ref="H216:H222"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="H207:H213"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H179"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="H182:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H166:H170"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
     <mergeCell ref="L167:L168"/>
     <mergeCell ref="H171:H173"/>
     <mergeCell ref="H156:H157"/>
@@ -15725,53 +15690,88 @@
     <mergeCell ref="I152:I153"/>
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="K152:K153"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H179"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="H182:H184"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H166:H170"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="H207:H213"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H238"/>
-    <mergeCell ref="I233:I236"/>
-    <mergeCell ref="K233:K236"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="I210:I212"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="K210:K212"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="I245:I248"/>
-    <mergeCell ref="K245:K248"/>
-    <mergeCell ref="L245:L248"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Слог" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BB%D0%BE%D0%B3"/>
@@ -16268,12 +16268,12 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
@@ -17599,15 +17599,15 @@
   <dimension ref="B2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="27"/>
-    <col min="4" max="4" width="3.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
@@ -17615,10 +17615,10 @@
       <c r="B2" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="34" t="s">
         <v>692</v>
       </c>
     </row>
@@ -17626,7 +17626,7 @@
       <c r="B3" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="34" t="s">
         <v>575</v>
       </c>
     </row>
@@ -17634,13 +17634,13 @@
       <c r="B4" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="34" t="s">
         <v>773</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="35" t="s">
         <v>785</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="35" t="s">
         <v>784</v>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       <c r="B5" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="34" t="s">
         <v>581</v>
       </c>
     </row>
@@ -17656,13 +17656,13 @@
       <c r="B6" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="35" t="s">
         <v>782</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="34" t="s">
         <v>755</v>
       </c>
     </row>
@@ -17670,13 +17670,13 @@
       <c r="B7" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="35" t="s">
         <v>787</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="34" t="s">
         <v>760</v>
       </c>
     </row>
@@ -17684,13 +17684,13 @@
       <c r="B8" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="35" t="s">
         <v>783</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="34" t="s">
         <v>758</v>
       </c>
     </row>
@@ -17698,13 +17698,13 @@
       <c r="B9" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="34" t="s">
         <v>183</v>
       </c>
     </row>
@@ -17712,10 +17712,10 @@
       <c r="B10" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="35" t="s">
         <v>798</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="34" t="s">
         <v>767</v>
       </c>
     </row>
@@ -17723,7 +17723,7 @@
       <c r="B11" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="35" t="s">
         <v>799</v>
       </c>
     </row>
@@ -17731,13 +17731,13 @@
       <c r="B12" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="35" t="s">
         <v>794</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="34" t="s">
         <v>768</v>
       </c>
     </row>
@@ -17745,13 +17745,13 @@
       <c r="B13" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="34" t="s">
         <v>694</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="34" t="s">
         <v>209</v>
       </c>
     </row>
@@ -17759,13 +17759,13 @@
       <c r="B14" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="34" t="s">
         <v>695</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="34" t="s">
         <v>761</v>
       </c>
     </row>
@@ -17773,13 +17773,13 @@
       <c r="B15" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="34" t="s">
         <v>766</v>
       </c>
     </row>
@@ -17787,13 +17787,13 @@
       <c r="B16" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="35" t="s">
         <v>788</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="34" t="s">
         <v>762</v>
       </c>
     </row>
@@ -17801,10 +17801,10 @@
       <c r="B17" s="27" t="s">
         <v>775</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="35" t="s">
         <v>759</v>
       </c>
     </row>
@@ -17812,13 +17812,13 @@
       <c r="B18" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="34" t="s">
         <v>270</v>
       </c>
     </row>
@@ -17826,13 +17826,13 @@
       <c r="B19" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="35" t="s">
         <v>790</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="34" t="s">
         <v>292</v>
       </c>
     </row>
@@ -17845,7 +17845,7 @@
       <c r="B21" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="34" t="s">
         <v>600</v>
       </c>
     </row>
@@ -17853,10 +17853,10 @@
       <c r="B22" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="34" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17864,13 +17864,13 @@
       <c r="B23" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="34" t="s">
         <v>708</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="34" t="s">
         <v>104</v>
       </c>
     </row>
@@ -17878,13 +17878,13 @@
       <c r="B24" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="34" t="s">
         <v>709</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="34" t="s">
         <v>297</v>
       </c>
     </row>
@@ -17892,13 +17892,13 @@
       <c r="B25" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="34" t="s">
         <v>710</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="34" t="s">
         <v>763</v>
       </c>
     </row>
@@ -17906,13 +17906,13 @@
       <c r="B26" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="35" t="s">
         <v>791</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="34" t="s">
         <v>764</v>
       </c>
     </row>
@@ -17920,13 +17920,13 @@
       <c r="B27" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="34" t="s">
         <v>765</v>
       </c>
     </row>
@@ -17934,7 +17934,7 @@
       <c r="B28" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="34" t="s">
         <v>778</v>
       </c>
     </row>
@@ -17942,200 +17942,200 @@
       <c r="B29" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="34" t="s">
         <v>667</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="34" t="s">
         <v>749</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="34" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="34" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="34" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="34" t="s">
         <v>722</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="34" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="34" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="34" t="s">
         <v>724</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="34" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="35" t="s">
         <v>797</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="35" t="s">
         <v>793</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="34" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="34" t="s">
         <v>733</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="34" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="34" t="s">
         <v>734</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="34" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="34" t="s">
         <v>735</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="34" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="34" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="34" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="34" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="33" t="s">
         <v>796</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="34" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="44" spans="4:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="F44" s="52" t="s">
+      <c r="F44" s="34" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="34" t="s">
         <v>747</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="34" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="34" t="s">
         <v>606</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="35" t="s">
         <v>786</v>
       </c>
       <c r="F46" s="27" t="s">
@@ -18143,56 +18143,56 @@
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="34" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="34" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="34" t="s">
         <v>750</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="34" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="34" t="s">
         <v>751</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="34" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="34" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="34" t="s">
         <v>769</v>
       </c>
     </row>

--- a/Transcription rules.xlsx
+++ b/Transcription rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9585" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Letter-based" sheetId="2" r:id="rId1"/>
@@ -10045,6 +10045,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10057,37 +10063,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10426,16 +10426,16 @@
       <c r="F2" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="38" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="14" t="s">
@@ -10443,8 +10443,8 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="12" t="s">
         <v>121</v>
       </c>
@@ -10465,14 +10465,14 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="41" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -10480,24 +10480,24 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="29"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="18" t="s">
         <v>131</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="1" t="s">
         <v>132</v>
       </c>
@@ -10534,14 +10534,14 @@
       <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="41" t="s">
         <v>134</v>
       </c>
       <c r="L8" s="14" t="s">
@@ -10550,37 +10550,37 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="44"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="44"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="40"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="23" t="s">
         <v>139</v>
       </c>
@@ -10595,7 +10595,7 @@
       <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="1" t="s">
         <v>140</v>
       </c>
@@ -10619,7 +10619,7 @@
       <c r="D14" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="1"/>
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
@@ -10635,7 +10635,7 @@
       <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="1" t="s">
         <v>143</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="D17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="38" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -10702,7 +10702,7 @@
       <c r="F18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="D19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="1" t="s">
         <v>12</v>
       </c>
@@ -10749,27 +10749,27 @@
       <c r="F20" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="38" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="15" t="s">
         <v>153</v>
       </c>
@@ -10787,14 +10787,14 @@
       <c r="F22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="41" t="s">
         <v>154</v>
       </c>
       <c r="L22" s="14" t="s">
@@ -10802,19 +10802,19 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="15" t="s">
         <v>157</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="F25" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="38" t="s">
         <v>158</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -10841,8 +10841,8 @@
       <c r="J25" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="45" t="s">
+      <c r="K25" s="41"/>
+      <c r="L25" s="44" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10856,14 +10856,14 @@
       <c r="F26" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="H26" s="38"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="46"/>
     </row>
     <row r="27" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10903,7 +10903,7 @@
       <c r="D28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="38" t="s">
         <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10925,7 +10925,7 @@
       <c r="D29" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="1" t="s">
         <v>167</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="F30" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="H30" s="38"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="1" t="s">
         <v>170</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="D31" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="38" t="s">
         <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -10997,7 +10997,7 @@
       <c r="F32" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="1" t="s">
         <v>175</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="F33" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="1" t="s">
         <v>178</v>
       </c>
@@ -11084,7 +11084,7 @@
       <c r="D36" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="38" t="s">
         <v>183</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -11108,7 +11108,7 @@
       <c r="D37" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H37" s="38"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="D38" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="38" t="s">
         <v>188</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -11158,7 +11158,7 @@
       <c r="D39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="37"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="1" t="s">
         <v>67</v>
       </c>
@@ -11180,7 +11180,7 @@
       <c r="D40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="1" t="s">
         <v>85</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="D41" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="38" t="s">
         <v>194</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -11226,7 +11226,7 @@
       <c r="D42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="37"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="1" t="s">
         <v>57</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="D43" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="37"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="1" t="s">
         <v>67</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="D44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="37"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="1" t="s">
         <v>85</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="D45" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="1" t="s">
         <v>202</v>
       </c>
@@ -11322,25 +11322,25 @@
       <c r="D46" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="41" t="s">
+      <c r="J46" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="41"/>
       <c r="L46" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="18" t="s">
         <v>208</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="38" t="s">
         <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -11379,7 +11379,7 @@
       <c r="D49" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="1" t="s">
         <v>162</v>
       </c>
@@ -11401,16 +11401,16 @@
       <c r="D50" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="41" t="s">
+      <c r="J50" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="41" t="s">
         <v>215</v>
       </c>
       <c r="L50" s="14" t="s">
@@ -11418,10 +11418,10 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="40"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="43"/>
       <c r="L51" s="23" t="s">
         <v>217</v>
       </c>
@@ -11439,26 +11439,26 @@
       <c r="F52" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="38" t="s">
         <v>218</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="47" t="s">
+      <c r="K52" s="41"/>
+      <c r="L52" s="36" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="37"/>
-      <c r="I53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
       <c r="J53" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="48"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="37"/>
     </row>
     <row r="54" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="28" t="s">
@@ -11473,7 +11473,7 @@
       <c r="E54" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="37"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="1" t="s">
         <v>2</v>
       </c>
@@ -11488,14 +11488,14 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H55" s="37"/>
-      <c r="I55" s="36" t="s">
+      <c r="H55" s="39"/>
+      <c r="I55" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="41" t="s">
         <v>225</v>
       </c>
       <c r="L55" s="14" t="s">
@@ -11503,10 +11503,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="37"/>
-      <c r="I56" s="38"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="40"/>
       <c r="J56" s="46"/>
-      <c r="K56" s="40"/>
+      <c r="K56" s="43"/>
       <c r="L56" s="15" t="s">
         <v>227</v>
       </c>
@@ -11521,36 +11521,36 @@
       <c r="D57" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="36" t="s">
+      <c r="H57" s="39"/>
+      <c r="I57" s="38" t="s">
         <v>162</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K57" s="39"/>
+      <c r="K57" s="41"/>
       <c r="L57" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
       <c r="J58" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="44"/>
+      <c r="K58" s="42"/>
       <c r="L58" s="22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
       <c r="J59" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="K59" s="40"/>
+      <c r="K59" s="43"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11563,7 +11563,7 @@
       <c r="D60" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="38" t="s">
         <v>233</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -11587,7 +11587,7 @@
       <c r="D61" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="37"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="1" t="s">
         <v>2</v>
       </c>
@@ -11609,7 +11609,7 @@
       <c r="D62" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="37"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="1" t="s">
         <v>5</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="F63" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H63" s="37"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="1" t="s">
         <v>38</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="D64" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H64" s="38"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="1" t="s">
         <v>42</v>
       </c>
@@ -11681,7 +11681,7 @@
       <c r="F65" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="38" t="s">
         <v>242</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -11708,7 +11708,7 @@
       <c r="F66" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H66" s="37"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="1" t="s">
         <v>40</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="D67" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="38"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="1" t="s">
         <v>42</v>
       </c>
@@ -11800,7 +11800,7 @@
       <c r="D70" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="36" t="s">
+      <c r="H70" s="38" t="s">
         <v>252</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -11824,7 +11824,7 @@
       <c r="D71" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H71" s="37"/>
+      <c r="H71" s="39"/>
       <c r="I71" s="1"/>
       <c r="J71" s="19"/>
       <c r="K71" s="20"/>
@@ -11840,7 +11840,7 @@
       <c r="D72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="37"/>
+      <c r="H72" s="39"/>
       <c r="I72" s="1" t="s">
         <v>28</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="F73" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H73" s="38"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="1" t="s">
         <v>38</v>
       </c>
@@ -11889,7 +11889,7 @@
       <c r="D74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="38" t="s">
         <v>258</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -11916,7 +11916,7 @@
       <c r="F75" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H75" s="38"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="1" t="s">
         <v>38</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="D77" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="38" t="s">
         <v>262</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -11984,7 +11984,7 @@
       <c r="D78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="37"/>
+      <c r="H78" s="39"/>
       <c r="I78" s="1" t="s">
         <v>2</v>
       </c>
@@ -12009,7 +12009,7 @@
       <c r="F79" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="H79" s="37"/>
+      <c r="H79" s="39"/>
       <c r="I79" s="1" t="s">
         <v>5</v>
       </c>
@@ -12031,7 +12031,7 @@
       <c r="D80" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="38"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="1" t="s">
         <v>26</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="F81" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H81" s="36" t="s">
+      <c r="H81" s="38" t="s">
         <v>270</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -12080,7 +12080,7 @@
       <c r="D82" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H82" s="38"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
@@ -12129,16 +12129,16 @@
       <c r="F84" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H84" s="36" t="s">
+      <c r="H84" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="I84" s="36" t="s">
+      <c r="I84" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="41" t="s">
+      <c r="J84" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="K84" s="39"/>
+      <c r="K84" s="41"/>
       <c r="L84" s="14" t="s">
         <v>279</v>
       </c>
@@ -12153,17 +12153,17 @@
       <c r="D85" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="44"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="42"/>
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="37"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="40"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="43"/>
       <c r="L86" s="15" t="s">
         <v>280</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="D87" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="38"/>
+      <c r="H87" s="40"/>
       <c r="I87" s="1" t="s">
         <v>20</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="F88" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="38" t="s">
         <v>282</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -12225,7 +12225,7 @@
       <c r="D89" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H89" s="38"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="1" t="s">
         <v>284</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="F90" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="38" t="s">
         <v>286</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -12272,7 +12272,7 @@
       <c r="D91" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H91" s="38"/>
+      <c r="H91" s="40"/>
       <c r="I91" s="1" t="s">
         <v>284</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="D92" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H92" s="36" t="s">
+      <c r="H92" s="38" t="s">
         <v>292</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -12318,7 +12318,7 @@
       <c r="D93" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="37"/>
+      <c r="H93" s="39"/>
       <c r="I93" s="1"/>
       <c r="J93" s="19"/>
       <c r="K93" s="20"/>
@@ -12337,7 +12337,7 @@
       <c r="F94" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="H94" s="38"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="1" t="s">
         <v>38</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="D95" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="36" t="s">
+      <c r="H95" s="38" t="s">
         <v>104</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -12383,7 +12383,7 @@
       <c r="D96" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="38"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="1" t="s">
         <v>102</v>
       </c>
@@ -12403,7 +12403,7 @@
       <c r="D97" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="36" t="s">
+      <c r="H97" s="38" t="s">
         <v>297</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -12427,7 +12427,7 @@
       <c r="D98" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="37"/>
+      <c r="H98" s="39"/>
       <c r="I98" s="1" t="s">
         <v>57</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="D99" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H99" s="37"/>
+      <c r="H99" s="39"/>
       <c r="I99" s="1" t="s">
         <v>111</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="D100" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="38"/>
+      <c r="H100" s="40"/>
       <c r="I100" s="1" t="s">
         <v>162</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="D101" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H101" s="38" t="s">
         <v>302</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -12519,7 +12519,7 @@
       <c r="D102" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H102" s="37"/>
+      <c r="H102" s="39"/>
       <c r="I102" s="1" t="s">
         <v>57</v>
       </c>
@@ -12539,7 +12539,7 @@
       <c r="D103" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="38"/>
+      <c r="H103" s="40"/>
       <c r="I103" s="1" t="s">
         <v>111</v>
       </c>
@@ -12561,7 +12561,7 @@
       <c r="D104" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H104" s="36" t="s">
+      <c r="H104" s="38" t="s">
         <v>306</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -12587,7 +12587,7 @@
       <c r="D105" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H105" s="37"/>
+      <c r="H105" s="39"/>
       <c r="I105" s="1" t="s">
         <v>309</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="D106" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H106" s="38"/>
+      <c r="H106" s="40"/>
       <c r="I106" s="1" t="s">
         <v>162</v>
       </c>
@@ -12633,25 +12633,25 @@
       <c r="D107" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H107" s="36" t="s">
+      <c r="H107" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="I107" s="36" t="s">
+      <c r="I107" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J107" s="41" t="s">
+      <c r="J107" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="39"/>
+      <c r="K107" s="41"/>
       <c r="L107" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H108" s="37"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="40"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="43"/>
       <c r="L108" s="18" t="s">
         <v>317</v>
       </c>
@@ -12666,7 +12666,7 @@
       <c r="D109" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H109" s="38"/>
+      <c r="H109" s="40"/>
       <c r="I109" s="1" t="s">
         <v>162</v>
       </c>
@@ -12690,7 +12690,7 @@
       <c r="D110" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H110" s="36" t="s">
+      <c r="H110" s="38" t="s">
         <v>320</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -12716,7 +12716,7 @@
       <c r="D111" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H111" s="38"/>
+      <c r="H111" s="40"/>
       <c r="I111" s="1" t="s">
         <v>140</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="D113" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="H113" s="36" t="s">
+      <c r="H113" s="38" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -12780,7 +12780,7 @@
       <c r="D114" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="H114" s="38"/>
+      <c r="H114" s="40"/>
       <c r="I114" s="1" t="s">
         <v>42</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="D116" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="H116" s="36" t="s">
+      <c r="H116" s="38" t="s">
         <v>332</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -12850,7 +12850,7 @@
       <c r="D117" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="38"/>
+      <c r="H117" s="40"/>
       <c r="I117" s="1" t="s">
         <v>140</v>
       </c>
@@ -12890,7 +12890,7 @@
       <c r="D119" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H119" s="38" t="s">
         <v>337</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -12912,32 +12912,32 @@
       <c r="D120" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="37"/>
-      <c r="I120" s="36" t="s">
+      <c r="H120" s="39"/>
+      <c r="I120" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="41" t="s">
+      <c r="J120" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="K120" s="39"/>
+      <c r="K120" s="41"/>
       <c r="L120" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="44"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="42"/>
       <c r="L121" s="22" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="43"/>
       <c r="L122" s="15" t="s">
         <v>344</v>
       </c>
@@ -12952,7 +12952,7 @@
       <c r="D123" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H123" s="36" t="s">
+      <c r="H123" s="38" t="s">
         <v>345</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -12976,7 +12976,7 @@
       <c r="D124" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="H124" s="38"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="1" t="s">
         <v>347</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="D125" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="36" t="s">
+      <c r="H125" s="38" t="s">
         <v>351</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -13022,7 +13022,7 @@
       <c r="D126" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="37"/>
+      <c r="H126" s="39"/>
       <c r="I126" s="1" t="s">
         <v>162</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="D127" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H127" s="37"/>
+      <c r="H127" s="39"/>
       <c r="I127" s="1" t="s">
         <v>30</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="D128" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="H128" s="38"/>
+      <c r="H128" s="40"/>
       <c r="I128" s="1" t="s">
         <v>355</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="F129" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="H129" s="36" t="s">
+      <c r="H129" s="38" t="s">
         <v>357</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -13109,7 +13109,7 @@
       <c r="D130" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="38"/>
+      <c r="H130" s="40"/>
       <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
@@ -13129,7 +13129,7 @@
       <c r="D131" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="H131" s="36" t="s">
+      <c r="H131" s="38" t="s">
         <v>359</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -13153,7 +13153,7 @@
       <c r="D132" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H132" s="38"/>
+      <c r="H132" s="40"/>
       <c r="I132" s="1" t="s">
         <v>42</v>
       </c>
@@ -13219,7 +13219,7 @@
       <c r="D135" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H135" s="36" t="s">
+      <c r="H135" s="38" t="s">
         <v>367</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -13241,7 +13241,7 @@
       <c r="D136" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H136" s="38"/>
+      <c r="H136" s="40"/>
       <c r="I136" s="1" t="s">
         <v>162</v>
       </c>
@@ -13275,25 +13275,25 @@
       <c r="D138" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H138" s="36" t="s">
+      <c r="H138" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="I138" s="36" t="s">
+      <c r="I138" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J138" s="41" t="s">
+      <c r="J138" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="K138" s="39"/>
+      <c r="K138" s="41"/>
       <c r="L138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139" spans="2:12" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="37"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="43"/>
-      <c r="K139" s="40"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="48"/>
+      <c r="K139" s="43"/>
       <c r="L139" s="18" t="s">
         <v>373</v>
       </c>
@@ -13308,7 +13308,7 @@
       <c r="D140" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H140" s="38"/>
+      <c r="H140" s="40"/>
       <c r="I140" s="1" t="s">
         <v>162</v>
       </c>
@@ -13330,26 +13330,26 @@
       <c r="D141" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="36" t="s">
+      <c r="H141" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="I141" s="36" t="s">
+      <c r="I141" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J141" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="K141" s="39"/>
-      <c r="L141" s="39"/>
+      <c r="K141" s="41"/>
+      <c r="L141" s="41"/>
     </row>
     <row r="142" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H142" s="38"/>
-      <c r="I142" s="38"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
       <c r="J142" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="K142" s="40"/>
-      <c r="L142" s="40"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
     </row>
     <row r="143" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
@@ -13361,7 +13361,7 @@
       <c r="D143" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H143" s="36" t="s">
+      <c r="H143" s="38" t="s">
         <v>379</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -13377,7 +13377,7 @@
       <c r="C144" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H144" s="38"/>
+      <c r="H144" s="40"/>
       <c r="I144" s="1" t="s">
         <v>162</v>
       </c>
@@ -13467,7 +13467,7 @@
       <c r="D148" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H148" s="36" t="s">
+      <c r="H148" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -13489,15 +13489,15 @@
       <c r="D149" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H149" s="37"/>
+      <c r="H149" s="39"/>
       <c r="I149" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="J149" s="45" t="s">
+      <c r="J149" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="K149" s="39"/>
-      <c r="L149" s="47" t="s">
+      <c r="K149" s="41"/>
+      <c r="L149" s="36" t="s">
         <v>393</v>
       </c>
     </row>
@@ -13511,20 +13511,20 @@
       <c r="D150" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H150" s="37"/>
+      <c r="H150" s="39"/>
       <c r="I150" s="31"/>
-      <c r="J150" s="49"/>
-      <c r="K150" s="44"/>
-      <c r="L150" s="50"/>
+      <c r="J150" s="45"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="49"/>
     </row>
     <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H151" s="38"/>
+      <c r="H151" s="40"/>
       <c r="I151" s="26" t="s">
         <v>391</v>
       </c>
       <c r="J151" s="46"/>
-      <c r="K151" s="40"/>
-      <c r="L151" s="48"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="37"/>
     </row>
     <row r="152" spans="2:12" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B152" s="28" t="s">
@@ -13536,16 +13536,16 @@
       <c r="D152" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H152" s="36" t="s">
+      <c r="H152" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="I152" s="36" t="s">
+      <c r="I152" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="J152" s="45" t="s">
+      <c r="J152" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="K152" s="39"/>
+      <c r="K152" s="41"/>
       <c r="L152" s="14" t="s">
         <v>396</v>
       </c>
@@ -13560,10 +13560,10 @@
       <c r="D153" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
       <c r="J153" s="46"/>
-      <c r="K153" s="40"/>
+      <c r="K153" s="43"/>
       <c r="L153" s="23" t="s">
         <v>397</v>
       </c>
@@ -13626,16 +13626,16 @@
       <c r="D156" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H156" s="36" t="s">
+      <c r="H156" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="I156" s="36" t="s">
+      <c r="I156" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J156" s="41" t="s">
+      <c r="J156" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="K156" s="39"/>
+      <c r="K156" s="41"/>
       <c r="L156" s="14" t="s">
         <v>405</v>
       </c>
@@ -13650,10 +13650,10 @@
       <c r="D157" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="H157" s="38"/>
-      <c r="I157" s="38"/>
-      <c r="J157" s="43"/>
-      <c r="K157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="43"/>
       <c r="L157" s="18" t="s">
         <v>406</v>
       </c>
@@ -13668,7 +13668,7 @@
       <c r="D158" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H158" s="36" t="s">
+      <c r="H158" s="38" t="s">
         <v>407</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -13692,7 +13692,7 @@
       <c r="D159" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H159" s="37"/>
+      <c r="H159" s="39"/>
       <c r="I159" s="1"/>
       <c r="J159" s="19"/>
       <c r="K159" s="20"/>
@@ -13708,7 +13708,7 @@
       <c r="D160" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="38"/>
+      <c r="H160" s="40"/>
       <c r="I160" s="1" t="s">
         <v>21</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="D161" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="36" t="s">
+      <c r="H161" s="38" t="s">
         <v>411</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -13754,7 +13754,7 @@
       <c r="D162" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H162" s="38"/>
+      <c r="H162" s="40"/>
       <c r="I162" s="1" t="s">
         <v>51</v>
       </c>
@@ -13776,7 +13776,7 @@
       <c r="D163" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H163" s="36" t="s">
+      <c r="H163" s="38" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -13803,7 +13803,7 @@
       <c r="F164" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H164" s="38"/>
+      <c r="H164" s="40"/>
       <c r="I164" s="1" t="s">
         <v>23</v>
       </c>
@@ -13847,7 +13847,7 @@
       <c r="D166" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H166" s="36" t="s">
+      <c r="H166" s="38" t="s">
         <v>419</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -13871,26 +13871,26 @@
       <c r="D167" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H167" s="37"/>
+      <c r="H167" s="39"/>
       <c r="I167" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="J167" s="41" t="s">
+      <c r="J167" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K167" s="39"/>
-      <c r="L167" s="47" t="s">
+      <c r="K167" s="41"/>
+      <c r="L167" s="36" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="168" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H168" s="37"/>
+      <c r="H168" s="39"/>
       <c r="I168" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="J168" s="43"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="48"/>
+      <c r="J168" s="48"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="37"/>
     </row>
     <row r="169" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
@@ -13902,7 +13902,7 @@
       <c r="D169" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H169" s="37"/>
+      <c r="H169" s="39"/>
       <c r="I169" s="1" t="s">
         <v>32</v>
       </c>
@@ -13924,7 +13924,7 @@
       <c r="D170" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="38"/>
+      <c r="H170" s="40"/>
       <c r="I170" s="1" t="s">
         <v>18</v>
       </c>
@@ -13946,7 +13946,7 @@
       <c r="D171" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H171" s="36" t="s">
+      <c r="H171" s="38" t="s">
         <v>426</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -13968,7 +13968,7 @@
       <c r="D172" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="H172" s="37"/>
+      <c r="H172" s="39"/>
       <c r="I172" s="1" t="s">
         <v>427</v>
       </c>
@@ -13990,7 +13990,7 @@
       <c r="D173" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H173" s="38"/>
+      <c r="H173" s="40"/>
       <c r="I173" s="1" t="s">
         <v>429</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="D174" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H174" s="36" t="s">
+      <c r="H174" s="38" t="s">
         <v>433</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -14038,7 +14038,7 @@
       <c r="D175" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="37"/>
+      <c r="H175" s="39"/>
       <c r="I175" s="1" t="s">
         <v>34</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="F176" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H176" s="38"/>
+      <c r="H176" s="40"/>
       <c r="I176" s="1" t="s">
         <v>358</v>
       </c>
@@ -14085,7 +14085,7 @@
       <c r="D177" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H177" s="36" t="s">
+      <c r="H177" s="38" t="s">
         <v>439</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -14109,7 +14109,7 @@
       <c r="D178" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="37"/>
+      <c r="H178" s="39"/>
       <c r="I178" s="1" t="s">
         <v>32</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="D179" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H179" s="38"/>
+      <c r="H179" s="40"/>
       <c r="I179" s="1" t="s">
         <v>15</v>
       </c>
@@ -14151,7 +14151,7 @@
       <c r="D180" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H180" s="36" t="s">
+      <c r="H180" s="38" t="s">
         <v>37</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -14175,7 +14175,7 @@
       <c r="D181" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="H181" s="38"/>
+      <c r="H181" s="40"/>
       <c r="I181" s="1" t="s">
         <v>284</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="D182" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H182" s="36" t="s">
+      <c r="H182" s="38" t="s">
         <v>444</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -14219,26 +14219,26 @@
       <c r="D183" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H183" s="37"/>
-      <c r="I183" s="36" t="s">
+      <c r="H183" s="39"/>
+      <c r="I183" s="38" t="s">
         <v>162</v>
       </c>
       <c r="J183" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K183" s="39" t="s">
+      <c r="K183" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="L183" s="39"/>
+      <c r="L183" s="41"/>
     </row>
     <row r="184" spans="2:12" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H184" s="38"/>
-      <c r="I184" s="38"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="40"/>
       <c r="J184" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
     </row>
     <row r="185" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
@@ -14250,7 +14250,7 @@
       <c r="D185" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H185" s="36" t="s">
+      <c r="H185" s="38" t="s">
         <v>448</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -14276,7 +14276,7 @@
       <c r="D186" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H186" s="38"/>
+      <c r="H186" s="40"/>
       <c r="I186" s="1" t="s">
         <v>451</v>
       </c>
@@ -14322,7 +14322,7 @@
       <c r="D188" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H188" s="36" t="s">
+      <c r="H188" s="38" t="s">
         <v>455</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -14346,7 +14346,7 @@
       <c r="D189" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="38"/>
+      <c r="H189" s="40"/>
       <c r="I189" s="1" t="s">
         <v>457</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="D190" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H190" s="36" t="s">
+      <c r="H190" s="38" t="s">
         <v>460</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -14390,7 +14390,7 @@
       <c r="D191" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H191" s="38"/>
+      <c r="H191" s="40"/>
       <c r="I191" s="1" t="s">
         <v>162</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="D192" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H192" s="36" t="s">
+      <c r="H192" s="38" t="s">
         <v>463</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -14434,23 +14434,23 @@
       <c r="D193" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H193" s="37"/>
-      <c r="I193" s="36" t="s">
+      <c r="H193" s="39"/>
+      <c r="I193" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J193" s="45" t="s">
+      <c r="J193" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="K193" s="39"/>
+      <c r="K193" s="41"/>
       <c r="L193" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="194" spans="2:12" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H194" s="37"/>
-      <c r="I194" s="38"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="40"/>
       <c r="J194" s="46"/>
-      <c r="K194" s="40"/>
+      <c r="K194" s="43"/>
       <c r="L194" s="15" t="s">
         <v>466</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="D195" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="37"/>
+      <c r="H195" s="39"/>
       <c r="I195" s="1" t="s">
         <v>85</v>
       </c>
@@ -14489,7 +14489,7 @@
       <c r="D196" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H196" s="37"/>
+      <c r="H196" s="39"/>
       <c r="I196" s="1" t="s">
         <v>111</v>
       </c>
@@ -14513,7 +14513,7 @@
       <c r="D197" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H197" s="38"/>
+      <c r="H197" s="40"/>
       <c r="I197" s="1" t="s">
         <v>162</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="D198" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H198" s="36" t="s">
+      <c r="H198" s="38" t="s">
         <v>472</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -14559,7 +14559,7 @@
       <c r="D199" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="H199" s="38"/>
+      <c r="H199" s="40"/>
       <c r="I199" s="1" t="s">
         <v>474</v>
       </c>
@@ -14583,7 +14583,7 @@
       <c r="D200" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H200" s="36" t="s">
+      <c r="H200" s="38" t="s">
         <v>478</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -14605,7 +14605,7 @@
       <c r="D201" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H201" s="38"/>
+      <c r="H201" s="40"/>
       <c r="I201" s="1" t="s">
         <v>108</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="D202" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H202" s="36" t="s">
+      <c r="H202" s="38" t="s">
         <v>481</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -14649,7 +14649,7 @@
       <c r="D203" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H203" s="37"/>
+      <c r="H203" s="39"/>
       <c r="I203" s="1" t="s">
         <v>85</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="D204" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="H204" s="37"/>
+      <c r="H204" s="39"/>
       <c r="I204" s="1" t="s">
         <v>94</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="D205" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H205" s="38"/>
+      <c r="H205" s="40"/>
       <c r="I205" s="1" t="s">
         <v>162</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="D207" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H207" s="36" t="s">
+      <c r="H207" s="38" t="s">
         <v>486</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -14755,23 +14755,23 @@
       <c r="D208" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="H208" s="37"/>
-      <c r="I208" s="36" t="s">
+      <c r="H208" s="39"/>
+      <c r="I208" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J208" s="41" t="s">
+      <c r="J208" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="K208" s="39"/>
+      <c r="K208" s="41"/>
       <c r="L208" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="209" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H209" s="37"/>
-      <c r="I209" s="38"/>
-      <c r="J209" s="43"/>
-      <c r="K209" s="40"/>
+      <c r="H209" s="39"/>
+      <c r="I209" s="40"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="43"/>
       <c r="L209" s="23" t="s">
         <v>489</v>
       </c>
@@ -14786,32 +14786,32 @@
       <c r="D210" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H210" s="37"/>
-      <c r="I210" s="36" t="s">
+      <c r="H210" s="39"/>
+      <c r="I210" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="J210" s="45" t="s">
+      <c r="J210" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="K210" s="39"/>
+      <c r="K210" s="41"/>
       <c r="L210" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H211" s="37"/>
-      <c r="I211" s="37"/>
-      <c r="J211" s="49"/>
-      <c r="K211" s="44"/>
+      <c r="H211" s="39"/>
+      <c r="I211" s="39"/>
+      <c r="J211" s="45"/>
+      <c r="K211" s="42"/>
       <c r="L211" s="17" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="212" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H212" s="37"/>
-      <c r="I212" s="38"/>
+      <c r="H212" s="39"/>
+      <c r="I212" s="40"/>
       <c r="J212" s="46"/>
-      <c r="K212" s="40"/>
+      <c r="K212" s="43"/>
       <c r="L212" s="23" t="s">
         <v>493</v>
       </c>
@@ -14826,7 +14826,7 @@
       <c r="D213" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="H213" s="38"/>
+      <c r="H213" s="40"/>
       <c r="I213" s="1" t="s">
         <v>494</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="F216" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="H216" s="36" t="s">
+      <c r="H216" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -14925,7 +14925,7 @@
       <c r="D217" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H217" s="37"/>
+      <c r="H217" s="39"/>
       <c r="I217" s="1" t="s">
         <v>408</v>
       </c>
@@ -14947,7 +14947,7 @@
       <c r="D218" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H218" s="37"/>
+      <c r="H218" s="39"/>
       <c r="I218" s="1"/>
       <c r="J218" s="19"/>
       <c r="K218" s="20"/>
@@ -14963,7 +14963,7 @@
       <c r="D219" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H219" s="37"/>
+      <c r="H219" s="39"/>
       <c r="I219" s="1" t="s">
         <v>21</v>
       </c>
@@ -14985,7 +14985,7 @@
       <c r="D220" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H220" s="37"/>
+      <c r="H220" s="39"/>
       <c r="I220" s="1" t="s">
         <v>26</v>
       </c>
@@ -15009,7 +15009,7 @@
       <c r="D221" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H221" s="37"/>
+      <c r="H221" s="39"/>
       <c r="I221" s="1" t="s">
         <v>162</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="D222" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="38"/>
+      <c r="H222" s="40"/>
       <c r="I222" s="1" t="s">
         <v>2</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="D223" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H223" s="36" t="s">
+      <c r="H223" s="38" t="s">
         <v>514</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -15072,7 +15072,7 @@
       </c>
     </row>
     <row r="224" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="37"/>
+      <c r="H224" s="39"/>
       <c r="I224" s="1" t="s">
         <v>516</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="L224" s="20"/>
     </row>
     <row r="225" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="37"/>
+      <c r="H225" s="39"/>
       <c r="I225" s="1" t="s">
         <v>518</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="D226" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H226" s="38"/>
+      <c r="H226" s="40"/>
       <c r="I226" s="1" t="s">
         <v>162</v>
       </c>
@@ -15125,7 +15125,7 @@
       <c r="D227" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="36" t="s">
+      <c r="H227" s="38" t="s">
         <v>521</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -15140,7 +15140,7 @@
       </c>
     </row>
     <row r="228" spans="2:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H228" s="37"/>
+      <c r="H228" s="39"/>
       <c r="I228" s="1" t="s">
         <v>516</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="L228" s="20"/>
     </row>
     <row r="229" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="38"/>
+      <c r="H229" s="40"/>
       <c r="I229" s="1" t="s">
         <v>518</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="D231" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H231" s="36" t="s">
+      <c r="H231" s="38" t="s">
         <v>526</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -15214,7 +15214,7 @@
       <c r="C232" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H232" s="38"/>
+      <c r="H232" s="40"/>
       <c r="I232" s="1" t="s">
         <v>162</v>
       </c>
@@ -15234,47 +15234,47 @@
       <c r="D233" s="28" t="s">
         <v>663</v>
       </c>
-      <c r="H233" s="36" t="s">
+      <c r="H233" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="I233" s="36" t="s">
+      <c r="I233" s="38" t="s">
         <v>105</v>
       </c>
       <c r="J233" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="K233" s="39"/>
+      <c r="K233" s="41"/>
       <c r="L233" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="234" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H234" s="37"/>
-      <c r="I234" s="37"/>
+      <c r="H234" s="39"/>
+      <c r="I234" s="39"/>
       <c r="J234" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="K234" s="44"/>
+      <c r="K234" s="42"/>
       <c r="L234" s="22" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="235" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="H235" s="37"/>
-      <c r="I235" s="37"/>
+      <c r="H235" s="39"/>
+      <c r="I235" s="39"/>
       <c r="J235" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="K235" s="44"/>
+      <c r="K235" s="42"/>
       <c r="L235" s="22" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="236" spans="2:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H236" s="37"/>
-      <c r="I236" s="38"/>
+      <c r="H236" s="39"/>
+      <c r="I236" s="40"/>
       <c r="J236" s="18"/>
-      <c r="K236" s="40"/>
+      <c r="K236" s="43"/>
       <c r="L236" s="15" t="s">
         <v>534</v>
       </c>
@@ -15289,7 +15289,7 @@
       <c r="D237" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H237" s="37"/>
+      <c r="H237" s="39"/>
       <c r="I237" s="1" t="s">
         <v>102</v>
       </c>
@@ -15311,7 +15311,7 @@
       <c r="D238" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="H238" s="38"/>
+      <c r="H238" s="40"/>
       <c r="I238" s="1" t="s">
         <v>162</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="D240" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="H240" s="36" t="s">
+      <c r="H240" s="38" t="s">
         <v>542</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -15381,7 +15381,7 @@
       <c r="D241" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="H241" s="37"/>
+      <c r="H241" s="39"/>
       <c r="I241" s="1" t="s">
         <v>546</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="D242" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H242" s="38"/>
+      <c r="H242" s="40"/>
       <c r="I242" s="1" t="s">
         <v>108</v>
       </c>
@@ -15425,7 +15425,7 @@
       <c r="D243" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H243" s="36" t="s">
+      <c r="H243" s="38" t="s">
         <v>550</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -15449,7 +15449,7 @@
       <c r="D244" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="37"/>
+      <c r="H244" s="39"/>
       <c r="I244" s="1" t="s">
         <v>28</v>
       </c>
@@ -15471,43 +15471,43 @@
       <c r="D245" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="H245" s="37"/>
-      <c r="I245" s="36" t="s">
+      <c r="H245" s="39"/>
+      <c r="I245" s="38" t="s">
         <v>65</v>
       </c>
       <c r="J245" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="K245" s="39"/>
-      <c r="L245" s="45" t="s">
+      <c r="K245" s="41"/>
+      <c r="L245" s="44" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="246" spans="2:12" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="H246" s="37"/>
-      <c r="I246" s="37"/>
+      <c r="H246" s="39"/>
+      <c r="I246" s="39"/>
       <c r="J246" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="K246" s="44"/>
-      <c r="L246" s="49"/>
+      <c r="K246" s="42"/>
+      <c r="L246" s="45"/>
     </row>
     <row r="247" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="H247" s="37"/>
-      <c r="I247" s="37"/>
+      <c r="H247" s="39"/>
+      <c r="I247" s="39"/>
       <c r="J247" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="K247" s="44"/>
-      <c r="L247" s="49"/>
+      <c r="K247" s="42"/>
+      <c r="L247" s="45"/>
     </row>
     <row r="248" spans="2:12" ht="60" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H248" s="38"/>
-      <c r="I248" s="38"/>
+      <c r="H248" s="40"/>
+      <c r="I248" s="40"/>
       <c r="J248" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="K248" s="40"/>
+      <c r="K248" s="43"/>
       <c r="L248" s="46"/>
     </row>
     <row r="249" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15547,7 +15547,7 @@
       <c r="D250" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H250" s="36" t="s">
+      <c r="H250" s="38" t="s">
         <v>560</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -15569,28 +15569,28 @@
       <c r="D251" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H251" s="37"/>
-      <c r="I251" s="36" t="s">
+      <c r="H251" s="39"/>
+      <c r="I251" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J251" s="41" t="s">
+      <c r="J251" s="47" t="s">
         <v>100</v>
       </c>
       <c r="K251" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L251" s="47" t="s">
+      <c r="L251" s="36" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="252" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H252" s="37"/>
-      <c r="I252" s="38"/>
-      <c r="J252" s="43"/>
+      <c r="H252" s="39"/>
+      <c r="I252" s="40"/>
+      <c r="J252" s="48"/>
       <c r="K252" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="L252" s="48"/>
+      <c r="L252" s="37"/>
     </row>
     <row r="253" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B253" s="28" t="s">
@@ -15602,78 +15602,113 @@
       <c r="D253" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H253" s="37"/>
-      <c r="I253" s="36" t="s">
+      <c r="H253" s="39"/>
+      <c r="I253" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="J253" s="41" t="s">
+      <c r="J253" s="47" t="s">
         <v>84</v>
       </c>
       <c r="K253" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="L253" s="47" t="s">
+      <c r="L253" s="36" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="254" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H254" s="38"/>
-      <c r="I254" s="38"/>
-      <c r="J254" s="43"/>
+      <c r="H254" s="40"/>
+      <c r="I254" s="40"/>
+      <c r="J254" s="48"/>
       <c r="K254" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="48"/>
+      <c r="L254" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="I245:I248"/>
-    <mergeCell ref="K245:K248"/>
-    <mergeCell ref="L245:L248"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="H233:H238"/>
-    <mergeCell ref="I233:I236"/>
-    <mergeCell ref="K233:K236"/>
-    <mergeCell ref="H240:H242"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="I210:I212"/>
-    <mergeCell ref="J210:J212"/>
-    <mergeCell ref="K210:K212"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="H202:H205"/>
-    <mergeCell ref="H207:H213"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H179"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="H182:H184"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="H166:H170"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
     <mergeCell ref="L167:L168"/>
     <mergeCell ref="H171:H173"/>
     <mergeCell ref="H156:H157"/>
@@ -15690,88 +15725,53 @@
     <mergeCell ref="I152:I153"/>
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="K152:K153"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="H2:H15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H179"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="H182:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H166:H170"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="H202:H205"/>
+    <mergeCell ref="H207:H213"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="H233:H238"/>
+    <mergeCell ref="I233:I236"/>
+    <mergeCell ref="K233:K236"/>
+    <mergeCell ref="H240:H242"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="I210:I212"/>
+    <mergeCell ref="J210:J212"/>
+    <mergeCell ref="K210:K212"/>
+    <mergeCell ref="H216:H222"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="I245:I248"/>
+    <mergeCell ref="K245:K248"/>
+    <mergeCell ref="L245:L248"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="J253:J254"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Слог" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BB%D0%BE%D0%B3"/>
@@ -17599,7 +17599,7 @@
   <dimension ref="B2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
